--- a/PhoenixCI/Excel_Template/40040.xlsx
+++ b/PhoenixCI/Excel_Template/40040.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Bdc\結算部\風管組\個人資料區\CL.郭劻祥\1.測試\107年測試\107.1盤後子系統樣板升級\Excel_Template\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="保證金調整檢核表" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">保證金調整檢核表!$19:$21</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'保證金調整檢核表(ETF_ETC類)'!$1:$10</definedName>
   </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -2897,7 +2897,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3010,19 +3010,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -3302,235 +3289,268 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3544,39 +3564,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3888,7 +3875,7 @@
   </sheetPr>
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -3914,12 +3901,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="O1" s="77" t="s">
+      <c r="O1" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
     </row>
     <row r="2" spans="2:18" ht="16.5">
       <c r="B2" s="45" t="s">
@@ -3933,35 +3920,35 @@
       <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
     </row>
     <row r="5" spans="2:18" ht="16.5">
       <c r="B5" s="19">
@@ -4114,18 +4101,18 @@
       <c r="B16" s="19">
         <v>5</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
     </row>
     <row r="17" spans="2:18" ht="6.75" customHeight="1"/>
     <row r="18" spans="2:18" ht="16.5">
@@ -4137,105 +4124,105 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="20.25" customHeight="1">
-      <c r="B19" s="73"/>
-      <c r="C19" s="74" t="s">
+      <c r="B19" s="82"/>
+      <c r="C19" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="73" t="s">
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="87" t="s">
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="73" t="s">
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="84" t="s">
+      <c r="Q19" s="82"/>
+      <c r="R19" s="68" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="54.75" customHeight="1">
-      <c r="B20" s="73"/>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="82"/>
+      <c r="C20" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85" t="s">
+      <c r="D20" s="68"/>
+      <c r="E20" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="84" t="s">
+      <c r="F20" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="84" t="s">
+      <c r="I20" s="79"/>
+      <c r="J20" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="84" t="s">
+      <c r="K20" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="84" t="s">
+      <c r="L20" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84" t="s">
+      <c r="M20" s="68"/>
+      <c r="N20" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="O20" s="84" t="s">
+      <c r="O20" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="P20" s="84" t="s">
+      <c r="P20" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
     </row>
     <row r="21" spans="2:18" ht="49.5">
-      <c r="B21" s="73"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="37" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
       <c r="L21" s="36" t="s">
         <v>108</v>
       </c>
       <c r="M21" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
       <c r="P21" s="36" t="s">
         <v>110</v>
       </c>
       <c r="Q21" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="R21" s="84"/>
+      <c r="R21" s="68"/>
     </row>
     <row r="22" spans="2:18" s="38" customFormat="1">
       <c r="B22" s="36" t="s">
@@ -4256,7 +4243,7 @@
       <c r="O22" s="36"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
-      <c r="R22" s="83"/>
+      <c r="R22" s="71"/>
     </row>
     <row r="23" spans="2:18" s="38" customFormat="1">
       <c r="B23" s="36" t="s">
@@ -4277,7 +4264,7 @@
       <c r="O23" s="36"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
-      <c r="R23" s="83"/>
+      <c r="R23" s="71"/>
     </row>
     <row r="24" spans="2:18" s="38" customFormat="1">
       <c r="B24" s="36" t="s">
@@ -4298,7 +4285,7 @@
       <c r="O24" s="36"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
-      <c r="R24" s="83"/>
+      <c r="R24" s="71"/>
     </row>
     <row r="25" spans="2:18" s="38" customFormat="1">
       <c r="B25" s="36" t="s">
@@ -4319,7 +4306,7 @@
       <c r="O25" s="36"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
-      <c r="R25" s="83"/>
+      <c r="R25" s="71"/>
     </row>
     <row r="26" spans="2:18" s="38" customFormat="1">
       <c r="B26" s="36" t="s">
@@ -4340,7 +4327,7 @@
       <c r="O26" s="36"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
-      <c r="R26" s="83"/>
+      <c r="R26" s="71"/>
     </row>
     <row r="27" spans="2:18" s="38" customFormat="1">
       <c r="B27" s="36" t="s">
@@ -4361,7 +4348,7 @@
       <c r="O27" s="36"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
-      <c r="R27" s="83"/>
+      <c r="R27" s="71"/>
     </row>
     <row r="28" spans="2:18" s="38" customFormat="1">
       <c r="B28" s="36" t="s">
@@ -4382,7 +4369,7 @@
       <c r="O28" s="36"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
-      <c r="R28" s="83"/>
+      <c r="R28" s="71"/>
     </row>
     <row r="29" spans="2:18" s="38" customFormat="1">
       <c r="B29" s="36" t="s">
@@ -4403,7 +4390,7 @@
       <c r="O29" s="36"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
-      <c r="R29" s="83"/>
+      <c r="R29" s="71"/>
     </row>
     <row r="30" spans="2:18" s="38" customFormat="1" hidden="1">
       <c r="B30" s="36" t="s">
@@ -4424,7 +4411,7 @@
       <c r="O30" s="36"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
-      <c r="R30" s="83"/>
+      <c r="R30" s="71"/>
     </row>
     <row r="31" spans="2:18" s="38" customFormat="1">
       <c r="B31" s="36" t="s">
@@ -4445,7 +4432,7 @@
       <c r="O31" s="36"/>
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
-      <c r="R31" s="83"/>
+      <c r="R31" s="71"/>
     </row>
     <row r="32" spans="2:18" s="38" customFormat="1">
       <c r="B32" s="36" t="s">
@@ -4466,7 +4453,7 @@
       <c r="O32" s="36"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
-      <c r="R32" s="83"/>
+      <c r="R32" s="71"/>
     </row>
     <row r="33" spans="2:18" s="41" customFormat="1">
       <c r="B33" s="63" t="s">
@@ -4487,7 +4474,7 @@
       <c r="O33" s="52"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
-      <c r="R33" s="83"/>
+      <c r="R33" s="71"/>
     </row>
     <row r="34" spans="2:18" s="41" customFormat="1">
       <c r="B34" s="36" t="s">
@@ -4508,7 +4495,7 @@
       <c r="O34" s="52"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
-      <c r="R34" s="83"/>
+      <c r="R34" s="71"/>
     </row>
     <row r="35" spans="2:18" s="41" customFormat="1">
       <c r="B35" s="36" t="s">
@@ -4529,7 +4516,7 @@
       <c r="O35" s="52"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
-      <c r="R35" s="83"/>
+      <c r="R35" s="71"/>
     </row>
     <row r="36" spans="2:18" s="41" customFormat="1" hidden="1">
       <c r="B36" s="36" t="s">
@@ -4550,7 +4537,7 @@
       <c r="O36" s="52"/>
       <c r="P36" s="42"/>
       <c r="Q36" s="42"/>
-      <c r="R36" s="83"/>
+      <c r="R36" s="71"/>
     </row>
     <row r="37" spans="2:18" s="41" customFormat="1">
       <c r="B37" s="36" t="s">
@@ -4571,7 +4558,7 @@
       <c r="O37" s="52"/>
       <c r="P37" s="42"/>
       <c r="Q37" s="42"/>
-      <c r="R37" s="83"/>
+      <c r="R37" s="71"/>
     </row>
     <row r="38" spans="2:18" s="38" customFormat="1">
       <c r="B38" s="36" t="s">
@@ -4592,7 +4579,7 @@
       <c r="O38" s="36"/>
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
-      <c r="R38" s="83"/>
+      <c r="R38" s="71"/>
     </row>
     <row r="39" spans="2:18" s="38" customFormat="1">
       <c r="B39" s="36" t="s">
@@ -4613,7 +4600,7 @@
       <c r="O39" s="36"/>
       <c r="P39" s="37"/>
       <c r="Q39" s="37"/>
-      <c r="R39" s="83"/>
+      <c r="R39" s="71"/>
     </row>
     <row r="40" spans="2:18" s="41" customFormat="1">
       <c r="B40" s="63" t="s">
@@ -4634,7 +4621,7 @@
       <c r="O40" s="52"/>
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
-      <c r="R40" s="83"/>
+      <c r="R40" s="71"/>
     </row>
     <row r="41" spans="2:18" s="41" customFormat="1">
       <c r="B41" s="63" t="s">
@@ -4655,7 +4642,7 @@
       <c r="O41" s="52"/>
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
-      <c r="R41" s="83"/>
+      <c r="R41" s="71"/>
     </row>
     <row r="42" spans="2:18" s="38" customFormat="1">
       <c r="B42" s="67" t="s">
@@ -4676,7 +4663,7 @@
       <c r="O42" s="36"/>
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
-      <c r="R42" s="83"/>
+      <c r="R42" s="71"/>
     </row>
     <row r="43" spans="2:18" s="38" customFormat="1">
       <c r="B43" s="67" t="s">
@@ -4697,7 +4684,7 @@
       <c r="O43" s="36"/>
       <c r="P43" s="37"/>
       <c r="Q43" s="37"/>
-      <c r="R43" s="83"/>
+      <c r="R43" s="71"/>
     </row>
     <row r="44" spans="2:18" s="38" customFormat="1">
       <c r="B44" s="36" t="s">
@@ -4718,7 +4705,7 @@
       <c r="O44" s="36"/>
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
-      <c r="R44" s="83"/>
+      <c r="R44" s="71"/>
     </row>
     <row r="45" spans="2:18" s="38" customFormat="1">
       <c r="B45" s="36" t="s">
@@ -4739,7 +4726,7 @@
       <c r="O45" s="36"/>
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
-      <c r="R45" s="83"/>
+      <c r="R45" s="71"/>
     </row>
     <row r="46" spans="2:18" s="38" customFormat="1">
       <c r="B46" s="36" t="s">
@@ -4760,7 +4747,7 @@
       <c r="O46" s="36"/>
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
-      <c r="R46" s="83"/>
+      <c r="R46" s="71"/>
     </row>
     <row r="47" spans="2:18" s="38" customFormat="1">
       <c r="B47" s="36" t="s">
@@ -4781,7 +4768,7 @@
       <c r="O47" s="36"/>
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
-      <c r="R47" s="83"/>
+      <c r="R47" s="71"/>
     </row>
     <row r="48" spans="2:18" s="38" customFormat="1">
       <c r="B48" s="36" t="s">
@@ -4802,7 +4789,7 @@
       <c r="O48" s="36"/>
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
-      <c r="R48" s="83"/>
+      <c r="R48" s="71"/>
     </row>
     <row r="49" spans="2:18" s="38" customFormat="1">
       <c r="B49" s="36" t="s">
@@ -4823,7 +4810,7 @@
       <c r="O49" s="36"/>
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
-      <c r="R49" s="83"/>
+      <c r="R49" s="71"/>
     </row>
     <row r="50" spans="2:18" s="38" customFormat="1">
       <c r="B50" s="36" t="s">
@@ -4844,7 +4831,7 @@
       <c r="O50" s="36"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
-      <c r="R50" s="83"/>
+      <c r="R50" s="71"/>
     </row>
     <row r="51" spans="2:18" s="38" customFormat="1">
       <c r="B51" s="36" t="s">
@@ -4865,7 +4852,7 @@
       <c r="O51" s="36"/>
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
-      <c r="R51" s="83"/>
+      <c r="R51" s="71"/>
     </row>
     <row r="52" spans="2:18" ht="16.5">
       <c r="B52" s="57" t="s">
@@ -4873,20 +4860,20 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="16.5">
-      <c r="B53" s="81" t="s">
+      <c r="B53" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
     </row>
     <row r="54" spans="2:18" ht="16.5">
       <c r="B54" s="57" t="s">
@@ -4900,6 +4887,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:N21"/>
@@ -4916,13 +4910,6 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:I21"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="P19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4940,7 +4927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
@@ -4967,12 +4954,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="P1" s="101" t="s">
+      <c r="P1" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" s="3" t="s">
@@ -5083,108 +5070,108 @@
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="91" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="106" t="s">
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106" t="s">
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
     </row>
     <row r="9" spans="1:19" ht="22.5" customHeight="1">
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="90" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="98" t="s">
+      <c r="H9" s="94"/>
+      <c r="I9" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="93" t="s">
+      <c r="J9" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="100" t="s">
+      <c r="K9" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="102" t="s">
+      <c r="L9" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="93" t="s">
+      <c r="M9" s="98"/>
+      <c r="N9" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="93" t="s">
+      <c r="O9" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="96" t="s">
+      <c r="P9" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="97" t="s">
+      <c r="Q9" s="94"/>
+      <c r="R9" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="97" t="s">
+      <c r="S9" s="104" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="54" customHeight="1">
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="99"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
       <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="97"/>
-      <c r="S10" s="97"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
     </row>
     <row r="11" spans="1:19" s="15" customFormat="1">
       <c r="A11" s="12"/>
@@ -6236,7 +6223,7 @@
       <c r="R60" s="14"/>
       <c r="S60" s="13"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" ht="24" customHeight="1">
       <c r="B61" s="9" t="s">
         <v>44</v>
       </c>
@@ -6248,73 +6235,73 @@
       <c r="H61" s="16"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:19">
-      <c r="B62" s="94" t="s">
+    <row r="62" spans="1:19" ht="29.25" customHeight="1">
+      <c r="B62" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="95"/>
-      <c r="D62" s="95"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="95"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="95"/>
-      <c r="O62" s="95"/>
-      <c r="P62" s="95"/>
-      <c r="Q62" s="95"/>
-      <c r="R62" s="95"/>
-      <c r="S62" s="95"/>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="B63" s="94" t="s">
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="106"/>
+      <c r="N62" s="106"/>
+      <c r="O62" s="106"/>
+      <c r="P62" s="106"/>
+      <c r="Q62" s="106"/>
+      <c r="R62" s="106"/>
+      <c r="S62" s="106"/>
+    </row>
+    <row r="63" spans="1:19" ht="28.5" customHeight="1">
+      <c r="B63" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="95"/>
-      <c r="G63" s="95"/>
-      <c r="H63" s="95"/>
-      <c r="I63" s="95"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="95"/>
-      <c r="O63" s="95"/>
-      <c r="P63" s="95"/>
-      <c r="Q63" s="95"/>
-      <c r="R63" s="95"/>
-      <c r="S63" s="95"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="106"/>
+      <c r="K63" s="106"/>
+      <c r="L63" s="106"/>
+      <c r="M63" s="106"/>
+      <c r="N63" s="106"/>
+      <c r="O63" s="106"/>
+      <c r="P63" s="106"/>
+      <c r="Q63" s="106"/>
+      <c r="R63" s="106"/>
+      <c r="S63" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="B63:S63"/>
+    <mergeCell ref="B62:S62"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="L9:M10"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="R9:R10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="N9:N10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B63:S63"/>
-    <mergeCell ref="B62:S62"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6335,7 +6322,7 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
@@ -6382,10 +6369,10 @@
       <c r="L2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="119"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
     </row>
     <row r="3" spans="1:16" s="17" customFormat="1">
       <c r="A3" s="2"/>
@@ -6406,42 +6393,42 @@
     </row>
     <row r="4" spans="1:16" s="17" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="120" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="100" t="s">
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="95" t="s">
         <v>52</v>
       </c>
       <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" s="17" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="123" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="123" t="s">
+      <c r="D5" s="116"/>
+      <c r="E5" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="123" t="s">
+      <c r="F5" s="116"/>
+      <c r="G5" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="123" t="s">
+      <c r="H5" s="116"/>
+      <c r="I5" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="124"/>
-      <c r="K5" s="100"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="95"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" s="17" customFormat="1" ht="16.149999999999999" customHeight="1">
@@ -6449,14 +6436,14 @@
       <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
       <c r="K6" s="6"/>
       <c r="P6" s="11"/>
     </row>
@@ -6465,14 +6452,14 @@
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
       <c r="K7" s="6"/>
       <c r="P7" s="11"/>
     </row>
@@ -6481,14 +6468,14 @@
       <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
       <c r="K8" s="6"/>
       <c r="P8" s="11"/>
     </row>
@@ -6497,14 +6484,14 @@
       <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="115"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
       <c r="K9" s="6"/>
       <c r="P9" s="11"/>
     </row>
@@ -6513,14 +6500,14 @@
       <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
       <c r="K10" s="6"/>
       <c r="P10" s="11"/>
     </row>
@@ -6529,14 +6516,14 @@
       <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="120"/>
       <c r="K11" s="6"/>
       <c r="P11" s="11"/>
     </row>
@@ -6545,14 +6532,14 @@
       <c r="B12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
       <c r="K12" s="6"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -6565,14 +6552,14 @@
       <c r="B13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
       <c r="K13" s="6"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -6585,14 +6572,14 @@
       <c r="B14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
       <c r="K14" s="6"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -6605,14 +6592,14 @@
       <c r="B15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="120"/>
       <c r="K15" s="6"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -6780,69 +6767,69 @@
     </row>
     <row r="27" spans="1:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="110" t="s">
+      <c r="E27" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="100" t="s">
+      <c r="F27" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="110" t="s">
+      <c r="G27" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="100" t="s">
+      <c r="H27" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="110" t="s">
+      <c r="I27" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="100" t="s">
+      <c r="J27" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="110" t="s">
+      <c r="K27" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="100" t="s">
+      <c r="L27" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="112" t="s">
+      <c r="M27" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="100" t="s">
+      <c r="N27" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="O27" s="112" t="s">
+      <c r="O27" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="P27" s="100" t="s">
+      <c r="P27" s="95" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="100"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="95"/>
     </row>
     <row r="29" spans="1:16" s="3" customFormat="1">
       <c r="A29" s="2"/>
@@ -6977,32 +6964,32 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="100" t="s">
+      <c r="D37" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="110" t="s">
+      <c r="F37" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="112" t="s">
+      <c r="G37" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="100" t="s">
+      <c r="H37" s="95" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="100"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="100"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="95"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="95"/>
     </row>
     <row r="39" spans="1:16">
       <c r="B39" s="7" t="s">
@@ -7028,36 +7015,29 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -7068,35 +7048,42 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/PhoenixCI/Excel_Template/40040.xlsx
+++ b/PhoenixCI/Excel_Template/40040.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Bdc\結算部\風管組\個人資料區\CL.郭劻祥\1.測試\107年測試\107.1盤後子系統樣板升級\Excel_Template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="保證金調整檢核表" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">保證金調整檢核表!$19:$21</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'保證金調整檢核表(ETF_ETC類)'!$1:$10</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -2897,7 +2897,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3010,6 +3010,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -3289,10 +3302,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3313,16 +3326,16 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3346,66 +3359,105 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3421,78 +3473,57 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3502,22 +3533,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3540,30 +3577,6 @@
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3875,7 +3888,7 @@
   </sheetPr>
   <dimension ref="B1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -3901,12 +3914,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="O1" s="86" t="s">
+      <c r="O1" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
     </row>
     <row r="2" spans="2:18" ht="16.5">
       <c r="B2" s="45" t="s">
@@ -3920,35 +3933,35 @@
       <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="2:18" ht="16.5">
       <c r="B5" s="19">
@@ -4101,18 +4114,18 @@
       <c r="B16" s="19">
         <v>5</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
     </row>
     <row r="17" spans="2:18" ht="6.75" customHeight="1"/>
     <row r="18" spans="2:18" ht="16.5">
@@ -4124,105 +4137,105 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="20.25" customHeight="1">
-      <c r="B19" s="82"/>
-      <c r="C19" s="83" t="s">
+      <c r="B19" s="73"/>
+      <c r="C19" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="82" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="74" t="s">
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="82" t="s">
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="68" t="s">
+      <c r="Q19" s="73"/>
+      <c r="R19" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="54.75" customHeight="1">
-      <c r="B20" s="82"/>
-      <c r="C20" s="68" t="s">
+      <c r="B20" s="73"/>
+      <c r="C20" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="72" t="s">
+      <c r="D20" s="84"/>
+      <c r="E20" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="78" t="s">
+      <c r="H20" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="79"/>
-      <c r="J20" s="68" t="s">
+      <c r="I20" s="70"/>
+      <c r="J20" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="68" t="s">
+      <c r="K20" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="68" t="s">
+      <c r="L20" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68" t="s">
+      <c r="M20" s="84"/>
+      <c r="N20" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="O20" s="68" t="s">
+      <c r="O20" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="P20" s="68" t="s">
+      <c r="P20" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
     </row>
     <row r="21" spans="2:18" ht="49.5">
-      <c r="B21" s="82"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="37" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
       <c r="L21" s="36" t="s">
         <v>108</v>
       </c>
       <c r="M21" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
       <c r="P21" s="36" t="s">
         <v>110</v>
       </c>
       <c r="Q21" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="R21" s="68"/>
+      <c r="R21" s="84"/>
     </row>
     <row r="22" spans="2:18" s="38" customFormat="1">
       <c r="B22" s="36" t="s">
@@ -4243,7 +4256,7 @@
       <c r="O22" s="36"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
-      <c r="R22" s="71"/>
+      <c r="R22" s="83"/>
     </row>
     <row r="23" spans="2:18" s="38" customFormat="1">
       <c r="B23" s="36" t="s">
@@ -4264,7 +4277,7 @@
       <c r="O23" s="36"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
-      <c r="R23" s="71"/>
+      <c r="R23" s="83"/>
     </row>
     <row r="24" spans="2:18" s="38" customFormat="1">
       <c r="B24" s="36" t="s">
@@ -4285,7 +4298,7 @@
       <c r="O24" s="36"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
-      <c r="R24" s="71"/>
+      <c r="R24" s="83"/>
     </row>
     <row r="25" spans="2:18" s="38" customFormat="1">
       <c r="B25" s="36" t="s">
@@ -4306,7 +4319,7 @@
       <c r="O25" s="36"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
-      <c r="R25" s="71"/>
+      <c r="R25" s="83"/>
     </row>
     <row r="26" spans="2:18" s="38" customFormat="1">
       <c r="B26" s="36" t="s">
@@ -4327,7 +4340,7 @@
       <c r="O26" s="36"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
-      <c r="R26" s="71"/>
+      <c r="R26" s="83"/>
     </row>
     <row r="27" spans="2:18" s="38" customFormat="1">
       <c r="B27" s="36" t="s">
@@ -4348,7 +4361,7 @@
       <c r="O27" s="36"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
-      <c r="R27" s="71"/>
+      <c r="R27" s="83"/>
     </row>
     <row r="28" spans="2:18" s="38" customFormat="1">
       <c r="B28" s="36" t="s">
@@ -4369,7 +4382,7 @@
       <c r="O28" s="36"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
-      <c r="R28" s="71"/>
+      <c r="R28" s="83"/>
     </row>
     <row r="29" spans="2:18" s="38" customFormat="1">
       <c r="B29" s="36" t="s">
@@ -4390,7 +4403,7 @@
       <c r="O29" s="36"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
-      <c r="R29" s="71"/>
+      <c r="R29" s="83"/>
     </row>
     <row r="30" spans="2:18" s="38" customFormat="1" hidden="1">
       <c r="B30" s="36" t="s">
@@ -4411,7 +4424,7 @@
       <c r="O30" s="36"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
-      <c r="R30" s="71"/>
+      <c r="R30" s="83"/>
     </row>
     <row r="31" spans="2:18" s="38" customFormat="1">
       <c r="B31" s="36" t="s">
@@ -4432,7 +4445,7 @@
       <c r="O31" s="36"/>
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
-      <c r="R31" s="71"/>
+      <c r="R31" s="83"/>
     </row>
     <row r="32" spans="2:18" s="38" customFormat="1">
       <c r="B32" s="36" t="s">
@@ -4453,7 +4466,7 @@
       <c r="O32" s="36"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
-      <c r="R32" s="71"/>
+      <c r="R32" s="83"/>
     </row>
     <row r="33" spans="2:18" s="41" customFormat="1">
       <c r="B33" s="63" t="s">
@@ -4474,7 +4487,7 @@
       <c r="O33" s="52"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
-      <c r="R33" s="71"/>
+      <c r="R33" s="83"/>
     </row>
     <row r="34" spans="2:18" s="41" customFormat="1">
       <c r="B34" s="36" t="s">
@@ -4495,7 +4508,7 @@
       <c r="O34" s="52"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
-      <c r="R34" s="71"/>
+      <c r="R34" s="83"/>
     </row>
     <row r="35" spans="2:18" s="41" customFormat="1">
       <c r="B35" s="36" t="s">
@@ -4516,7 +4529,7 @@
       <c r="O35" s="52"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
-      <c r="R35" s="71"/>
+      <c r="R35" s="83"/>
     </row>
     <row r="36" spans="2:18" s="41" customFormat="1" hidden="1">
       <c r="B36" s="36" t="s">
@@ -4537,7 +4550,7 @@
       <c r="O36" s="52"/>
       <c r="P36" s="42"/>
       <c r="Q36" s="42"/>
-      <c r="R36" s="71"/>
+      <c r="R36" s="83"/>
     </row>
     <row r="37" spans="2:18" s="41" customFormat="1">
       <c r="B37" s="36" t="s">
@@ -4558,7 +4571,7 @@
       <c r="O37" s="52"/>
       <c r="P37" s="42"/>
       <c r="Q37" s="42"/>
-      <c r="R37" s="71"/>
+      <c r="R37" s="83"/>
     </row>
     <row r="38" spans="2:18" s="38" customFormat="1">
       <c r="B38" s="36" t="s">
@@ -4579,7 +4592,7 @@
       <c r="O38" s="36"/>
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
-      <c r="R38" s="71"/>
+      <c r="R38" s="83"/>
     </row>
     <row r="39" spans="2:18" s="38" customFormat="1">
       <c r="B39" s="36" t="s">
@@ -4600,7 +4613,7 @@
       <c r="O39" s="36"/>
       <c r="P39" s="37"/>
       <c r="Q39" s="37"/>
-      <c r="R39" s="71"/>
+      <c r="R39" s="83"/>
     </row>
     <row r="40" spans="2:18" s="41" customFormat="1">
       <c r="B40" s="63" t="s">
@@ -4621,7 +4634,7 @@
       <c r="O40" s="52"/>
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
-      <c r="R40" s="71"/>
+      <c r="R40" s="83"/>
     </row>
     <row r="41" spans="2:18" s="41" customFormat="1">
       <c r="B41" s="63" t="s">
@@ -4642,7 +4655,7 @@
       <c r="O41" s="52"/>
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
-      <c r="R41" s="71"/>
+      <c r="R41" s="83"/>
     </row>
     <row r="42" spans="2:18" s="38" customFormat="1">
       <c r="B42" s="67" t="s">
@@ -4663,7 +4676,7 @@
       <c r="O42" s="36"/>
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
-      <c r="R42" s="71"/>
+      <c r="R42" s="83"/>
     </row>
     <row r="43" spans="2:18" s="38" customFormat="1">
       <c r="B43" s="67" t="s">
@@ -4684,7 +4697,7 @@
       <c r="O43" s="36"/>
       <c r="P43" s="37"/>
       <c r="Q43" s="37"/>
-      <c r="R43" s="71"/>
+      <c r="R43" s="83"/>
     </row>
     <row r="44" spans="2:18" s="38" customFormat="1">
       <c r="B44" s="36" t="s">
@@ -4705,7 +4718,7 @@
       <c r="O44" s="36"/>
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
-      <c r="R44" s="71"/>
+      <c r="R44" s="83"/>
     </row>
     <row r="45" spans="2:18" s="38" customFormat="1">
       <c r="B45" s="36" t="s">
@@ -4726,7 +4739,7 @@
       <c r="O45" s="36"/>
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
-      <c r="R45" s="71"/>
+      <c r="R45" s="83"/>
     </row>
     <row r="46" spans="2:18" s="38" customFormat="1">
       <c r="B46" s="36" t="s">
@@ -4747,7 +4760,7 @@
       <c r="O46" s="36"/>
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
-      <c r="R46" s="71"/>
+      <c r="R46" s="83"/>
     </row>
     <row r="47" spans="2:18" s="38" customFormat="1">
       <c r="B47" s="36" t="s">
@@ -4768,7 +4781,7 @@
       <c r="O47" s="36"/>
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
-      <c r="R47" s="71"/>
+      <c r="R47" s="83"/>
     </row>
     <row r="48" spans="2:18" s="38" customFormat="1">
       <c r="B48" s="36" t="s">
@@ -4789,7 +4802,7 @@
       <c r="O48" s="36"/>
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
-      <c r="R48" s="71"/>
+      <c r="R48" s="83"/>
     </row>
     <row r="49" spans="2:18" s="38" customFormat="1">
       <c r="B49" s="36" t="s">
@@ -4810,7 +4823,7 @@
       <c r="O49" s="36"/>
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
-      <c r="R49" s="71"/>
+      <c r="R49" s="83"/>
     </row>
     <row r="50" spans="2:18" s="38" customFormat="1">
       <c r="B50" s="36" t="s">
@@ -4831,7 +4844,7 @@
       <c r="O50" s="36"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
-      <c r="R50" s="71"/>
+      <c r="R50" s="83"/>
     </row>
     <row r="51" spans="2:18" s="38" customFormat="1">
       <c r="B51" s="36" t="s">
@@ -4852,7 +4865,7 @@
       <c r="O51" s="36"/>
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
-      <c r="R51" s="71"/>
+      <c r="R51" s="83"/>
     </row>
     <row r="52" spans="2:18" ht="16.5">
       <c r="B52" s="57" t="s">
@@ -4860,20 +4873,20 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="16.5">
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
     </row>
     <row r="54" spans="2:18" ht="16.5">
       <c r="B54" s="57" t="s">
@@ -4887,13 +4900,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:N21"/>
@@ -4910,6 +4916,13 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:I21"/>
     <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="P19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4927,7 +4940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
@@ -4954,12 +4967,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="P1" s="96" t="s">
+      <c r="P1" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" s="3" t="s">
@@ -5070,108 +5083,108 @@
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="90" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="101" t="s">
+      <c r="G8" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="90" t="s">
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90" t="s">
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
     </row>
     <row r="9" spans="1:19" ht="22.5" customHeight="1">
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="91" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="108" t="s">
+      <c r="H9" s="93"/>
+      <c r="I9" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="97" t="s">
+      <c r="L9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="98"/>
-      <c r="N9" s="94" t="s">
+      <c r="M9" s="103"/>
+      <c r="N9" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="94" t="s">
+      <c r="O9" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="107" t="s">
+      <c r="P9" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="104" t="s">
+      <c r="Q9" s="93"/>
+      <c r="R9" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="104" t="s">
+      <c r="S9" s="97" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="54" customHeight="1">
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
       <c r="G10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
       <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
     </row>
     <row r="11" spans="1:19" s="15" customFormat="1">
       <c r="A11" s="12"/>
@@ -6223,7 +6236,7 @@
       <c r="R60" s="14"/>
       <c r="S60" s="13"/>
     </row>
-    <row r="61" spans="1:19" ht="24" customHeight="1">
+    <row r="61" spans="1:19">
       <c r="B61" s="9" t="s">
         <v>44</v>
       </c>
@@ -6235,73 +6248,73 @@
       <c r="H61" s="16"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:19" ht="29.25" customHeight="1">
-      <c r="B62" s="105" t="s">
+    <row r="62" spans="1:19">
+      <c r="B62" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="106"/>
-      <c r="H62" s="106"/>
-      <c r="I62" s="106"/>
-      <c r="J62" s="106"/>
-      <c r="K62" s="106"/>
-      <c r="L62" s="106"/>
-      <c r="M62" s="106"/>
-      <c r="N62" s="106"/>
-      <c r="O62" s="106"/>
-      <c r="P62" s="106"/>
-      <c r="Q62" s="106"/>
-      <c r="R62" s="106"/>
-      <c r="S62" s="106"/>
-    </row>
-    <row r="63" spans="1:19" ht="28.5" customHeight="1">
-      <c r="B63" s="105" t="s">
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="95"/>
+      <c r="M62" s="95"/>
+      <c r="N62" s="95"/>
+      <c r="O62" s="95"/>
+      <c r="P62" s="95"/>
+      <c r="Q62" s="95"/>
+      <c r="R62" s="95"/>
+      <c r="S62" s="95"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="B63" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="106"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
-      <c r="G63" s="106"/>
-      <c r="H63" s="106"/>
-      <c r="I63" s="106"/>
-      <c r="J63" s="106"/>
-      <c r="K63" s="106"/>
-      <c r="L63" s="106"/>
-      <c r="M63" s="106"/>
-      <c r="N63" s="106"/>
-      <c r="O63" s="106"/>
-      <c r="P63" s="106"/>
-      <c r="Q63" s="106"/>
-      <c r="R63" s="106"/>
-      <c r="S63" s="106"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="95"/>
+      <c r="M63" s="95"/>
+      <c r="N63" s="95"/>
+      <c r="O63" s="95"/>
+      <c r="P63" s="95"/>
+      <c r="Q63" s="95"/>
+      <c r="R63" s="95"/>
+      <c r="S63" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B63:S63"/>
     <mergeCell ref="B62:S62"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6322,7 +6335,7 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
@@ -6369,10 +6382,10 @@
       <c r="L2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:16" s="17" customFormat="1">
       <c r="A3" s="2"/>
@@ -6393,42 +6406,42 @@
     </row>
     <row r="4" spans="1:16" s="17" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="112" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="95" t="s">
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="100" t="s">
         <v>52</v>
       </c>
       <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" s="17" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="115" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="115" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="115" t="s">
+      <c r="F5" s="124"/>
+      <c r="G5" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="115" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="116"/>
-      <c r="K5" s="95"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="100"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" s="17" customFormat="1" ht="16.149999999999999" customHeight="1">
@@ -6436,14 +6449,14 @@
       <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
       <c r="K6" s="6"/>
       <c r="P6" s="11"/>
     </row>
@@ -6452,14 +6465,14 @@
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
       <c r="K7" s="6"/>
       <c r="P7" s="11"/>
     </row>
@@ -6468,14 +6481,14 @@
       <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
       <c r="K8" s="6"/>
       <c r="P8" s="11"/>
     </row>
@@ -6484,14 +6497,14 @@
       <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="115"/>
       <c r="K9" s="6"/>
       <c r="P9" s="11"/>
     </row>
@@ -6500,14 +6513,14 @@
       <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
       <c r="K10" s="6"/>
       <c r="P10" s="11"/>
     </row>
@@ -6516,14 +6529,14 @@
       <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="120"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
       <c r="K11" s="6"/>
       <c r="P11" s="11"/>
     </row>
@@ -6532,14 +6545,14 @@
       <c r="B12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
       <c r="K12" s="6"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -6552,14 +6565,14 @@
       <c r="B13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
       <c r="K13" s="6"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -6572,14 +6585,14 @@
       <c r="B14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
       <c r="K14" s="6"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -6592,14 +6605,14 @@
       <c r="B15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="120"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
       <c r="K15" s="6"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -6767,69 +6780,69 @@
     </row>
     <row r="27" spans="1:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D27" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="121" t="s">
+      <c r="E27" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="95" t="s">
+      <c r="F27" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="121" t="s">
+      <c r="G27" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="95" t="s">
+      <c r="H27" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="121" t="s">
+      <c r="I27" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="95" t="s">
+      <c r="J27" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="121" t="s">
+      <c r="K27" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="95" t="s">
+      <c r="L27" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="123" t="s">
+      <c r="M27" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="95" t="s">
+      <c r="N27" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="O27" s="123" t="s">
+      <c r="O27" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="P27" s="95" t="s">
+      <c r="P27" s="100" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="95"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="100"/>
     </row>
     <row r="29" spans="1:16" s="3" customFormat="1">
       <c r="A29" s="2"/>
@@ -6964,32 +6977,32 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="121" t="s">
+      <c r="C37" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="95" t="s">
+      <c r="D37" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="121" t="s">
+      <c r="F37" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="123" t="s">
+      <c r="G37" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="95" t="s">
+      <c r="H37" s="100" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="B38" s="122"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="95"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="95"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="100"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="100"/>
     </row>
     <row r="39" spans="1:16">
       <c r="B39" s="7" t="s">
@@ -7015,29 +7028,36 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -7048,42 +7068,35 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/PhoenixCI/Excel_Template/40040.xlsx
+++ b/PhoenixCI/Excel_Template/40040.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\報表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\上線用文件程式\CIN\10800268\待更新程式\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7964" tabRatio="899" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7965" tabRatio="899"/>
   </bookViews>
   <sheets>
     <sheet name="保證金調整檢核表" sheetId="19" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="337">
   <si>
     <t>現貨、期貨漲跌幅度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5333,10 +5333,6 @@
   </si>
   <si>
     <t>XIO_XI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料日期：2014年03月20日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5775,10 +5771,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0;\-#,##0;&quot;N/A&quot;"/>
+    <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -6162,7 +6159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6598,52 +6595,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6655,33 +6688,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6733,6 +6739,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6742,47 +6784,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6790,42 +6832,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6859,11 +6865,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7177,35 +7180,38 @@
   </sheetPr>
   <dimension ref="B1:Q61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.65"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="1" style="45" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="106" customWidth="1"/>
-    <col min="3" max="6" width="12.33203125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="128" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="54" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="54" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="106" customWidth="1"/>
+    <col min="3" max="6" width="12.375" style="53" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="128" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="54" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="54" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="53" customWidth="1"/>
     <col min="11" max="11" width="8" style="45" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="45" customWidth="1"/>
     <col min="13" max="13" width="15" style="45" customWidth="1"/>
-    <col min="14" max="16" width="11.109375" style="45" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="45" customWidth="1"/>
+    <col min="14" max="16" width="11.125" style="45" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="45" customWidth="1"/>
     <col min="18" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
+    <row r="1" spans="2:17" ht="16.5" customHeight="1">
+      <c r="N1" s="145"/>
+      <c r="O1" s="235" t="str">
+        <f>'檢核表(SMA)'!O1:R1</f>
+        <v>資料日期：2019年05月23日</v>
+      </c>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
     </row>
     <row r="2" spans="2:17" ht="6.75" customHeight="1"/>
-    <row r="3" spans="2:17" ht="16.3">
+    <row r="3" spans="2:17" ht="16.5">
       <c r="B3" s="107" t="s">
         <v>232</v>
       </c>
@@ -7213,68 +7219,68 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="20.2" customHeight="1">
-      <c r="B4" s="154"/>
-      <c r="C4" s="155" t="s">
+    <row r="4" spans="2:17" ht="20.25" customHeight="1">
+      <c r="B4" s="149"/>
+      <c r="C4" s="150" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="158" t="s">
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153" t="s">
         <v>235</v>
       </c>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="159" t="s">
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="154" t="s">
         <v>236</v>
       </c>
-      <c r="M4" s="160"/>
-      <c r="N4" s="158" t="s">
+      <c r="M4" s="155"/>
+      <c r="N4" s="153" t="s">
         <v>237</v>
       </c>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158"/>
-    </row>
-    <row r="5" spans="2:17" ht="34.450000000000003" customHeight="1">
-      <c r="B5" s="154"/>
-      <c r="C5" s="150" t="s">
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
+    </row>
+    <row r="5" spans="2:17" ht="34.5" customHeight="1">
+      <c r="B5" s="149"/>
+      <c r="C5" s="156" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="150" t="s">
+      <c r="D5" s="157"/>
+      <c r="E5" s="156" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="150" t="s">
+      <c r="F5" s="157"/>
+      <c r="G5" s="156" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="147"/>
-      <c r="I5" s="150" t="s">
+      <c r="H5" s="157"/>
+      <c r="I5" s="156" t="s">
         <v>241</v>
       </c>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147" t="s">
+      <c r="J5" s="157"/>
+      <c r="K5" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="L5" s="148" t="s">
+      <c r="L5" s="160" t="s">
         <v>243</v>
       </c>
-      <c r="M5" s="148" t="s">
+      <c r="M5" s="160" t="s">
         <v>244</v>
       </c>
-      <c r="N5" s="150" t="s">
+      <c r="N5" s="156" t="s">
         <v>245</v>
       </c>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-    </row>
-    <row r="6" spans="2:17" ht="43.85" customHeight="1">
-      <c r="B6" s="154"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="157"/>
+    </row>
+    <row r="6" spans="2:17" ht="43.9" customHeight="1">
+      <c r="B6" s="149"/>
       <c r="C6" s="95" t="s">
         <v>246</v>
       </c>
@@ -7299,9 +7305,9 @@
       <c r="J6" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="K6" s="147"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
       <c r="N6" s="108" t="s">
         <v>250</v>
       </c>
@@ -7805,7 +7811,7 @@
       <c r="P14" s="116"/>
       <c r="Q14" s="116"/>
     </row>
-    <row r="15" spans="2:17" s="94" customFormat="1" ht="15.65" hidden="1" customHeight="1">
+    <row r="15" spans="2:17" s="94" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="B15" s="109" t="s">
         <v>262</v>
       </c>
@@ -8183,7 +8189,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="2:17" s="41" customFormat="1" ht="15.65" hidden="1" customHeight="1">
+    <row r="21" spans="2:17" s="41" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="B21" s="109" t="s">
         <v>268</v>
       </c>
@@ -9464,38 +9470,38 @@
       <c r="P41" s="116"/>
       <c r="Q41" s="116"/>
     </row>
-    <row r="42" spans="2:17" ht="16.3">
+    <row r="42" spans="2:17" ht="16.5">
       <c r="B42" s="91" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="16.3">
-      <c r="B43" s="151" t="s">
+    <row r="43" spans="2:17" ht="16.5">
+      <c r="B43" s="162" t="s">
         <v>290</v>
       </c>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="152"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="152"/>
-      <c r="L43" s="152"/>
-      <c r="M43" s="152"/>
-    </row>
-    <row r="44" spans="2:17" ht="16.3">
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="163"/>
+      <c r="M43" s="163"/>
+    </row>
+    <row r="44" spans="2:17" ht="16.5">
       <c r="B44" s="91" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="16.3">
+    <row r="45" spans="2:17" ht="16.5">
       <c r="B45" s="91" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="16.3">
+    <row r="48" spans="2:17" ht="16.5">
       <c r="B48" s="107" t="s">
         <v>293</v>
       </c>
@@ -9507,20 +9513,20 @@
       <c r="B49" s="112">
         <v>1</v>
       </c>
-      <c r="C49" s="145" t="s">
+      <c r="C49" s="158" t="s">
         <v>295</v>
       </c>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="146"/>
-      <c r="K49" s="146"/>
-      <c r="L49" s="146"/>
-    </row>
-    <row r="50" spans="2:12" ht="16.3">
+      <c r="D49" s="159"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="159"/>
+      <c r="J49" s="159"/>
+      <c r="K49" s="159"/>
+      <c r="L49" s="159"/>
+    </row>
+    <row r="50" spans="2:12" ht="16.5">
       <c r="B50" s="112">
         <v>2</v>
       </c>
@@ -9535,7 +9541,7 @@
       <c r="I50" s="47"/>
       <c r="J50" s="46"/>
     </row>
-    <row r="51" spans="2:12" ht="16.3">
+    <row r="51" spans="2:12" ht="16.5">
       <c r="B51" s="112">
         <v>3</v>
       </c>
@@ -9550,7 +9556,7 @@
       <c r="I51" s="47"/>
       <c r="J51" s="46"/>
     </row>
-    <row r="52" spans="2:12" ht="16.3">
+    <row r="52" spans="2:12" ht="16.5">
       <c r="B52" s="113"/>
       <c r="C52" s="19" t="s">
         <v>298</v>
@@ -9563,7 +9569,7 @@
       <c r="I52" s="47"/>
       <c r="J52" s="46"/>
     </row>
-    <row r="53" spans="2:12" ht="16.3">
+    <row r="53" spans="2:12" ht="16.5">
       <c r="B53" s="113"/>
       <c r="C53" s="46" t="s">
         <v>299</v>
@@ -9576,7 +9582,7 @@
       <c r="I53" s="47"/>
       <c r="J53" s="46"/>
     </row>
-    <row r="54" spans="2:12" ht="16.3">
+    <row r="54" spans="2:12" ht="16.5">
       <c r="B54" s="113"/>
       <c r="C54" s="19" t="s">
         <v>300</v>
@@ -9589,7 +9595,7 @@
       <c r="I54" s="47"/>
       <c r="J54" s="46"/>
     </row>
-    <row r="55" spans="2:12" ht="16.3">
+    <row r="55" spans="2:12" ht="16.5">
       <c r="B55" s="113"/>
       <c r="C55" s="19" t="s">
         <v>301</v>
@@ -9602,7 +9608,7 @@
       <c r="I55" s="47"/>
       <c r="J55" s="46"/>
     </row>
-    <row r="56" spans="2:12" ht="16.3">
+    <row r="56" spans="2:12" ht="16.5">
       <c r="B56" s="113"/>
       <c r="C56" s="19" t="s">
         <v>302</v>
@@ -9615,7 +9621,7 @@
       <c r="I56" s="47"/>
       <c r="J56" s="46"/>
     </row>
-    <row r="57" spans="2:12" s="33" customFormat="1" ht="16.3">
+    <row r="57" spans="2:12" s="33" customFormat="1" ht="16.5">
       <c r="B57" s="114"/>
       <c r="C57" s="64" t="s">
         <v>303</v>
@@ -9628,7 +9634,7 @@
       <c r="I57" s="66"/>
       <c r="J57" s="65"/>
     </row>
-    <row r="58" spans="2:12" s="59" customFormat="1" ht="16.3">
+    <row r="58" spans="2:12" s="59" customFormat="1" ht="16.5">
       <c r="B58" s="115"/>
       <c r="C58" s="19" t="s">
         <v>304</v>
@@ -9641,7 +9647,7 @@
       <c r="I58" s="62"/>
       <c r="J58" s="61"/>
     </row>
-    <row r="59" spans="2:12" ht="16.3">
+    <row r="59" spans="2:12" ht="16.5">
       <c r="B59" s="113"/>
       <c r="C59" s="19" t="s">
         <v>305</v>
@@ -9654,7 +9660,7 @@
       <c r="I59" s="47"/>
       <c r="J59" s="46"/>
     </row>
-    <row r="60" spans="2:12" ht="16.3">
+    <row r="60" spans="2:12" ht="16.5">
       <c r="B60" s="113"/>
       <c r="C60" s="46" t="s">
         <v>306</v>
@@ -9669,20 +9675,26 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61" s="113"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="146"/>
-      <c r="E61" s="146"/>
-      <c r="F61" s="146"/>
-      <c r="G61" s="146"/>
-      <c r="H61" s="146"/>
-      <c r="I61" s="146"/>
-      <c r="J61" s="146"/>
-      <c r="K61" s="146"/>
-      <c r="L61" s="146"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="159"/>
+      <c r="F61" s="159"/>
+      <c r="G61" s="159"/>
+      <c r="H61" s="159"/>
+      <c r="I61" s="159"/>
+      <c r="J61" s="159"/>
+      <c r="K61" s="159"/>
+      <c r="L61" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="C49:L49"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:K4"/>
@@ -9692,15 +9704,9 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="B43:M43"/>
-    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.9055118110236221" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="2" orientation="landscape" r:id="rId1"/>
@@ -9723,44 +9729,44 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="3" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.25" customHeight="1">
+    <row r="1" spans="1:6" ht="45.2" customHeight="1">
       <c r="F1" s="75" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="76"/>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="76"/>
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="223" t="s">
+      <c r="C3" s="226" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223" t="s">
+      <c r="D3" s="226"/>
+      <c r="E3" s="226" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="223"/>
-    </row>
-    <row r="4" spans="1:6" ht="61.4">
+      <c r="F3" s="226"/>
+    </row>
+    <row r="4" spans="1:6" ht="46.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="222"/>
+      <c r="B4" s="225"/>
       <c r="C4" s="77" t="s">
         <v>137</v>
       </c>
@@ -9824,27 +9830,27 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="7" width="12.6640625" customWidth="1"/>
+    <col min="2" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="37.75" customHeight="1">
+    <row r="1" spans="2:7" ht="37.700000000000003" customHeight="1">
       <c r="G1" s="75" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="76" customFormat="1" ht="19.75" customHeight="1">
-      <c r="B2" s="224" t="s">
+    <row r="2" spans="2:7" s="76" customFormat="1" ht="19.7" customHeight="1">
+      <c r="B2" s="227" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="226"/>
-    </row>
-    <row r="3" spans="2:7" s="3" customFormat="1" ht="45.7" customHeight="1">
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="229"/>
+    </row>
+    <row r="3" spans="2:7" s="3" customFormat="1" ht="45.75" customHeight="1">
       <c r="B3" s="77" t="s">
         <v>134</v>
       </c>
@@ -9864,7 +9870,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="47">
+    <row r="4" spans="2:7" ht="31.5">
       <c r="B4" s="78" t="s">
         <v>149</v>
       </c>
@@ -9884,7 +9890,7 @@
       <c r="F5" s="83"/>
       <c r="G5" s="83"/>
     </row>
-    <row r="6" spans="2:7" ht="47">
+    <row r="6" spans="2:7" ht="31.5">
       <c r="B6" s="78" t="s">
         <v>140</v>
       </c>
@@ -9909,7 +9915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="47">
+    <row r="7" spans="2:7" ht="31.5">
       <c r="B7" s="85" t="s">
         <v>141</v>
       </c>
@@ -9919,15 +9925,15 @@
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
     </row>
-    <row r="9" spans="2:7" ht="20.2" customHeight="1">
-      <c r="B9" s="224" t="s">
+    <row r="9" spans="2:7" ht="20.25" customHeight="1">
+      <c r="B9" s="227" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="225"/>
-      <c r="D9" s="225"/>
-      <c r="E9" s="225"/>
-      <c r="F9" s="225"/>
-      <c r="G9" s="226"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="229"/>
     </row>
     <row r="10" spans="2:7" ht="46.5" customHeight="1">
       <c r="B10" s="77" t="s">
@@ -9949,7 +9955,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="47">
+    <row r="11" spans="2:7" ht="31.5">
       <c r="B11" s="78" t="s">
         <v>149</v>
       </c>
@@ -9969,7 +9975,7 @@
       <c r="F12" s="83"/>
       <c r="G12" s="83"/>
     </row>
-    <row r="13" spans="2:7" ht="47">
+    <row r="13" spans="2:7" ht="31.5">
       <c r="B13" s="78" t="s">
         <v>140</v>
       </c>
@@ -9994,7 +10000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="47">
+    <row r="14" spans="2:7" ht="31.5">
       <c r="B14" s="85" t="s">
         <v>141</v>
       </c>
@@ -10027,11 +10033,11 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
@@ -10045,16 +10051,16 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="227" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="226"/>
-    </row>
-    <row r="4" spans="2:7" ht="28.8">
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="229"/>
+    </row>
+    <row r="4" spans="2:7" ht="30">
       <c r="B4" s="77" t="s">
         <v>134</v>
       </c>
@@ -10074,7 +10080,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="47">
+    <row r="5" spans="2:7" ht="47.25">
       <c r="B5" s="78" t="s">
         <v>160</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>611630</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="31.3">
+    <row r="7" spans="2:7" ht="31.5">
       <c r="B7" s="78" t="s">
         <v>140</v>
       </c>
@@ -10129,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="31.3">
+    <row r="8" spans="2:7" ht="31.5">
       <c r="B8" s="78" t="s">
         <v>141</v>
       </c>
@@ -10140,16 +10146,16 @@
       <c r="G8" s="84"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="227" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="226"/>
-    </row>
-    <row r="11" spans="2:7" ht="28.8">
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="229"/>
+    </row>
+    <row r="11" spans="2:7" ht="30">
       <c r="B11" s="77" t="s">
         <v>134</v>
       </c>
@@ -10169,7 +10175,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="47">
+    <row r="12" spans="2:7" ht="47.25">
       <c r="B12" s="78" t="s">
         <v>160</v>
       </c>
@@ -10199,7 +10205,7 @@
         <v>611630</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="31.3">
+    <row r="14" spans="2:7" ht="31.5">
       <c r="B14" s="78" t="s">
         <v>140</v>
       </c>
@@ -10224,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="31.3">
+    <row r="15" spans="2:7" ht="31.5">
       <c r="B15" s="78" t="s">
         <v>141</v>
       </c>
@@ -10257,11 +10263,11 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -10275,13 +10281,13 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="227" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-    </row>
-    <row r="4" spans="2:4" ht="28.8">
+      <c r="C3" s="228"/>
+      <c r="D3" s="229"/>
+    </row>
+    <row r="4" spans="2:4" ht="30">
       <c r="B4" s="77" t="s">
         <v>134</v>
       </c>
@@ -10292,7 +10298,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="47">
+    <row r="5" spans="2:4" ht="47.25">
       <c r="B5" s="78" t="s">
         <v>168</v>
       </c>
@@ -10331,13 +10337,13 @@
       <c r="D8" s="84"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="227" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
-    </row>
-    <row r="11" spans="2:4" ht="28.8">
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
+    </row>
+    <row r="11" spans="2:4" ht="30">
       <c r="B11" s="77" t="s">
         <v>134</v>
       </c>
@@ -10348,7 +10354,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="47">
+    <row r="12" spans="2:4" ht="47.25">
       <c r="B12" s="78" t="s">
         <v>168</v>
       </c>
@@ -10409,11 +10415,11 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -10427,13 +10433,13 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="227" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-    </row>
-    <row r="4" spans="2:4" ht="28.8">
+      <c r="C3" s="228"/>
+      <c r="D3" s="229"/>
+    </row>
+    <row r="4" spans="2:4" ht="30">
       <c r="B4" s="77" t="s">
         <v>134</v>
       </c>
@@ -10444,7 +10450,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="47">
+    <row r="5" spans="2:4" ht="47.25">
       <c r="B5" s="78" t="s">
         <v>177</v>
       </c>
@@ -10483,13 +10489,13 @@
       <c r="D8" s="84"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="227" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
-    </row>
-    <row r="11" spans="2:4" ht="28.8">
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
+    </row>
+    <row r="11" spans="2:4" ht="30">
       <c r="B11" s="77" t="s">
         <v>134</v>
       </c>
@@ -10500,7 +10506,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="47">
+    <row r="12" spans="2:4" ht="47.25">
       <c r="B12" s="78" t="s">
         <v>177</v>
       </c>
@@ -10561,11 +10567,11 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -10579,13 +10585,13 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="227" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-    </row>
-    <row r="4" spans="2:4" ht="28.8">
+      <c r="C3" s="228"/>
+      <c r="D3" s="229"/>
+    </row>
+    <row r="4" spans="2:4" ht="30">
       <c r="B4" s="77" t="s">
         <v>134</v>
       </c>
@@ -10596,7 +10602,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="47">
+    <row r="5" spans="2:4" ht="47.25">
       <c r="B5" s="78" t="s">
         <v>186</v>
       </c>
@@ -10625,13 +10631,13 @@
       <c r="D8" s="84"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="227" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
-    </row>
-    <row r="11" spans="2:4" ht="28.8">
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
+    </row>
+    <row r="11" spans="2:4" ht="30">
       <c r="B11" s="77" t="s">
         <v>134</v>
       </c>
@@ -10642,7 +10648,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="47">
+    <row r="12" spans="2:4" ht="47.25">
       <c r="B12" s="85" t="s">
         <v>186</v>
       </c>
@@ -10693,11 +10699,11 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -10711,13 +10717,13 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="227" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-    </row>
-    <row r="4" spans="2:4" ht="28.8">
+      <c r="C3" s="228"/>
+      <c r="D3" s="229"/>
+    </row>
+    <row r="4" spans="2:4" ht="30">
       <c r="B4" s="77" t="s">
         <v>134</v>
       </c>
@@ -10728,7 +10734,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="47">
+    <row r="5" spans="2:4" ht="47.25">
       <c r="B5" s="78" t="s">
         <v>190</v>
       </c>
@@ -10767,13 +10773,13 @@
       <c r="D8" s="84"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="227" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
-    </row>
-    <row r="11" spans="2:4" ht="28.8">
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
+    </row>
+    <row r="11" spans="2:4" ht="30">
       <c r="B11" s="77" t="s">
         <v>134</v>
       </c>
@@ -10784,7 +10790,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="47">
+    <row r="12" spans="2:4" ht="47.25">
       <c r="B12" s="78" t="s">
         <v>190</v>
       </c>
@@ -10845,50 +10851,50 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="2" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="37.75" customHeight="1">
+    <row r="1" spans="2:8" ht="37.700000000000003" customHeight="1">
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="H1" s="75" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="76" customFormat="1" ht="19.75" customHeight="1">
-      <c r="B2" s="224" t="s">
+    <row r="2" spans="2:8" s="76" customFormat="1" ht="19.7" customHeight="1">
+      <c r="B2" s="227" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="228"/>
-    </row>
-    <row r="3" spans="2:8" s="76" customFormat="1" ht="19.75" customHeight="1">
-      <c r="B3" s="222" t="s">
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="231"/>
+    </row>
+    <row r="3" spans="2:8" s="76" customFormat="1" ht="19.7" customHeight="1">
+      <c r="B3" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="229" t="s">
+      <c r="C3" s="232" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="230"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="223" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="226" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-    </row>
-    <row r="4" spans="2:8" s="3" customFormat="1" ht="45.7" customHeight="1">
-      <c r="B4" s="222"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+    </row>
+    <row r="4" spans="2:8" s="3" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B4" s="225"/>
       <c r="C4" s="77" t="s">
         <v>196</v>
       </c>
@@ -10908,7 +10914,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="47">
+    <row r="5" spans="2:8" ht="31.5">
       <c r="B5" s="78" t="s">
         <v>199</v>
       </c>
@@ -10919,7 +10925,7 @@
       <c r="G5" s="79"/>
       <c r="H5" s="82"/>
     </row>
-    <row r="6" spans="2:8" ht="47">
+    <row r="6" spans="2:8" ht="31.5">
       <c r="B6" s="78" t="s">
         <v>200</v>
       </c>
@@ -10930,7 +10936,7 @@
       <c r="G6" s="84"/>
       <c r="H6" s="84"/>
     </row>
-    <row r="7" spans="2:8" ht="47">
+    <row r="7" spans="2:8" ht="31.5">
       <c r="B7" s="78" t="s">
         <v>201</v>
       </c>
@@ -10966,41 +10972,41 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="6" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="37.75" customHeight="1">
+    <row r="1" spans="2:6" ht="37.700000000000003" customHeight="1">
       <c r="F1" s="75" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="2:6" s="76" customFormat="1" ht="19.75" customHeight="1">
-      <c r="B2" s="221" t="s">
+    <row r="2" spans="2:6" s="76" customFormat="1" ht="19.7" customHeight="1">
+      <c r="B2" s="224" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-    </row>
-    <row r="3" spans="2:6" s="76" customFormat="1" ht="19.75" customHeight="1">
-      <c r="B3" s="222" t="s">
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+    </row>
+    <row r="3" spans="2:6" s="76" customFormat="1" ht="19.7" customHeight="1">
+      <c r="B3" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="223" t="s">
+      <c r="C3" s="226" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223" t="s">
+      <c r="D3" s="226"/>
+      <c r="E3" s="226" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="223"/>
-    </row>
-    <row r="4" spans="2:6" s="3" customFormat="1" ht="45.7" customHeight="1">
-      <c r="B4" s="222"/>
+      <c r="F3" s="226"/>
+    </row>
+    <row r="4" spans="2:6" s="3" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B4" s="225"/>
       <c r="C4" s="77" t="s">
         <v>204</v>
       </c>
@@ -11014,7 +11020,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="31.3">
+    <row r="5" spans="2:6" ht="31.5">
       <c r="B5" s="78" t="s">
         <v>206</v>
       </c>
@@ -11023,7 +11029,7 @@
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
     </row>
-    <row r="6" spans="2:6" ht="31.3">
+    <row r="6" spans="2:6" ht="31.5">
       <c r="B6" s="78" t="s">
         <v>140</v>
       </c>
@@ -11032,7 +11038,7 @@
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
     </row>
-    <row r="7" spans="2:6" ht="31.3">
+    <row r="7" spans="2:6" ht="31.5">
       <c r="B7" s="78" t="s">
         <v>141</v>
       </c>
@@ -11066,41 +11072,41 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="37.75" customHeight="1">
+    <row r="1" spans="2:6" ht="37.700000000000003" customHeight="1">
       <c r="F1" s="75" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="2:6" s="76" customFormat="1" ht="19.75" customHeight="1">
-      <c r="B2" s="221" t="s">
+    <row r="2" spans="2:6" s="76" customFormat="1" ht="19.7" customHeight="1">
+      <c r="B2" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-    </row>
-    <row r="3" spans="2:6" s="76" customFormat="1" ht="19.75" customHeight="1">
-      <c r="B3" s="222" t="s">
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+    </row>
+    <row r="3" spans="2:6" s="76" customFormat="1" ht="19.7" customHeight="1">
+      <c r="B3" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="223" t="s">
+      <c r="C3" s="226" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223" t="s">
+      <c r="D3" s="226"/>
+      <c r="E3" s="226" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="223"/>
-    </row>
-    <row r="4" spans="2:6" s="3" customFormat="1" ht="59.5" customHeight="1">
-      <c r="B4" s="222"/>
+      <c r="F3" s="226"/>
+    </row>
+    <row r="4" spans="2:6" s="3" customFormat="1" ht="59.45" customHeight="1">
+      <c r="B4" s="225"/>
       <c r="C4" s="77" t="s">
         <v>211</v>
       </c>
@@ -11162,28 +11168,28 @@
   </sheetPr>
   <dimension ref="B1:U60"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.65"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="1" style="45" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="54" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="53" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="54" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="54" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="45" customWidth="1"/>
     <col min="11" max="11" width="8" style="45" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="45" customWidth="1"/>
     <col min="13" max="13" width="15" style="45" customWidth="1"/>
-    <col min="14" max="15" width="9.33203125" style="45" customWidth="1"/>
-    <col min="16" max="17" width="11.109375" style="45" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" style="45" customWidth="1"/>
+    <col min="14" max="15" width="9.375" style="45" customWidth="1"/>
+    <col min="16" max="17" width="11.125" style="45" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="45" customWidth="1"/>
     <col min="19" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
@@ -11191,11 +11197,11 @@
       <c r="O1" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-    </row>
-    <row r="2" spans="2:18" ht="16.3">
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+    </row>
+    <row r="2" spans="2:18" ht="16.5">
       <c r="B2" s="45" t="s">
         <v>75</v>
       </c>
@@ -11207,37 +11213,37 @@
       <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-    </row>
-    <row r="5" spans="2:18" ht="16.3">
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5">
       <c r="B5" s="19">
         <v>3</v>
       </c>
@@ -11252,7 +11258,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="2:18" ht="16.3">
+    <row r="6" spans="2:18" ht="16.5">
       <c r="B6" s="19">
         <v>4</v>
       </c>
@@ -11267,7 +11273,7 @@
       <c r="I6" s="46"/>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="2:18" ht="16.3">
+    <row r="7" spans="2:18" ht="16.5">
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
         <v>25</v>
@@ -11280,7 +11286,7 @@
       <c r="I7" s="46"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="2:18" ht="16.3">
+    <row r="8" spans="2:18" ht="16.5">
       <c r="B8" s="19"/>
       <c r="C8" s="46" t="s">
         <v>81</v>
@@ -11293,7 +11299,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="2:18" ht="16.3">
+    <row r="9" spans="2:18" ht="16.5">
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
         <v>62</v>
@@ -11306,7 +11312,7 @@
       <c r="I9" s="46"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="2:18" ht="16.3">
+    <row r="10" spans="2:18" ht="16.5">
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
         <v>69</v>
@@ -11319,7 +11325,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="2:18" ht="16.3">
+    <row r="11" spans="2:18" ht="16.5">
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
         <v>119</v>
@@ -11332,7 +11338,7 @@
       <c r="I11" s="46"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="2:18" s="33" customFormat="1" ht="16.3">
+    <row r="12" spans="2:18" s="33" customFormat="1" ht="16.5">
       <c r="B12" s="64"/>
       <c r="C12" s="64" t="s">
         <v>115</v>
@@ -11345,7 +11351,7 @@
       <c r="I12" s="65"/>
       <c r="J12" s="64"/>
     </row>
-    <row r="13" spans="2:18" s="59" customFormat="1" ht="16.3">
+    <row r="13" spans="2:18" s="59" customFormat="1" ht="16.5">
       <c r="B13" s="60"/>
       <c r="C13" s="19" t="s">
         <v>123</v>
@@ -11358,7 +11364,7 @@
       <c r="I13" s="61"/>
       <c r="J13" s="60"/>
     </row>
-    <row r="14" spans="2:18" ht="16.3">
+    <row r="14" spans="2:18" ht="16.5">
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
         <v>124</v>
@@ -11371,7 +11377,7 @@
       <c r="I14" s="46"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="2:18" ht="16.3">
+    <row r="15" spans="2:18" ht="16.5">
       <c r="B15" s="19"/>
       <c r="C15" s="46" t="s">
         <v>82</v>
@@ -11388,21 +11394,21 @@
       <c r="B16" s="19">
         <v>5</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
     </row>
     <row r="17" spans="2:21" ht="6.75" customHeight="1"/>
-    <row r="18" spans="2:21" ht="16.3">
+    <row r="18" spans="2:21" ht="16.5">
       <c r="B18" s="45" t="s">
         <v>84</v>
       </c>
@@ -11410,45 +11416,45 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="20.2" customHeight="1">
-      <c r="B19" s="158"/>
-      <c r="C19" s="155" t="s">
+    <row r="19" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B19" s="153"/>
+      <c r="C19" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="158" t="s">
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="159" t="s">
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
       <c r="O19" s="165"/>
-      <c r="P19" s="158" t="s">
+      <c r="P19" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="147" t="s">
+      <c r="Q19" s="153"/>
+      <c r="R19" s="157" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="54.8" customHeight="1">
-      <c r="B20" s="158"/>
-      <c r="C20" s="147" t="s">
+    <row r="20" spans="2:21" ht="54.75" customHeight="1">
+      <c r="B20" s="153"/>
+      <c r="C20" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="147"/>
+      <c r="D20" s="157"/>
       <c r="E20" s="166" t="s">
-        <v>333</v>
-      </c>
-      <c r="F20" s="147" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" s="157" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="168" t="s">
@@ -11458,30 +11464,30 @@
         <v>94</v>
       </c>
       <c r="I20" s="170"/>
-      <c r="J20" s="147" t="s">
+      <c r="J20" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="147" t="s">
+      <c r="K20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="147" t="s">
+      <c r="L20" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147" t="s">
+      <c r="M20" s="157"/>
+      <c r="N20" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="O20" s="147" t="s">
+      <c r="O20" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="147" t="s">
+      <c r="P20" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="147"/>
-    </row>
-    <row r="21" spans="2:21" ht="65.150000000000006">
-      <c r="B21" s="158"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="157"/>
+    </row>
+    <row r="21" spans="2:21" ht="49.5">
+      <c r="B21" s="153"/>
       <c r="C21" s="73" t="s">
         <v>101</v>
       </c>
@@ -11489,27 +11495,27 @@
         <v>102</v>
       </c>
       <c r="E21" s="167"/>
-      <c r="F21" s="147"/>
+      <c r="F21" s="157"/>
       <c r="G21" s="168"/>
       <c r="H21" s="171"/>
       <c r="I21" s="172"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
       <c r="L21" s="70" t="s">
         <v>103</v>
       </c>
       <c r="M21" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
       <c r="P21" s="70" t="s">
         <v>105</v>
       </c>
       <c r="Q21" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="R21" s="147"/>
+      <c r="R21" s="157"/>
       <c r="S21" s="121" t="s">
         <v>250</v>
       </c>
@@ -11517,7 +11523,7 @@
         <v>251</v>
       </c>
       <c r="U21" s="121" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="2:21" s="69" customFormat="1">
@@ -11539,7 +11545,7 @@
       <c r="O22" s="70"/>
       <c r="P22" s="73"/>
       <c r="Q22" s="73"/>
-      <c r="R22" s="161"/>
+      <c r="R22" s="173"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122"/>
       <c r="U22" s="126"/>
@@ -11563,7 +11569,7 @@
       <c r="O23" s="70"/>
       <c r="P23" s="73"/>
       <c r="Q23" s="73"/>
-      <c r="R23" s="162"/>
+      <c r="R23" s="174"/>
       <c r="S23" s="122"/>
       <c r="T23" s="122"/>
       <c r="U23" s="126"/>
@@ -11587,7 +11593,7 @@
       <c r="O24" s="70"/>
       <c r="P24" s="73"/>
       <c r="Q24" s="73"/>
-      <c r="R24" s="162"/>
+      <c r="R24" s="174"/>
       <c r="S24" s="122"/>
       <c r="T24" s="122"/>
       <c r="U24" s="126"/>
@@ -11611,7 +11617,7 @@
       <c r="O25" s="70"/>
       <c r="P25" s="73"/>
       <c r="Q25" s="73"/>
-      <c r="R25" s="162"/>
+      <c r="R25" s="174"/>
       <c r="S25" s="122"/>
       <c r="T25" s="122"/>
       <c r="U25" s="126"/>
@@ -11635,7 +11641,7 @@
       <c r="O26" s="70"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="162"/>
+      <c r="R26" s="174"/>
       <c r="S26" s="122"/>
       <c r="T26" s="122"/>
       <c r="U26" s="126"/>
@@ -11659,7 +11665,7 @@
       <c r="O27" s="70"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
-      <c r="R27" s="162"/>
+      <c r="R27" s="174"/>
       <c r="S27" s="122"/>
       <c r="T27" s="122"/>
       <c r="U27" s="126"/>
@@ -11683,7 +11689,7 @@
       <c r="O28" s="70"/>
       <c r="P28" s="73"/>
       <c r="Q28" s="73"/>
-      <c r="R28" s="162"/>
+      <c r="R28" s="174"/>
       <c r="S28" s="122"/>
       <c r="T28" s="122"/>
       <c r="U28" s="126"/>
@@ -11707,12 +11713,12 @@
       <c r="O29" s="70"/>
       <c r="P29" s="73"/>
       <c r="Q29" s="73"/>
-      <c r="R29" s="162"/>
+      <c r="R29" s="174"/>
       <c r="S29" s="122"/>
       <c r="T29" s="122"/>
       <c r="U29" s="126"/>
     </row>
-    <row r="30" spans="2:21" s="69" customFormat="1" ht="15.65" hidden="1" customHeight="1">
+    <row r="30" spans="2:21" s="69" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="B30" s="70" t="s">
         <v>231</v>
       </c>
@@ -11731,7 +11737,7 @@
       <c r="O30" s="70"/>
       <c r="P30" s="73"/>
       <c r="Q30" s="73"/>
-      <c r="R30" s="162"/>
+      <c r="R30" s="174"/>
       <c r="S30" s="122"/>
       <c r="T30" s="122"/>
       <c r="U30" s="126"/>
@@ -11755,7 +11761,7 @@
       <c r="O31" s="70"/>
       <c r="P31" s="73"/>
       <c r="Q31" s="73"/>
-      <c r="R31" s="162"/>
+      <c r="R31" s="174"/>
       <c r="S31" s="122"/>
       <c r="T31" s="122"/>
       <c r="U31" s="126"/>
@@ -11779,7 +11785,7 @@
       <c r="O32" s="70"/>
       <c r="P32" s="73"/>
       <c r="Q32" s="73"/>
-      <c r="R32" s="162"/>
+      <c r="R32" s="174"/>
       <c r="S32" s="122"/>
       <c r="T32" s="122"/>
       <c r="U32" s="126"/>
@@ -11803,7 +11809,7 @@
       <c r="O33" s="52"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
-      <c r="R33" s="162"/>
+      <c r="R33" s="174"/>
       <c r="S33" s="122"/>
       <c r="T33" s="122"/>
       <c r="U33" s="127"/>
@@ -11827,7 +11833,7 @@
       <c r="O34" s="52"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
-      <c r="R34" s="162"/>
+      <c r="R34" s="174"/>
       <c r="S34" s="122"/>
       <c r="T34" s="122"/>
       <c r="U34" s="127"/>
@@ -11851,12 +11857,12 @@
       <c r="O35" s="52"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
-      <c r="R35" s="162"/>
+      <c r="R35" s="174"/>
       <c r="S35" s="122"/>
       <c r="T35" s="122"/>
       <c r="U35" s="127"/>
     </row>
-    <row r="36" spans="2:21" s="41" customFormat="1" ht="15.65" hidden="1" customHeight="1">
+    <row r="36" spans="2:21" s="41" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="B36" s="70" t="s">
         <v>120</v>
       </c>
@@ -11875,7 +11881,7 @@
       <c r="O36" s="52"/>
       <c r="P36" s="42"/>
       <c r="Q36" s="42"/>
-      <c r="R36" s="162"/>
+      <c r="R36" s="174"/>
       <c r="S36" s="122"/>
       <c r="T36" s="122"/>
       <c r="U36" s="127"/>
@@ -11899,7 +11905,7 @@
       <c r="O37" s="52"/>
       <c r="P37" s="42"/>
       <c r="Q37" s="42"/>
-      <c r="R37" s="162"/>
+      <c r="R37" s="174"/>
       <c r="S37" s="122"/>
       <c r="T37" s="122"/>
       <c r="U37" s="127"/>
@@ -11923,7 +11929,7 @@
       <c r="O38" s="70"/>
       <c r="P38" s="73"/>
       <c r="Q38" s="73"/>
-      <c r="R38" s="162"/>
+      <c r="R38" s="174"/>
       <c r="S38" s="122"/>
       <c r="T38" s="122"/>
       <c r="U38" s="126"/>
@@ -11947,7 +11953,7 @@
       <c r="O39" s="70"/>
       <c r="P39" s="73"/>
       <c r="Q39" s="73"/>
-      <c r="R39" s="162"/>
+      <c r="R39" s="174"/>
       <c r="S39" s="122"/>
       <c r="T39" s="122"/>
       <c r="U39" s="126"/>
@@ -11971,7 +11977,7 @@
       <c r="O40" s="52"/>
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
-      <c r="R40" s="162"/>
+      <c r="R40" s="174"/>
       <c r="S40" s="122"/>
       <c r="T40" s="122"/>
       <c r="U40" s="127"/>
@@ -11995,7 +12001,7 @@
       <c r="O41" s="52"/>
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
-      <c r="R41" s="162"/>
+      <c r="R41" s="174"/>
       <c r="S41" s="122"/>
       <c r="T41" s="122"/>
       <c r="U41" s="127"/>
@@ -12019,7 +12025,7 @@
       <c r="O42" s="70"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="73"/>
-      <c r="R42" s="162"/>
+      <c r="R42" s="174"/>
       <c r="S42" s="122"/>
       <c r="T42" s="122"/>
       <c r="U42" s="126"/>
@@ -12043,7 +12049,7 @@
       <c r="O43" s="70"/>
       <c r="P43" s="73"/>
       <c r="Q43" s="73"/>
-      <c r="R43" s="162"/>
+      <c r="R43" s="174"/>
       <c r="S43" s="122"/>
       <c r="T43" s="122"/>
       <c r="U43" s="126"/>
@@ -12067,7 +12073,7 @@
       <c r="O44" s="70"/>
       <c r="P44" s="73"/>
       <c r="Q44" s="73"/>
-      <c r="R44" s="162"/>
+      <c r="R44" s="174"/>
       <c r="S44" s="122"/>
       <c r="T44" s="122"/>
       <c r="U44" s="126"/>
@@ -12091,7 +12097,7 @@
       <c r="O45" s="70"/>
       <c r="P45" s="73"/>
       <c r="Q45" s="73"/>
-      <c r="R45" s="162"/>
+      <c r="R45" s="174"/>
       <c r="S45" s="122"/>
       <c r="T45" s="122"/>
       <c r="U45" s="126"/>
@@ -12115,7 +12121,7 @@
       <c r="O46" s="70"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="73"/>
-      <c r="R46" s="162"/>
+      <c r="R46" s="174"/>
       <c r="S46" s="122"/>
       <c r="T46" s="122"/>
       <c r="U46" s="126"/>
@@ -12139,7 +12145,7 @@
       <c r="O47" s="70"/>
       <c r="P47" s="73"/>
       <c r="Q47" s="73"/>
-      <c r="R47" s="162"/>
+      <c r="R47" s="174"/>
       <c r="S47" s="122"/>
       <c r="T47" s="122"/>
       <c r="U47" s="126"/>
@@ -12163,7 +12169,7 @@
       <c r="O48" s="70"/>
       <c r="P48" s="73"/>
       <c r="Q48" s="73"/>
-      <c r="R48" s="162"/>
+      <c r="R48" s="174"/>
       <c r="S48" s="122"/>
       <c r="T48" s="122"/>
       <c r="U48" s="126"/>
@@ -12187,7 +12193,7 @@
       <c r="O49" s="70"/>
       <c r="P49" s="73"/>
       <c r="Q49" s="73"/>
-      <c r="R49" s="162"/>
+      <c r="R49" s="174"/>
       <c r="S49" s="122"/>
       <c r="T49" s="122"/>
       <c r="U49" s="126"/>
@@ -12211,7 +12217,7 @@
       <c r="O50" s="70"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="73"/>
-      <c r="R50" s="162"/>
+      <c r="R50" s="174"/>
       <c r="S50" s="122"/>
       <c r="T50" s="122"/>
       <c r="U50" s="126"/>
@@ -12235,7 +12241,7 @@
       <c r="O51" s="70"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="73"/>
-      <c r="R51" s="162"/>
+      <c r="R51" s="174"/>
       <c r="S51" s="122"/>
       <c r="T51" s="122"/>
       <c r="U51" s="126"/>
@@ -12259,7 +12265,7 @@
       <c r="O52" s="99"/>
       <c r="P52" s="105"/>
       <c r="Q52" s="105"/>
-      <c r="R52" s="162"/>
+      <c r="R52" s="174"/>
       <c r="S52" s="122"/>
       <c r="T52" s="122"/>
       <c r="U52" s="126"/>
@@ -12283,7 +12289,7 @@
       <c r="O53" s="99"/>
       <c r="P53" s="105"/>
       <c r="Q53" s="105"/>
-      <c r="R53" s="162"/>
+      <c r="R53" s="174"/>
       <c r="S53" s="122"/>
       <c r="T53" s="122"/>
       <c r="U53" s="126"/>
@@ -12307,7 +12313,7 @@
       <c r="O54" s="99"/>
       <c r="P54" s="105"/>
       <c r="Q54" s="105"/>
-      <c r="R54" s="162"/>
+      <c r="R54" s="174"/>
       <c r="S54" s="122"/>
       <c r="T54" s="122"/>
       <c r="U54" s="126"/>
@@ -12331,7 +12337,7 @@
       <c r="O55" s="99"/>
       <c r="P55" s="105"/>
       <c r="Q55" s="105"/>
-      <c r="R55" s="162"/>
+      <c r="R55" s="174"/>
       <c r="S55" s="122"/>
       <c r="T55" s="122"/>
       <c r="U55" s="126"/>
@@ -12355,44 +12361,51 @@
       <c r="O56" s="99"/>
       <c r="P56" s="105"/>
       <c r="Q56" s="105"/>
-      <c r="R56" s="163"/>
+      <c r="R56" s="175"/>
       <c r="S56" s="122"/>
       <c r="T56" s="122"/>
       <c r="U56" s="126"/>
     </row>
-    <row r="57" spans="2:21" ht="16.3">
+    <row r="57" spans="2:21" ht="16.5">
       <c r="B57" s="71" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="2:21" ht="16.3">
-      <c r="B58" s="151" t="s">
+    <row r="58" spans="2:21" ht="16.5">
+      <c r="B58" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="152"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="152"/>
-      <c r="F58" s="152"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="152"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="152"/>
-      <c r="L58" s="152"/>
-      <c r="M58" s="152"/>
-    </row>
-    <row r="59" spans="2:21" ht="16.3">
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="163"/>
+      <c r="L58" s="163"/>
+      <c r="M58" s="163"/>
+    </row>
+    <row r="59" spans="2:21" ht="16.5">
       <c r="B59" s="71" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="2:21" ht="16.3">
+    <row r="60" spans="2:21" ht="16.5">
       <c r="B60" s="71" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="R22:R56"/>
+    <mergeCell ref="B58:M58"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C4:L4"/>
@@ -12409,13 +12422,6 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="R22:R56"/>
-    <mergeCell ref="B58:M58"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -12441,41 +12447,41 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="37.75" customHeight="1">
+    <row r="1" spans="2:6" ht="37.700000000000003" customHeight="1">
       <c r="F1" s="75" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="2:6" s="76" customFormat="1" ht="19.75" customHeight="1">
-      <c r="B2" s="221" t="s">
+    <row r="2" spans="2:6" s="76" customFormat="1" ht="19.7" customHeight="1">
+      <c r="B2" s="224" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-    </row>
-    <row r="3" spans="2:6" s="76" customFormat="1" ht="19.75" customHeight="1">
-      <c r="B3" s="222" t="s">
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+    </row>
+    <row r="3" spans="2:6" s="76" customFormat="1" ht="19.7" customHeight="1">
+      <c r="B3" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="223" t="s">
+      <c r="C3" s="226" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223" t="s">
+      <c r="D3" s="226"/>
+      <c r="E3" s="226" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="223"/>
-    </row>
-    <row r="4" spans="2:6" s="3" customFormat="1" ht="60.45" customHeight="1">
-      <c r="B4" s="222"/>
+      <c r="F3" s="226"/>
+    </row>
+    <row r="4" spans="2:6" s="3" customFormat="1" ht="60.4" customHeight="1">
+      <c r="B4" s="225"/>
       <c r="C4" s="77" t="s">
         <v>217</v>
       </c>
@@ -12541,42 +12547,42 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="37.75" customHeight="1">
+    <row r="1" spans="2:6" ht="37.700000000000003" customHeight="1">
       <c r="F1" s="75" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="2:6" s="76" customFormat="1" ht="36.65" customHeight="1">
-      <c r="B2" s="192" t="s">
+    <row r="2" spans="2:6" s="76" customFormat="1" ht="36.6" customHeight="1">
+      <c r="B2" s="207" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-    </row>
-    <row r="3" spans="2:6" s="76" customFormat="1" ht="19.75" customHeight="1">
-      <c r="B3" s="222" t="s">
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+    </row>
+    <row r="3" spans="2:6" s="76" customFormat="1" ht="19.7" customHeight="1">
+      <c r="B3" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="223" t="s">
+      <c r="C3" s="226" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223" t="s">
+      <c r="D3" s="226"/>
+      <c r="E3" s="226" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="223"/>
+      <c r="F3" s="226"/>
     </row>
     <row r="4" spans="2:6" s="3" customFormat="1" ht="72" customHeight="1">
-      <c r="B4" s="222"/>
+      <c r="B4" s="225"/>
       <c r="C4" s="77" t="s">
         <v>221</v>
       </c>
@@ -12590,7 +12596,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="31.3">
+    <row r="5" spans="2:6" ht="31.5">
       <c r="B5" s="90" t="s">
         <v>223</v>
       </c>
@@ -12641,44 +12647,44 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="3" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.25" customHeight="1">
+    <row r="1" spans="1:6" ht="45.2" customHeight="1">
       <c r="F1" s="75" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="76"/>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="224" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="76"/>
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="223" t="s">
+      <c r="C3" s="226" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223" t="s">
+      <c r="D3" s="226"/>
+      <c r="E3" s="226" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="223"/>
-    </row>
-    <row r="4" spans="1:6" ht="58.85">
+      <c r="F3" s="226"/>
+    </row>
+    <row r="4" spans="1:6" ht="60.75">
       <c r="A4" s="3"/>
-      <c r="B4" s="222"/>
+      <c r="B4" s="225"/>
       <c r="C4" s="77" t="s">
         <v>225</v>
       </c>
@@ -12743,24 +12749,24 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.65"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="1" style="45" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="54" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="53" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="54" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="54" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="45" customWidth="1"/>
     <col min="11" max="11" width="8" style="45" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="45" customWidth="1"/>
     <col min="13" max="13" width="15" style="45" customWidth="1"/>
-    <col min="14" max="15" width="9.33203125" style="45" customWidth="1"/>
-    <col min="16" max="17" width="11.109375" style="45" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" style="45" customWidth="1"/>
+    <col min="14" max="15" width="9.375" style="45" customWidth="1"/>
+    <col min="16" max="17" width="11.125" style="45" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="45" customWidth="1"/>
     <col min="19" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
@@ -12768,11 +12774,11 @@
       <c r="O1" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-    </row>
-    <row r="2" spans="2:18" ht="16.3">
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+    </row>
+    <row r="2" spans="2:18" ht="16.5">
       <c r="B2" s="45" t="s">
         <v>75</v>
       </c>
@@ -12784,37 +12790,37 @@
       <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-    </row>
-    <row r="5" spans="2:18" ht="16.3">
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5">
       <c r="B5" s="19">
         <v>3</v>
       </c>
@@ -12829,7 +12835,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="2:18" ht="16.3">
+    <row r="6" spans="2:18" ht="16.5">
       <c r="B6" s="19">
         <v>4</v>
       </c>
@@ -12844,7 +12850,7 @@
       <c r="I6" s="46"/>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="2:18" ht="16.3">
+    <row r="7" spans="2:18" ht="16.5">
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
         <v>25</v>
@@ -12857,7 +12863,7 @@
       <c r="I7" s="46"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="2:18" ht="16.3">
+    <row r="8" spans="2:18" ht="16.5">
       <c r="B8" s="19"/>
       <c r="C8" s="46" t="s">
         <v>81</v>
@@ -12870,7 +12876,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="2:18" ht="16.3">
+    <row r="9" spans="2:18" ht="16.5">
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
         <v>62</v>
@@ -12883,7 +12889,7 @@
       <c r="I9" s="46"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="2:18" ht="16.3">
+    <row r="10" spans="2:18" ht="16.5">
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
         <v>69</v>
@@ -12896,7 +12902,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="2:18" ht="16.3">
+    <row r="11" spans="2:18" ht="16.5">
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
         <v>119</v>
@@ -12909,7 +12915,7 @@
       <c r="I11" s="46"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="2:18" s="33" customFormat="1" ht="16.3">
+    <row r="12" spans="2:18" s="33" customFormat="1" ht="16.5">
       <c r="B12" s="64"/>
       <c r="C12" s="64" t="s">
         <v>115</v>
@@ -12922,7 +12928,7 @@
       <c r="I12" s="65"/>
       <c r="J12" s="64"/>
     </row>
-    <row r="13" spans="2:18" s="59" customFormat="1" ht="16.3">
+    <row r="13" spans="2:18" s="59" customFormat="1" ht="16.5">
       <c r="B13" s="60"/>
       <c r="C13" s="19" t="s">
         <v>123</v>
@@ -12935,7 +12941,7 @@
       <c r="I13" s="61"/>
       <c r="J13" s="60"/>
     </row>
-    <row r="14" spans="2:18" ht="16.3">
+    <row r="14" spans="2:18" ht="16.5">
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
         <v>124</v>
@@ -12948,7 +12954,7 @@
       <c r="I14" s="46"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="2:18" ht="16.3">
+    <row r="15" spans="2:18" ht="16.5">
       <c r="B15" s="19"/>
       <c r="C15" s="46" t="s">
         <v>82</v>
@@ -12965,21 +12971,21 @@
       <c r="B16" s="19">
         <v>5</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
     </row>
     <row r="17" spans="2:21" ht="6.75" customHeight="1"/>
-    <row r="18" spans="2:21" ht="16.3">
+    <row r="18" spans="2:21" ht="16.5">
       <c r="B18" s="45" t="s">
         <v>84</v>
       </c>
@@ -12987,45 +12993,45 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="20.2" customHeight="1">
-      <c r="B19" s="158"/>
-      <c r="C19" s="155" t="s">
+    <row r="19" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B19" s="153"/>
+      <c r="C19" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="158" t="s">
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="159" t="s">
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
       <c r="O19" s="165"/>
-      <c r="P19" s="158" t="s">
+      <c r="P19" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="147" t="s">
+      <c r="Q19" s="153"/>
+      <c r="R19" s="157" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="54.8" customHeight="1">
-      <c r="B20" s="158"/>
-      <c r="C20" s="147" t="s">
+    <row r="20" spans="2:21" ht="54.75" customHeight="1">
+      <c r="B20" s="153"/>
+      <c r="C20" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="174" t="s">
+      <c r="D20" s="157"/>
+      <c r="E20" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="147" t="s">
+      <c r="F20" s="157" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="168" t="s">
@@ -13035,30 +13041,30 @@
         <v>94</v>
       </c>
       <c r="I20" s="170"/>
-      <c r="J20" s="147" t="s">
+      <c r="J20" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="147" t="s">
+      <c r="K20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="147" t="s">
+      <c r="L20" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147" t="s">
+      <c r="M20" s="157"/>
+      <c r="N20" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="O20" s="147" t="s">
+      <c r="O20" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="150" t="s">
+      <c r="P20" s="156" t="s">
         <v>228</v>
       </c>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="147"/>
-    </row>
-    <row r="21" spans="2:21" ht="65.150000000000006">
-      <c r="B21" s="158"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="157"/>
+    </row>
+    <row r="21" spans="2:21" ht="49.5">
+      <c r="B21" s="153"/>
       <c r="C21" s="141" t="s">
         <v>101</v>
       </c>
@@ -13066,27 +13072,27 @@
         <v>102</v>
       </c>
       <c r="E21" s="167"/>
-      <c r="F21" s="147"/>
+      <c r="F21" s="157"/>
       <c r="G21" s="168"/>
       <c r="H21" s="171"/>
       <c r="I21" s="172"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
       <c r="L21" s="135" t="s">
         <v>103</v>
       </c>
       <c r="M21" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
       <c r="P21" s="136" t="s">
         <v>229</v>
       </c>
       <c r="Q21" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="R21" s="147"/>
+      <c r="R21" s="157"/>
       <c r="S21" s="121" t="s">
         <v>250</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>251</v>
       </c>
       <c r="U21" s="121" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="2:21" s="134" customFormat="1">
@@ -13116,7 +13122,7 @@
       <c r="O22" s="135"/>
       <c r="P22" s="141"/>
       <c r="Q22" s="141"/>
-      <c r="R22" s="173"/>
+      <c r="R22" s="176"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122"/>
       <c r="U22" s="126"/>
@@ -13140,7 +13146,7 @@
       <c r="O23" s="135"/>
       <c r="P23" s="141"/>
       <c r="Q23" s="141"/>
-      <c r="R23" s="173"/>
+      <c r="R23" s="176"/>
       <c r="S23" s="122"/>
       <c r="T23" s="122"/>
       <c r="U23" s="126"/>
@@ -13164,7 +13170,7 @@
       <c r="O24" s="135"/>
       <c r="P24" s="141"/>
       <c r="Q24" s="141"/>
-      <c r="R24" s="173"/>
+      <c r="R24" s="176"/>
       <c r="S24" s="122"/>
       <c r="T24" s="122"/>
       <c r="U24" s="126"/>
@@ -13188,7 +13194,7 @@
       <c r="O25" s="135"/>
       <c r="P25" s="141"/>
       <c r="Q25" s="141"/>
-      <c r="R25" s="173"/>
+      <c r="R25" s="176"/>
       <c r="S25" s="122"/>
       <c r="T25" s="122"/>
       <c r="U25" s="126"/>
@@ -13212,7 +13218,7 @@
       <c r="O26" s="135"/>
       <c r="P26" s="141"/>
       <c r="Q26" s="141"/>
-      <c r="R26" s="173"/>
+      <c r="R26" s="176"/>
       <c r="S26" s="122"/>
       <c r="T26" s="122"/>
       <c r="U26" s="126"/>
@@ -13236,7 +13242,7 @@
       <c r="O27" s="135"/>
       <c r="P27" s="141"/>
       <c r="Q27" s="141"/>
-      <c r="R27" s="173"/>
+      <c r="R27" s="176"/>
       <c r="S27" s="122"/>
       <c r="T27" s="122"/>
       <c r="U27" s="126"/>
@@ -13260,7 +13266,7 @@
       <c r="O28" s="135"/>
       <c r="P28" s="141"/>
       <c r="Q28" s="141"/>
-      <c r="R28" s="173"/>
+      <c r="R28" s="176"/>
       <c r="S28" s="122"/>
       <c r="T28" s="122"/>
       <c r="U28" s="126"/>
@@ -13284,7 +13290,7 @@
       <c r="O29" s="135"/>
       <c r="P29" s="141"/>
       <c r="Q29" s="141"/>
-      <c r="R29" s="173"/>
+      <c r="R29" s="176"/>
       <c r="S29" s="122"/>
       <c r="T29" s="122"/>
       <c r="U29" s="126"/>
@@ -13308,7 +13314,7 @@
       <c r="O30" s="135"/>
       <c r="P30" s="141"/>
       <c r="Q30" s="141"/>
-      <c r="R30" s="173"/>
+      <c r="R30" s="176"/>
       <c r="S30" s="122"/>
       <c r="T30" s="122"/>
       <c r="U30" s="126"/>
@@ -13332,7 +13338,7 @@
       <c r="O31" s="135"/>
       <c r="P31" s="141"/>
       <c r="Q31" s="141"/>
-      <c r="R31" s="173"/>
+      <c r="R31" s="176"/>
       <c r="S31" s="122"/>
       <c r="T31" s="122"/>
       <c r="U31" s="126"/>
@@ -13356,7 +13362,7 @@
       <c r="O32" s="135"/>
       <c r="P32" s="141"/>
       <c r="Q32" s="141"/>
-      <c r="R32" s="173"/>
+      <c r="R32" s="176"/>
       <c r="S32" s="122"/>
       <c r="T32" s="122"/>
       <c r="U32" s="126"/>
@@ -13380,7 +13386,7 @@
       <c r="O33" s="52"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
-      <c r="R33" s="173"/>
+      <c r="R33" s="176"/>
       <c r="S33" s="122"/>
       <c r="T33" s="122"/>
       <c r="U33" s="127"/>
@@ -13404,7 +13410,7 @@
       <c r="O34" s="52"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
-      <c r="R34" s="173"/>
+      <c r="R34" s="176"/>
       <c r="S34" s="122"/>
       <c r="T34" s="122"/>
       <c r="U34" s="127"/>
@@ -13428,7 +13434,7 @@
       <c r="O35" s="52"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
-      <c r="R35" s="173"/>
+      <c r="R35" s="176"/>
       <c r="S35" s="122"/>
       <c r="T35" s="122"/>
       <c r="U35" s="127"/>
@@ -13452,7 +13458,7 @@
       <c r="O36" s="52"/>
       <c r="P36" s="42"/>
       <c r="Q36" s="42"/>
-      <c r="R36" s="173"/>
+      <c r="R36" s="176"/>
       <c r="S36" s="122"/>
       <c r="T36" s="122"/>
       <c r="U36" s="127"/>
@@ -13476,7 +13482,7 @@
       <c r="O37" s="52"/>
       <c r="P37" s="42"/>
       <c r="Q37" s="42"/>
-      <c r="R37" s="173"/>
+      <c r="R37" s="176"/>
       <c r="S37" s="122"/>
       <c r="T37" s="122"/>
       <c r="U37" s="127"/>
@@ -13500,7 +13506,7 @@
       <c r="O38" s="135"/>
       <c r="P38" s="141"/>
       <c r="Q38" s="141"/>
-      <c r="R38" s="173"/>
+      <c r="R38" s="176"/>
       <c r="S38" s="122"/>
       <c r="T38" s="122"/>
       <c r="U38" s="126"/>
@@ -13524,7 +13530,7 @@
       <c r="O39" s="135"/>
       <c r="P39" s="141"/>
       <c r="Q39" s="141"/>
-      <c r="R39" s="173"/>
+      <c r="R39" s="176"/>
       <c r="S39" s="122"/>
       <c r="T39" s="122"/>
       <c r="U39" s="126"/>
@@ -13548,7 +13554,7 @@
       <c r="O40" s="52"/>
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
-      <c r="R40" s="173"/>
+      <c r="R40" s="176"/>
       <c r="S40" s="122"/>
       <c r="T40" s="122"/>
       <c r="U40" s="127"/>
@@ -13572,7 +13578,7 @@
       <c r="O41" s="52"/>
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
-      <c r="R41" s="173"/>
+      <c r="R41" s="176"/>
       <c r="S41" s="122"/>
       <c r="T41" s="122"/>
       <c r="U41" s="127"/>
@@ -13596,7 +13602,7 @@
       <c r="O42" s="135"/>
       <c r="P42" s="141"/>
       <c r="Q42" s="141"/>
-      <c r="R42" s="173"/>
+      <c r="R42" s="176"/>
       <c r="S42" s="122"/>
       <c r="T42" s="122"/>
       <c r="U42" s="126"/>
@@ -13620,7 +13626,7 @@
       <c r="O43" s="135"/>
       <c r="P43" s="141"/>
       <c r="Q43" s="141"/>
-      <c r="R43" s="173"/>
+      <c r="R43" s="176"/>
       <c r="S43" s="122"/>
       <c r="T43" s="122"/>
       <c r="U43" s="126"/>
@@ -13644,7 +13650,7 @@
       <c r="O44" s="135"/>
       <c r="P44" s="141"/>
       <c r="Q44" s="141"/>
-      <c r="R44" s="173"/>
+      <c r="R44" s="176"/>
       <c r="S44" s="122"/>
       <c r="T44" s="122"/>
       <c r="U44" s="126"/>
@@ -13668,7 +13674,7 @@
       <c r="O45" s="135"/>
       <c r="P45" s="141"/>
       <c r="Q45" s="141"/>
-      <c r="R45" s="173"/>
+      <c r="R45" s="176"/>
       <c r="S45" s="122"/>
       <c r="T45" s="122"/>
       <c r="U45" s="126"/>
@@ -13692,7 +13698,7 @@
       <c r="O46" s="135"/>
       <c r="P46" s="141"/>
       <c r="Q46" s="141"/>
-      <c r="R46" s="173"/>
+      <c r="R46" s="176"/>
       <c r="S46" s="122"/>
       <c r="T46" s="122"/>
       <c r="U46" s="126"/>
@@ -13716,7 +13722,7 @@
       <c r="O47" s="135"/>
       <c r="P47" s="141"/>
       <c r="Q47" s="141"/>
-      <c r="R47" s="173"/>
+      <c r="R47" s="176"/>
       <c r="S47" s="122"/>
       <c r="T47" s="122"/>
       <c r="U47" s="126"/>
@@ -13740,7 +13746,7 @@
       <c r="O48" s="135"/>
       <c r="P48" s="141"/>
       <c r="Q48" s="141"/>
-      <c r="R48" s="173"/>
+      <c r="R48" s="176"/>
       <c r="S48" s="122"/>
       <c r="T48" s="122"/>
       <c r="U48" s="126"/>
@@ -13764,7 +13770,7 @@
       <c r="O49" s="135"/>
       <c r="P49" s="141"/>
       <c r="Q49" s="141"/>
-      <c r="R49" s="173"/>
+      <c r="R49" s="176"/>
       <c r="S49" s="122"/>
       <c r="T49" s="122"/>
       <c r="U49" s="126"/>
@@ -13788,7 +13794,7 @@
       <c r="O50" s="135"/>
       <c r="P50" s="141"/>
       <c r="Q50" s="141"/>
-      <c r="R50" s="173"/>
+      <c r="R50" s="176"/>
       <c r="S50" s="122"/>
       <c r="T50" s="122"/>
       <c r="U50" s="126"/>
@@ -13812,7 +13818,7 @@
       <c r="O51" s="135"/>
       <c r="P51" s="141"/>
       <c r="Q51" s="141"/>
-      <c r="R51" s="173"/>
+      <c r="R51" s="176"/>
       <c r="S51" s="122"/>
       <c r="T51" s="122"/>
       <c r="U51" s="126"/>
@@ -13937,39 +13943,51 @@
       <c r="T56" s="122"/>
       <c r="U56" s="126"/>
     </row>
-    <row r="57" spans="2:21" ht="16.3">
+    <row r="57" spans="2:21" ht="16.5">
       <c r="B57" s="137" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="2:21" ht="16.3">
-      <c r="B58" s="151" t="s">
+    <row r="58" spans="2:21" ht="16.5">
+      <c r="B58" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="152"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="152"/>
-      <c r="F58" s="152"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="152"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="152"/>
-      <c r="L58" s="152"/>
-      <c r="M58" s="152"/>
-    </row>
-    <row r="59" spans="2:21" ht="16.3">
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="163"/>
+      <c r="L58" s="163"/>
+      <c r="M58" s="163"/>
+    </row>
+    <row r="59" spans="2:21" ht="16.5">
       <c r="B59" s="137" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="2:21" ht="16.3">
+    <row r="60" spans="2:21" ht="16.5">
       <c r="B60" s="137" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B58:M58"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="R22:R51"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:J21"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C4:L4"/>
@@ -13981,18 +13999,6 @@
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="R19:R21"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R22:R51"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="B58:M58"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14018,24 +14024,24 @@
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.65"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="1" style="45" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="53" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="54" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="53" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="54" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="54" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="45" customWidth="1"/>
     <col min="11" max="11" width="8" style="45" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="45" customWidth="1"/>
     <col min="13" max="13" width="15" style="45" customWidth="1"/>
-    <col min="14" max="15" width="9.33203125" style="45" customWidth="1"/>
-    <col min="16" max="17" width="11.109375" style="45" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" style="45" customWidth="1"/>
+    <col min="14" max="15" width="9.375" style="45" customWidth="1"/>
+    <col min="16" max="17" width="11.125" style="45" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="45" customWidth="1"/>
     <col min="19" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
@@ -14043,11 +14049,11 @@
       <c r="O1" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-    </row>
-    <row r="2" spans="2:18" ht="16.3">
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+    </row>
+    <row r="2" spans="2:18" ht="16.5">
       <c r="B2" s="45" t="s">
         <v>75</v>
       </c>
@@ -14059,37 +14065,37 @@
       <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-    </row>
-    <row r="5" spans="2:18" ht="16.3">
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5">
       <c r="B5" s="19">
         <v>3</v>
       </c>
@@ -14104,7 +14110,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="2:18" ht="16.3">
+    <row r="6" spans="2:18" ht="16.5">
       <c r="B6" s="19">
         <v>4</v>
       </c>
@@ -14119,7 +14125,7 @@
       <c r="I6" s="46"/>
       <c r="J6" s="19"/>
     </row>
-    <row r="7" spans="2:18" ht="16.3">
+    <row r="7" spans="2:18" ht="16.5">
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
         <v>25</v>
@@ -14132,7 +14138,7 @@
       <c r="I7" s="46"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="2:18" ht="16.3">
+    <row r="8" spans="2:18" ht="16.5">
       <c r="B8" s="19"/>
       <c r="C8" s="46" t="s">
         <v>81</v>
@@ -14145,7 +14151,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="2:18" ht="16.3">
+    <row r="9" spans="2:18" ht="16.5">
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
         <v>62</v>
@@ -14158,7 +14164,7 @@
       <c r="I9" s="46"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="2:18" ht="16.3">
+    <row r="10" spans="2:18" ht="16.5">
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
         <v>69</v>
@@ -14171,7 +14177,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="2:18" ht="16.3">
+    <row r="11" spans="2:18" ht="16.5">
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
         <v>119</v>
@@ -14184,7 +14190,7 @@
       <c r="I11" s="46"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="2:18" s="33" customFormat="1" ht="16.3">
+    <row r="12" spans="2:18" s="33" customFormat="1" ht="16.5">
       <c r="B12" s="64"/>
       <c r="C12" s="64" t="s">
         <v>115</v>
@@ -14197,7 +14203,7 @@
       <c r="I12" s="65"/>
       <c r="J12" s="64"/>
     </row>
-    <row r="13" spans="2:18" s="59" customFormat="1" ht="16.3">
+    <row r="13" spans="2:18" s="59" customFormat="1" ht="16.5">
       <c r="B13" s="60"/>
       <c r="C13" s="19" t="s">
         <v>123</v>
@@ -14210,7 +14216,7 @@
       <c r="I13" s="61"/>
       <c r="J13" s="60"/>
     </row>
-    <row r="14" spans="2:18" ht="16.3">
+    <row r="14" spans="2:18" ht="16.5">
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
         <v>124</v>
@@ -14223,7 +14229,7 @@
       <c r="I14" s="46"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="2:18" ht="16.3">
+    <row r="15" spans="2:18" ht="16.5">
       <c r="B15" s="19"/>
       <c r="C15" s="46" t="s">
         <v>82</v>
@@ -14240,21 +14246,21 @@
       <c r="B16" s="19">
         <v>5</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
     </row>
     <row r="17" spans="2:21" ht="6.75" customHeight="1"/>
-    <row r="18" spans="2:21" ht="16.3">
+    <row r="18" spans="2:21" ht="16.5">
       <c r="B18" s="45" t="s">
         <v>84</v>
       </c>
@@ -14262,45 +14268,45 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="20.2" customHeight="1">
-      <c r="B19" s="158"/>
-      <c r="C19" s="155" t="s">
+    <row r="19" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B19" s="153"/>
+      <c r="C19" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="158" t="s">
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="159" t="s">
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
       <c r="O19" s="165"/>
-      <c r="P19" s="158" t="s">
+      <c r="P19" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="147" t="s">
+      <c r="Q19" s="153"/>
+      <c r="R19" s="157" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="54.8" customHeight="1">
-      <c r="B20" s="158"/>
-      <c r="C20" s="147" t="s">
+    <row r="20" spans="2:21" ht="54.75" customHeight="1">
+      <c r="B20" s="153"/>
+      <c r="C20" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="174" t="s">
+      <c r="D20" s="157"/>
+      <c r="E20" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="147" t="s">
+      <c r="F20" s="157" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="168" t="s">
@@ -14310,30 +14316,30 @@
         <v>94</v>
       </c>
       <c r="I20" s="170"/>
-      <c r="J20" s="147" t="s">
+      <c r="J20" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="147" t="s">
+      <c r="K20" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="147" t="s">
+      <c r="L20" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147" t="s">
+      <c r="M20" s="157"/>
+      <c r="N20" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="O20" s="147" t="s">
+      <c r="O20" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="150" t="s">
+      <c r="P20" s="156" t="s">
         <v>228</v>
       </c>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="147"/>
-    </row>
-    <row r="21" spans="2:21" ht="65.150000000000006">
-      <c r="B21" s="158"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="157"/>
+    </row>
+    <row r="21" spans="2:21" ht="49.5">
+      <c r="B21" s="153"/>
       <c r="C21" s="37" t="s">
         <v>101</v>
       </c>
@@ -14341,27 +14347,27 @@
         <v>102</v>
       </c>
       <c r="E21" s="167"/>
-      <c r="F21" s="147"/>
+      <c r="F21" s="157"/>
       <c r="G21" s="168"/>
       <c r="H21" s="171"/>
       <c r="I21" s="172"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
       <c r="L21" s="36" t="s">
         <v>103</v>
       </c>
       <c r="M21" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
       <c r="P21" s="97" t="s">
         <v>229</v>
       </c>
       <c r="Q21" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="R21" s="147"/>
+      <c r="R21" s="157"/>
       <c r="S21" s="121" t="s">
         <v>250</v>
       </c>
@@ -14369,7 +14375,7 @@
         <v>251</v>
       </c>
       <c r="U21" s="121" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="2:21" s="38" customFormat="1">
@@ -14391,7 +14397,7 @@
       <c r="O22" s="36"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
-      <c r="R22" s="173"/>
+      <c r="R22" s="176"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122"/>
       <c r="U22" s="126"/>
@@ -14415,7 +14421,7 @@
       <c r="O23" s="36"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
-      <c r="R23" s="173"/>
+      <c r="R23" s="176"/>
       <c r="S23" s="122"/>
       <c r="T23" s="122"/>
       <c r="U23" s="126"/>
@@ -14439,7 +14445,7 @@
       <c r="O24" s="36"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
-      <c r="R24" s="173"/>
+      <c r="R24" s="176"/>
       <c r="S24" s="122"/>
       <c r="T24" s="122"/>
       <c r="U24" s="126"/>
@@ -14463,7 +14469,7 @@
       <c r="O25" s="36"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
-      <c r="R25" s="173"/>
+      <c r="R25" s="176"/>
       <c r="S25" s="122"/>
       <c r="T25" s="122"/>
       <c r="U25" s="126"/>
@@ -14487,7 +14493,7 @@
       <c r="O26" s="36"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
-      <c r="R26" s="173"/>
+      <c r="R26" s="176"/>
       <c r="S26" s="122"/>
       <c r="T26" s="122"/>
       <c r="U26" s="126"/>
@@ -14511,7 +14517,7 @@
       <c r="O27" s="36"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
-      <c r="R27" s="173"/>
+      <c r="R27" s="176"/>
       <c r="S27" s="122"/>
       <c r="T27" s="122"/>
       <c r="U27" s="126"/>
@@ -14535,7 +14541,7 @@
       <c r="O28" s="36"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
-      <c r="R28" s="173"/>
+      <c r="R28" s="176"/>
       <c r="S28" s="122"/>
       <c r="T28" s="122"/>
       <c r="U28" s="126"/>
@@ -14559,7 +14565,7 @@
       <c r="O29" s="36"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
-      <c r="R29" s="173"/>
+      <c r="R29" s="176"/>
       <c r="S29" s="122"/>
       <c r="T29" s="122"/>
       <c r="U29" s="126"/>
@@ -14583,7 +14589,7 @@
       <c r="O30" s="36"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
-      <c r="R30" s="173"/>
+      <c r="R30" s="176"/>
       <c r="S30" s="122"/>
       <c r="T30" s="122"/>
       <c r="U30" s="126"/>
@@ -14607,7 +14613,7 @@
       <c r="O31" s="36"/>
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
-      <c r="R31" s="173"/>
+      <c r="R31" s="176"/>
       <c r="S31" s="122"/>
       <c r="T31" s="122"/>
       <c r="U31" s="126"/>
@@ -14631,7 +14637,7 @@
       <c r="O32" s="36"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
-      <c r="R32" s="173"/>
+      <c r="R32" s="176"/>
       <c r="S32" s="122"/>
       <c r="T32" s="122"/>
       <c r="U32" s="126"/>
@@ -14655,7 +14661,7 @@
       <c r="O33" s="52"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
-      <c r="R33" s="173"/>
+      <c r="R33" s="176"/>
       <c r="S33" s="122"/>
       <c r="T33" s="122"/>
       <c r="U33" s="127"/>
@@ -14679,7 +14685,7 @@
       <c r="O34" s="52"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
-      <c r="R34" s="173"/>
+      <c r="R34" s="176"/>
       <c r="S34" s="122"/>
       <c r="T34" s="122"/>
       <c r="U34" s="127"/>
@@ -14703,7 +14709,7 @@
       <c r="O35" s="52"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
-      <c r="R35" s="173"/>
+      <c r="R35" s="176"/>
       <c r="S35" s="122"/>
       <c r="T35" s="122"/>
       <c r="U35" s="127"/>
@@ -14727,7 +14733,7 @@
       <c r="O36" s="52"/>
       <c r="P36" s="42"/>
       <c r="Q36" s="42"/>
-      <c r="R36" s="173"/>
+      <c r="R36" s="176"/>
       <c r="S36" s="122"/>
       <c r="T36" s="122"/>
       <c r="U36" s="127"/>
@@ -14751,7 +14757,7 @@
       <c r="O37" s="52"/>
       <c r="P37" s="42"/>
       <c r="Q37" s="42"/>
-      <c r="R37" s="173"/>
+      <c r="R37" s="176"/>
       <c r="S37" s="122"/>
       <c r="T37" s="122"/>
       <c r="U37" s="127"/>
@@ -14775,7 +14781,7 @@
       <c r="O38" s="36"/>
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
-      <c r="R38" s="173"/>
+      <c r="R38" s="176"/>
       <c r="S38" s="122"/>
       <c r="T38" s="122"/>
       <c r="U38" s="126"/>
@@ -14799,7 +14805,7 @@
       <c r="O39" s="36"/>
       <c r="P39" s="37"/>
       <c r="Q39" s="37"/>
-      <c r="R39" s="173"/>
+      <c r="R39" s="176"/>
       <c r="S39" s="122"/>
       <c r="T39" s="122"/>
       <c r="U39" s="126"/>
@@ -14823,7 +14829,7 @@
       <c r="O40" s="52"/>
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
-      <c r="R40" s="173"/>
+      <c r="R40" s="176"/>
       <c r="S40" s="122"/>
       <c r="T40" s="122"/>
       <c r="U40" s="127"/>
@@ -14847,7 +14853,7 @@
       <c r="O41" s="52"/>
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
-      <c r="R41" s="173"/>
+      <c r="R41" s="176"/>
       <c r="S41" s="122"/>
       <c r="T41" s="122"/>
       <c r="U41" s="127"/>
@@ -14871,7 +14877,7 @@
       <c r="O42" s="36"/>
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
-      <c r="R42" s="173"/>
+      <c r="R42" s="176"/>
       <c r="S42" s="122"/>
       <c r="T42" s="122"/>
       <c r="U42" s="126"/>
@@ -14895,7 +14901,7 @@
       <c r="O43" s="36"/>
       <c r="P43" s="37"/>
       <c r="Q43" s="74"/>
-      <c r="R43" s="173"/>
+      <c r="R43" s="176"/>
       <c r="S43" s="122"/>
       <c r="T43" s="122"/>
       <c r="U43" s="126"/>
@@ -14919,7 +14925,7 @@
       <c r="O44" s="36"/>
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
-      <c r="R44" s="173"/>
+      <c r="R44" s="176"/>
       <c r="S44" s="122"/>
       <c r="T44" s="122"/>
       <c r="U44" s="126"/>
@@ -14943,7 +14949,7 @@
       <c r="O45" s="36"/>
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
-      <c r="R45" s="173"/>
+      <c r="R45" s="176"/>
       <c r="S45" s="122"/>
       <c r="T45" s="122"/>
       <c r="U45" s="126"/>
@@ -14967,7 +14973,7 @@
       <c r="O46" s="36"/>
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
-      <c r="R46" s="173"/>
+      <c r="R46" s="176"/>
       <c r="S46" s="122"/>
       <c r="T46" s="122"/>
       <c r="U46" s="126"/>
@@ -14991,7 +14997,7 @@
       <c r="O47" s="36"/>
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
-      <c r="R47" s="173"/>
+      <c r="R47" s="176"/>
       <c r="S47" s="122"/>
       <c r="T47" s="122"/>
       <c r="U47" s="126"/>
@@ -15015,7 +15021,7 @@
       <c r="O48" s="36"/>
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
-      <c r="R48" s="173"/>
+      <c r="R48" s="176"/>
       <c r="S48" s="122"/>
       <c r="T48" s="122"/>
       <c r="U48" s="126"/>
@@ -15039,7 +15045,7 @@
       <c r="O49" s="36"/>
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
-      <c r="R49" s="173"/>
+      <c r="R49" s="176"/>
       <c r="S49" s="122"/>
       <c r="T49" s="122"/>
       <c r="U49" s="126"/>
@@ -15063,7 +15069,7 @@
       <c r="O50" s="36"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
-      <c r="R50" s="173"/>
+      <c r="R50" s="176"/>
       <c r="S50" s="122"/>
       <c r="T50" s="122"/>
       <c r="U50" s="126"/>
@@ -15087,7 +15093,7 @@
       <c r="O51" s="36"/>
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
-      <c r="R51" s="173"/>
+      <c r="R51" s="176"/>
       <c r="S51" s="122"/>
       <c r="T51" s="122"/>
       <c r="U51" s="126"/>
@@ -15212,39 +15218,46 @@
       <c r="T56" s="122"/>
       <c r="U56" s="126"/>
     </row>
-    <row r="57" spans="2:21" ht="16.3">
+    <row r="57" spans="2:21" ht="16.5">
       <c r="B57" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="2:21" ht="16.3">
-      <c r="B58" s="151" t="s">
+    <row r="58" spans="2:21" ht="16.5">
+      <c r="B58" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="152"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="152"/>
-      <c r="F58" s="152"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="152"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="152"/>
-      <c r="L58" s="152"/>
-      <c r="M58" s="152"/>
-    </row>
-    <row r="59" spans="2:21" ht="16.3">
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="163"/>
+      <c r="L58" s="163"/>
+      <c r="M58" s="163"/>
+    </row>
+    <row r="59" spans="2:21" ht="16.5">
       <c r="B59" s="57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="2:21" ht="16.3">
+    <row r="60" spans="2:21" ht="16.5">
       <c r="B60" s="57" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:N21"/>
@@ -15261,13 +15274,6 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:I21"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="P19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -15288,35 +15294,36 @@
   </sheetPr>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="117" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="117" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="117" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="117" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="117" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="117" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="117" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="117" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="117" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" style="117" customWidth="1"/>
+    <col min="1" max="1" width="0.125" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="117" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="117" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="117" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="117" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="117" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="117" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="117" customWidth="1"/>
+    <col min="12" max="12" width="9.75" style="117" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="117" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="117" customWidth="1"/>
     <col min="15" max="15" width="8" style="117" customWidth="1"/>
-    <col min="16" max="17" width="13.88671875" style="117" customWidth="1"/>
+    <col min="16" max="17" width="13.875" style="117" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="P1" s="177" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1" s="177"/>
+      <c r="P1" s="180" t="str">
+        <f>'檢核表(ETF類)-SMA'!P1:S1</f>
+        <v>資料日期：2019年05月23日</v>
+      </c>
+      <c r="Q1" s="180"/>
     </row>
     <row r="2" spans="1:17" ht="6.75" customHeight="1"/>
     <row r="3" spans="1:17" s="1" customFormat="1">
@@ -15325,7 +15332,7 @@
         <v>232</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="117"/>
@@ -15342,108 +15349,108 @@
       <c r="P3" s="117"/>
       <c r="Q3" s="117"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="20.2" customHeight="1">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="178" t="s">
+      <c r="D4" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="184" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="118"/>
-      <c r="G4" s="184" t="s">
+      <c r="G4" s="187" t="s">
+        <v>313</v>
+      </c>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="190" t="s">
         <v>314</v>
       </c>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="187" t="s">
+      <c r="N4" s="190"/>
+      <c r="O4" s="190"/>
+      <c r="P4" s="191" t="s">
         <v>315</v>
       </c>
-      <c r="N4" s="187"/>
-      <c r="O4" s="187"/>
-      <c r="P4" s="188" t="s">
+      <c r="Q4" s="191"/>
+    </row>
+    <row r="5" spans="1:17" ht="31.9" customHeight="1">
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="192" t="s">
         <v>316</v>
       </c>
-      <c r="Q4" s="188"/>
-    </row>
-    <row r="5" spans="1:17" ht="31.95" customHeight="1">
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="181" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="189" t="s">
+      <c r="H5" s="191"/>
+      <c r="I5" s="192" t="s">
         <v>317</v>
       </c>
-      <c r="H5" s="188"/>
-      <c r="I5" s="189" t="s">
+      <c r="J5" s="191"/>
+      <c r="K5" s="192" t="s">
         <v>318</v>
       </c>
-      <c r="J5" s="188"/>
-      <c r="K5" s="189" t="s">
+      <c r="L5" s="191"/>
+      <c r="M5" s="192" t="s">
         <v>319</v>
       </c>
-      <c r="L5" s="188"/>
-      <c r="M5" s="189" t="s">
+      <c r="N5" s="191"/>
+      <c r="O5" s="191" t="s">
         <v>320</v>
       </c>
-      <c r="N5" s="188"/>
-      <c r="O5" s="188" t="s">
+      <c r="P5" s="178" t="s">
         <v>321</v>
       </c>
-      <c r="P5" s="175" t="s">
+      <c r="Q5" s="178" t="s">
         <v>322</v>
       </c>
-      <c r="Q5" s="175" t="s">
+    </row>
+    <row r="6" spans="1:17" ht="54" customHeight="1">
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="119" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="54" customHeight="1">
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="119" t="s">
+      <c r="H6" s="119" t="s">
         <v>324</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="I6" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="J6" s="119" t="s">
+        <v>324</v>
+      </c>
+      <c r="K6" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="L6" s="119" t="s">
+        <v>324</v>
+      </c>
+      <c r="M6" s="119" t="s">
         <v>325</v>
       </c>
-      <c r="I6" s="119" t="s">
-        <v>324</v>
-      </c>
-      <c r="J6" s="119" t="s">
-        <v>325</v>
-      </c>
-      <c r="K6" s="119" t="s">
-        <v>324</v>
-      </c>
-      <c r="L6" s="119" t="s">
-        <v>325</v>
-      </c>
-      <c r="M6" s="119" t="s">
+      <c r="N6" s="119" t="s">
         <v>326</v>
       </c>
-      <c r="N6" s="119" t="s">
-        <v>327</v>
-      </c>
-      <c r="O6" s="188"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-    </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" ht="15.65">
+      <c r="O6" s="191"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+    </row>
+    <row r="7" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A7" s="12"/>
       <c r="B7" s="29">
         <v>1</v>
@@ -15464,52 +15471,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C11:S27,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G7" s="232" t="e">
+      <c r="G7" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H7" s="233" t="e">
+      <c r="H7" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I7" s="232" t="e">
+      <c r="I7" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J7" s="233" t="e">
+      <c r="J7" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K7" s="232" t="e">
+      <c r="K7" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L7" s="233" t="e">
+      <c r="L7" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M7" s="233" t="e">
+      <c r="M7" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N7" s="233" t="e">
+      <c r="N7" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O7" s="233" t="e">
+      <c r="O7" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P7" s="233" t="e">
+      <c r="P7" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q7" s="233" t="e">
+      <c r="Q7" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="8" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A8" s="12"/>
       <c r="B8" s="29">
         <v>2</v>
@@ -15530,52 +15537,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C12:S28,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G8" s="232" t="e">
+      <c r="G8" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H8" s="233" t="e">
+      <c r="H8" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="232" t="e">
+      <c r="I8" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J8" s="233" t="e">
+      <c r="J8" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K8" s="232" t="e">
+      <c r="K8" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L8" s="233" t="e">
+      <c r="L8" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M8" s="233" t="e">
+      <c r="M8" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N8" s="233" t="e">
+      <c r="N8" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O8" s="233" t="e">
+      <c r="O8" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P8" s="233" t="e">
+      <c r="P8" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q8" s="233" t="e">
+      <c r="Q8" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="9" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A9" s="12"/>
       <c r="B9" s="29">
         <v>3</v>
@@ -15596,52 +15603,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C13:S29,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="232" t="e">
+      <c r="G9" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H9" s="233" t="e">
+      <c r="H9" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I9" s="232" t="e">
+      <c r="I9" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J9" s="233" t="e">
+      <c r="J9" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K9" s="232" t="e">
+      <c r="K9" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L9" s="233" t="e">
+      <c r="L9" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M9" s="233" t="e">
+      <c r="M9" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N9" s="233" t="e">
+      <c r="N9" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O9" s="233" t="e">
+      <c r="O9" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P9" s="233" t="e">
+      <c r="P9" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q9" s="233" t="e">
+      <c r="Q9" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="10" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A10" s="12"/>
       <c r="B10" s="29">
         <v>4</v>
@@ -15662,52 +15669,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C14:S30,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="232" t="e">
+      <c r="G10" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H10" s="233" t="e">
+      <c r="H10" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I10" s="232" t="e">
+      <c r="I10" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="233" t="e">
+      <c r="J10" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K10" s="232" t="e">
+      <c r="K10" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L10" s="233" t="e">
+      <c r="L10" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M10" s="233" t="e">
+      <c r="M10" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N10" s="233" t="e">
+      <c r="N10" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O10" s="233" t="e">
+      <c r="O10" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P10" s="233" t="e">
+      <c r="P10" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q10" s="233" t="e">
+      <c r="Q10" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="11" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A11" s="12"/>
       <c r="B11" s="29">
         <v>5</v>
@@ -15728,52 +15735,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C15:S31,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="232" t="e">
+      <c r="G11" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H11" s="233" t="e">
+      <c r="H11" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="232" t="e">
+      <c r="I11" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="233" t="e">
+      <c r="J11" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K11" s="232" t="e">
+      <c r="K11" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L11" s="233" t="e">
+      <c r="L11" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M11" s="233" t="e">
+      <c r="M11" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N11" s="233" t="e">
+      <c r="N11" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O11" s="233" t="e">
+      <c r="O11" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P11" s="233" t="e">
+      <c r="P11" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q11" s="233" t="e">
+      <c r="Q11" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="12" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A12" s="12"/>
       <c r="B12" s="29">
         <v>6</v>
@@ -15794,52 +15801,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C16:S32,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G12" s="232" t="e">
+      <c r="G12" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H12" s="233" t="e">
+      <c r="H12" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="232" t="e">
+      <c r="I12" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="233" t="e">
+      <c r="J12" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K12" s="232" t="e">
+      <c r="K12" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L12" s="233" t="e">
+      <c r="L12" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M12" s="233" t="e">
+      <c r="M12" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N12" s="233" t="e">
+      <c r="N12" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O12" s="233" t="e">
+      <c r="O12" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P12" s="233" t="e">
+      <c r="P12" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q12" s="233" t="e">
+      <c r="Q12" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="13" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A13" s="12"/>
       <c r="B13" s="29">
         <v>7</v>
@@ -15860,52 +15867,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C17:S33,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G13" s="232" t="e">
+      <c r="G13" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H13" s="233" t="e">
+      <c r="H13" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="232" t="e">
+      <c r="I13" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="233" t="e">
+      <c r="J13" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K13" s="232" t="e">
+      <c r="K13" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L13" s="233" t="e">
+      <c r="L13" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M13" s="233" t="e">
+      <c r="M13" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N13" s="233" t="e">
+      <c r="N13" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O13" s="233" t="e">
+      <c r="O13" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P13" s="233" t="e">
+      <c r="P13" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q13" s="233" t="e">
+      <c r="Q13" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="14" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A14" s="12"/>
       <c r="B14" s="29">
         <v>8</v>
@@ -15926,52 +15933,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C18:S34,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="232" t="e">
+      <c r="G14" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="233" t="e">
+      <c r="H14" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="232" t="e">
+      <c r="I14" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="233" t="e">
+      <c r="J14" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K14" s="232" t="e">
+      <c r="K14" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L14" s="233" t="e">
+      <c r="L14" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M14" s="233" t="e">
+      <c r="M14" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N14" s="233" t="e">
+      <c r="N14" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O14" s="233" t="e">
+      <c r="O14" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="233" t="e">
+      <c r="P14" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q14" s="233" t="e">
+      <c r="Q14" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="15" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A15" s="12"/>
       <c r="B15" s="29">
         <v>9</v>
@@ -15992,52 +15999,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C19:S35,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="232" t="e">
+      <c r="G15" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H15" s="233" t="e">
+      <c r="H15" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="232" t="e">
+      <c r="I15" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="233" t="e">
+      <c r="J15" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K15" s="232" t="e">
+      <c r="K15" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L15" s="233" t="e">
+      <c r="L15" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="233" t="e">
+      <c r="M15" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="233" t="e">
+      <c r="N15" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O15" s="233" t="e">
+      <c r="O15" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P15" s="233" t="e">
+      <c r="P15" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q15" s="233" t="e">
+      <c r="Q15" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="16" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A16" s="12"/>
       <c r="B16" s="29">
         <v>10</v>
@@ -16058,52 +16065,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C20:S36,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="232" t="e">
+      <c r="G16" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="233" t="e">
+      <c r="H16" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="232" t="e">
+      <c r="I16" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="233" t="e">
+      <c r="J16" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="232" t="e">
+      <c r="K16" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="233" t="e">
+      <c r="L16" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="233" t="e">
+      <c r="M16" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="233" t="e">
+      <c r="N16" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="233" t="e">
+      <c r="O16" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="233" t="e">
+      <c r="P16" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="233" t="e">
+      <c r="Q16" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="17" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A17" s="12"/>
       <c r="B17" s="29">
         <v>11</v>
@@ -16124,52 +16131,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C21:S37,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="232" t="e">
+      <c r="G17" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="233" t="e">
+      <c r="H17" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I17" s="232" t="e">
+      <c r="I17" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="233" t="e">
+      <c r="J17" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K17" s="232" t="e">
+      <c r="K17" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="233" t="e">
+      <c r="L17" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="233" t="e">
+      <c r="M17" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N17" s="233" t="e">
+      <c r="N17" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O17" s="233" t="e">
+      <c r="O17" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P17" s="233" t="e">
+      <c r="P17" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q17" s="233" t="e">
+      <c r="Q17" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="18" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A18" s="12"/>
       <c r="B18" s="29">
         <v>12</v>
@@ -16190,52 +16197,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C22:S38,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="232" t="e">
+      <c r="G18" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H18" s="233" t="e">
+      <c r="H18" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="232" t="e">
+      <c r="I18" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="233" t="e">
+      <c r="J18" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K18" s="232" t="e">
+      <c r="K18" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L18" s="233" t="e">
+      <c r="L18" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M18" s="233" t="e">
+      <c r="M18" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N18" s="233" t="e">
+      <c r="N18" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O18" s="233" t="e">
+      <c r="O18" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P18" s="233" t="e">
+      <c r="P18" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q18" s="233" t="e">
+      <c r="Q18" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="19" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A19" s="12"/>
       <c r="B19" s="29">
         <v>13</v>
@@ -16256,52 +16263,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C23:S39,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="232" t="e">
+      <c r="G19" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H19" s="233" t="e">
+      <c r="H19" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I19" s="232" t="e">
+      <c r="I19" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="233" t="e">
+      <c r="J19" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K19" s="232" t="e">
+      <c r="K19" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L19" s="233" t="e">
+      <c r="L19" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M19" s="233" t="e">
+      <c r="M19" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N19" s="233" t="e">
+      <c r="N19" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O19" s="233" t="e">
+      <c r="O19" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P19" s="233" t="e">
+      <c r="P19" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q19" s="233" t="e">
+      <c r="Q19" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="20" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A20" s="12"/>
       <c r="B20" s="29">
         <v>14</v>
@@ -16322,52 +16329,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C24:S40,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="232" t="e">
+      <c r="G20" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H20" s="233" t="e">
+      <c r="H20" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I20" s="232" t="e">
+      <c r="I20" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="233" t="e">
+      <c r="J20" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K20" s="232" t="e">
+      <c r="K20" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L20" s="233" t="e">
+      <c r="L20" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="233" t="e">
+      <c r="M20" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N20" s="233" t="e">
+      <c r="N20" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O20" s="233" t="e">
+      <c r="O20" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="233" t="e">
+      <c r="P20" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q20" s="233" t="e">
+      <c r="Q20" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="21" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A21" s="12"/>
       <c r="B21" s="29">
         <v>15</v>
@@ -16388,52 +16395,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C25:S41,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G21" s="232" t="e">
+      <c r="G21" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H21" s="233" t="e">
+      <c r="H21" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I21" s="232" t="e">
+      <c r="I21" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="233" t="e">
+      <c r="J21" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K21" s="232" t="e">
+      <c r="K21" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L21" s="233" t="e">
+      <c r="L21" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M21" s="233" t="e">
+      <c r="M21" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N21" s="233" t="e">
+      <c r="N21" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O21" s="233" t="e">
+      <c r="O21" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P21" s="233" t="e">
+      <c r="P21" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q21" s="233" t="e">
+      <c r="Q21" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="22" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A22" s="12"/>
       <c r="B22" s="29">
         <v>16</v>
@@ -16454,52 +16461,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C26:S42,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G22" s="232" t="e">
+      <c r="G22" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H22" s="233" t="e">
+      <c r="H22" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I22" s="232" t="e">
+      <c r="I22" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J22" s="233" t="e">
+      <c r="J22" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K22" s="232" t="e">
+      <c r="K22" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L22" s="233" t="e">
+      <c r="L22" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="233" t="e">
+      <c r="M22" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N22" s="233" t="e">
+      <c r="N22" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O22" s="233" t="e">
+      <c r="O22" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P22" s="233" t="e">
+      <c r="P22" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q22" s="233" t="e">
+      <c r="Q22" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="23" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A23" s="12"/>
       <c r="B23" s="29">
         <v>17</v>
@@ -16520,52 +16527,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C27:S43,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G23" s="232" t="e">
+      <c r="G23" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H23" s="233" t="e">
+      <c r="H23" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I23" s="232" t="e">
+      <c r="I23" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="233" t="e">
+      <c r="J23" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K23" s="232" t="e">
+      <c r="K23" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L23" s="233" t="e">
+      <c r="L23" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M23" s="233" t="e">
+      <c r="M23" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N23" s="233" t="e">
+      <c r="N23" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O23" s="233" t="e">
+      <c r="O23" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P23" s="233" t="e">
+      <c r="P23" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q23" s="233" t="e">
+      <c r="Q23" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="24" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A24" s="12"/>
       <c r="B24" s="29">
         <v>18</v>
@@ -16586,52 +16593,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C28:S44,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G24" s="232" t="e">
+      <c r="G24" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H24" s="233" t="e">
+      <c r="H24" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I24" s="232" t="e">
+      <c r="I24" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="233" t="e">
+      <c r="J24" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K24" s="232" t="e">
+      <c r="K24" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L24" s="233" t="e">
+      <c r="L24" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M24" s="233" t="e">
+      <c r="M24" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N24" s="233" t="e">
+      <c r="N24" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O24" s="233" t="e">
+      <c r="O24" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P24" s="233" t="e">
+      <c r="P24" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q24" s="233" t="e">
+      <c r="Q24" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="25" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A25" s="12"/>
       <c r="B25" s="29">
         <v>19</v>
@@ -16652,52 +16659,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C29:S45,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G25" s="232" t="e">
+      <c r="G25" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H25" s="233" t="e">
+      <c r="H25" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I25" s="232" t="e">
+      <c r="I25" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" s="233" t="e">
+      <c r="J25" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K25" s="232" t="e">
+      <c r="K25" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L25" s="233" t="e">
+      <c r="L25" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M25" s="233" t="e">
+      <c r="M25" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N25" s="233" t="e">
+      <c r="N25" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O25" s="233" t="e">
+      <c r="O25" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="233" t="e">
+      <c r="P25" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q25" s="233" t="e">
+      <c r="Q25" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="26" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A26" s="12"/>
       <c r="B26" s="29">
         <v>20</v>
@@ -16718,52 +16725,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C30:S46,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G26" s="232" t="e">
+      <c r="G26" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H26" s="233" t="e">
+      <c r="H26" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I26" s="232" t="e">
+      <c r="I26" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J26" s="233" t="e">
+      <c r="J26" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K26" s="232" t="e">
+      <c r="K26" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L26" s="233" t="e">
+      <c r="L26" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M26" s="233" t="e">
+      <c r="M26" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N26" s="233" t="e">
+      <c r="N26" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O26" s="233" t="e">
+      <c r="O26" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P26" s="233" t="e">
+      <c r="P26" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q26" s="233" t="e">
+      <c r="Q26" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="27" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A27" s="12"/>
       <c r="B27" s="29">
         <v>21</v>
@@ -16784,52 +16791,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C31:S47,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G27" s="232" t="e">
+      <c r="G27" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H27" s="233" t="e">
+      <c r="H27" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I27" s="232" t="e">
+      <c r="I27" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J27" s="233" t="e">
+      <c r="J27" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K27" s="232" t="e">
+      <c r="K27" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L27" s="233" t="e">
+      <c r="L27" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M27" s="233" t="e">
+      <c r="M27" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N27" s="233" t="e">
+      <c r="N27" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O27" s="233" t="e">
+      <c r="O27" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P27" s="233" t="e">
+      <c r="P27" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q27" s="233" t="e">
+      <c r="Q27" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="28" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A28" s="12"/>
       <c r="B28" s="29">
         <v>22</v>
@@ -16850,52 +16857,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C32:S48,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G28" s="232" t="e">
+      <c r="G28" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H28" s="233" t="e">
+      <c r="H28" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I28" s="232" t="e">
+      <c r="I28" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="233" t="e">
+      <c r="J28" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K28" s="232" t="e">
+      <c r="K28" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L28" s="233" t="e">
+      <c r="L28" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M28" s="233" t="e">
+      <c r="M28" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N28" s="233" t="e">
+      <c r="N28" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O28" s="233" t="e">
+      <c r="O28" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P28" s="233" t="e">
+      <c r="P28" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q28" s="233" t="e">
+      <c r="Q28" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="29" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A29" s="12"/>
       <c r="B29" s="29">
         <v>23</v>
@@ -16916,52 +16923,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C33:S49,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G29" s="232" t="e">
+      <c r="G29" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H29" s="233" t="e">
+      <c r="H29" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I29" s="232" t="e">
+      <c r="I29" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J29" s="233" t="e">
+      <c r="J29" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K29" s="232" t="e">
+      <c r="K29" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L29" s="233" t="e">
+      <c r="L29" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M29" s="233" t="e">
+      <c r="M29" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N29" s="233" t="e">
+      <c r="N29" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O29" s="233" t="e">
+      <c r="O29" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P29" s="233" t="e">
+      <c r="P29" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q29" s="233" t="e">
+      <c r="Q29" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="30" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A30" s="12"/>
       <c r="B30" s="29">
         <v>24</v>
@@ -16982,52 +16989,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C34:S50,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G30" s="232" t="e">
+      <c r="G30" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H30" s="233" t="e">
+      <c r="H30" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I30" s="232" t="e">
+      <c r="I30" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J30" s="233" t="e">
+      <c r="J30" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K30" s="232" t="e">
+      <c r="K30" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L30" s="233" t="e">
+      <c r="L30" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M30" s="233" t="e">
+      <c r="M30" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N30" s="233" t="e">
+      <c r="N30" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O30" s="233" t="e">
+      <c r="O30" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P30" s="233" t="e">
+      <c r="P30" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q30" s="233" t="e">
+      <c r="Q30" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="31" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A31" s="12"/>
       <c r="B31" s="29">
         <v>25</v>
@@ -17048,52 +17055,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C35:S51,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G31" s="232" t="e">
+      <c r="G31" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H31" s="233" t="e">
+      <c r="H31" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I31" s="232" t="e">
+      <c r="I31" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J31" s="233" t="e">
+      <c r="J31" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K31" s="232" t="e">
+      <c r="K31" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L31" s="233" t="e">
+      <c r="L31" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M31" s="233" t="e">
+      <c r="M31" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N31" s="233" t="e">
+      <c r="N31" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O31" s="233" t="e">
+      <c r="O31" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P31" s="233" t="e">
+      <c r="P31" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q31" s="233" t="e">
+      <c r="Q31" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="32" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A32" s="12"/>
       <c r="B32" s="29">
         <v>26</v>
@@ -17114,52 +17121,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C36:S52,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G32" s="232" t="e">
+      <c r="G32" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H32" s="233" t="e">
+      <c r="H32" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I32" s="232" t="e">
+      <c r="I32" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J32" s="233" t="e">
+      <c r="J32" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K32" s="232" t="e">
+      <c r="K32" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L32" s="233" t="e">
+      <c r="L32" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M32" s="233" t="e">
+      <c r="M32" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N32" s="233" t="e">
+      <c r="N32" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O32" s="233" t="e">
+      <c r="O32" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P32" s="233" t="e">
+      <c r="P32" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q32" s="233" t="e">
+      <c r="Q32" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="33" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A33" s="12"/>
       <c r="B33" s="29">
         <v>27</v>
@@ -17180,52 +17187,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C37:S53,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G33" s="232" t="e">
+      <c r="G33" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H33" s="233" t="e">
+      <c r="H33" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I33" s="232" t="e">
+      <c r="I33" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J33" s="233" t="e">
+      <c r="J33" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K33" s="232" t="e">
+      <c r="K33" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L33" s="233" t="e">
+      <c r="L33" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M33" s="233" t="e">
+      <c r="M33" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N33" s="233" t="e">
+      <c r="N33" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O33" s="233" t="e">
+      <c r="O33" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P33" s="233" t="e">
+      <c r="P33" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q33" s="233" t="e">
+      <c r="Q33" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="34" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A34" s="12"/>
       <c r="B34" s="29">
         <v>28</v>
@@ -17246,52 +17253,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C38:S54,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G34" s="232" t="e">
+      <c r="G34" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H34" s="233" t="e">
+      <c r="H34" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I34" s="232" t="e">
+      <c r="I34" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J34" s="233" t="e">
+      <c r="J34" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K34" s="232" t="e">
+      <c r="K34" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L34" s="233" t="e">
+      <c r="L34" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M34" s="233" t="e">
+      <c r="M34" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N34" s="233" t="e">
+      <c r="N34" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O34" s="233" t="e">
+      <c r="O34" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P34" s="233" t="e">
+      <c r="P34" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q34" s="233" t="e">
+      <c r="Q34" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="35" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A35" s="12"/>
       <c r="B35" s="29">
         <v>29</v>
@@ -17312,52 +17319,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C39:S55,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G35" s="232" t="e">
+      <c r="G35" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H35" s="233" t="e">
+      <c r="H35" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I35" s="232" t="e">
+      <c r="I35" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J35" s="233" t="e">
+      <c r="J35" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K35" s="232" t="e">
+      <c r="K35" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L35" s="233" t="e">
+      <c r="L35" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M35" s="233" t="e">
+      <c r="M35" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N35" s="233" t="e">
+      <c r="N35" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O35" s="233" t="e">
+      <c r="O35" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P35" s="233" t="e">
+      <c r="P35" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q35" s="233" t="e">
+      <c r="Q35" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="36" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A36" s="12"/>
       <c r="B36" s="29">
         <v>30</v>
@@ -17378,52 +17385,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C40:S56,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G36" s="232" t="e">
+      <c r="G36" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H36" s="233" t="e">
+      <c r="H36" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I36" s="232" t="e">
+      <c r="I36" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J36" s="233" t="e">
+      <c r="J36" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K36" s="232" t="e">
+      <c r="K36" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L36" s="233" t="e">
+      <c r="L36" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M36" s="233" t="e">
+      <c r="M36" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N36" s="233" t="e">
+      <c r="N36" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O36" s="233" t="e">
+      <c r="O36" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P36" s="233" t="e">
+      <c r="P36" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q36" s="233" t="e">
+      <c r="Q36" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="37" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A37" s="12"/>
       <c r="B37" s="29">
         <v>31</v>
@@ -17444,52 +17451,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C41:S57,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G37" s="232" t="e">
+      <c r="G37" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H37" s="233" t="e">
+      <c r="H37" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I37" s="232" t="e">
+      <c r="I37" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J37" s="233" t="e">
+      <c r="J37" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K37" s="232" t="e">
+      <c r="K37" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L37" s="233" t="e">
+      <c r="L37" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M37" s="233" t="e">
+      <c r="M37" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N37" s="233" t="e">
+      <c r="N37" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O37" s="233" t="e">
+      <c r="O37" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P37" s="233" t="e">
+      <c r="P37" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q37" s="233" t="e">
+      <c r="Q37" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="38" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A38" s="12"/>
       <c r="B38" s="29">
         <v>32</v>
@@ -17510,52 +17517,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C42:S58,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G38" s="232" t="e">
+      <c r="G38" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H38" s="233" t="e">
+      <c r="H38" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I38" s="232" t="e">
+      <c r="I38" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J38" s="233" t="e">
+      <c r="J38" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K38" s="232" t="e">
+      <c r="K38" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L38" s="233" t="e">
+      <c r="L38" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M38" s="233" t="e">
+      <c r="M38" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N38" s="233" t="e">
+      <c r="N38" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O38" s="233" t="e">
+      <c r="O38" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P38" s="233" t="e">
+      <c r="P38" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q38" s="233" t="e">
+      <c r="Q38" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="39" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A39" s="12"/>
       <c r="B39" s="29">
         <v>33</v>
@@ -17576,52 +17583,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C43:S59,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G39" s="232" t="e">
+      <c r="G39" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H39" s="233" t="e">
+      <c r="H39" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I39" s="232" t="e">
+      <c r="I39" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J39" s="233" t="e">
+      <c r="J39" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K39" s="232" t="e">
+      <c r="K39" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L39" s="233" t="e">
+      <c r="L39" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M39" s="233" t="e">
+      <c r="M39" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N39" s="233" t="e">
+      <c r="N39" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O39" s="233" t="e">
+      <c r="O39" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P39" s="233" t="e">
+      <c r="P39" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q39" s="233" t="e">
+      <c r="Q39" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="40" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A40" s="12"/>
       <c r="B40" s="29">
         <v>34</v>
@@ -17642,52 +17649,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C44:S60,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G40" s="232" t="e">
+      <c r="G40" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H40" s="233" t="e">
+      <c r="H40" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I40" s="232" t="e">
+      <c r="I40" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J40" s="233" t="e">
+      <c r="J40" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K40" s="232" t="e">
+      <c r="K40" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L40" s="233" t="e">
+      <c r="L40" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M40" s="233" t="e">
+      <c r="M40" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N40" s="233" t="e">
+      <c r="N40" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O40" s="233" t="e">
+      <c r="O40" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P40" s="233" t="e">
+      <c r="P40" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q40" s="233" t="e">
+      <c r="Q40" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="41" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A41" s="12"/>
       <c r="B41" s="29">
         <v>35</v>
@@ -17708,52 +17715,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C45:S61,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G41" s="232" t="e">
+      <c r="G41" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H41" s="233" t="e">
+      <c r="H41" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I41" s="232" t="e">
+      <c r="I41" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J41" s="233" t="e">
+      <c r="J41" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K41" s="232" t="e">
+      <c r="K41" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L41" s="233" t="e">
+      <c r="L41" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M41" s="233" t="e">
+      <c r="M41" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N41" s="233" t="e">
+      <c r="N41" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O41" s="233" t="e">
+      <c r="O41" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P41" s="233" t="e">
+      <c r="P41" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q41" s="233" t="e">
+      <c r="Q41" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="42" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A42" s="12"/>
       <c r="B42" s="29">
         <v>36</v>
@@ -17774,52 +17781,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C46:S62,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G42" s="232" t="e">
+      <c r="G42" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H42" s="233" t="e">
+      <c r="H42" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I42" s="232" t="e">
+      <c r="I42" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J42" s="233" t="e">
+      <c r="J42" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K42" s="232" t="e">
+      <c r="K42" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L42" s="233" t="e">
+      <c r="L42" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M42" s="233" t="e">
+      <c r="M42" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N42" s="233" t="e">
+      <c r="N42" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O42" s="233" t="e">
+      <c r="O42" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P42" s="233" t="e">
+      <c r="P42" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q42" s="233" t="e">
+      <c r="Q42" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="43" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A43" s="12"/>
       <c r="B43" s="29">
         <v>37</v>
@@ -17840,52 +17847,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C47:S63,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G43" s="232" t="e">
+      <c r="G43" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H43" s="233" t="e">
+      <c r="H43" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I43" s="232" t="e">
+      <c r="I43" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J43" s="233" t="e">
+      <c r="J43" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K43" s="232" t="e">
+      <c r="K43" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L43" s="233" t="e">
+      <c r="L43" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M43" s="233" t="e">
+      <c r="M43" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N43" s="233" t="e">
+      <c r="N43" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O43" s="233" t="e">
+      <c r="O43" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P43" s="233" t="e">
+      <c r="P43" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q43" s="233" t="e">
+      <c r="Q43" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="44" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A44" s="12"/>
       <c r="B44" s="29">
         <v>38</v>
@@ -17906,52 +17913,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C48:S64,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G44" s="232" t="e">
+      <c r="G44" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H44" s="233" t="e">
+      <c r="H44" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I44" s="232" t="e">
+      <c r="I44" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J44" s="233" t="e">
+      <c r="J44" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K44" s="232" t="e">
+      <c r="K44" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L44" s="233" t="e">
+      <c r="L44" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M44" s="233" t="e">
+      <c r="M44" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N44" s="233" t="e">
+      <c r="N44" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O44" s="233" t="e">
+      <c r="O44" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P44" s="233" t="e">
+      <c r="P44" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q44" s="233" t="e">
+      <c r="Q44" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="45" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A45" s="12"/>
       <c r="B45" s="29">
         <v>39</v>
@@ -17972,52 +17979,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C49:S65,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G45" s="232" t="e">
+      <c r="G45" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H45" s="233" t="e">
+      <c r="H45" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I45" s="232" t="e">
+      <c r="I45" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J45" s="233" t="e">
+      <c r="J45" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K45" s="232" t="e">
+      <c r="K45" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L45" s="233" t="e">
+      <c r="L45" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M45" s="233" t="e">
+      <c r="M45" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N45" s="233" t="e">
+      <c r="N45" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O45" s="233" t="e">
+      <c r="O45" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P45" s="233" t="e">
+      <c r="P45" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q45" s="233" t="e">
+      <c r="Q45" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="46" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A46" s="12"/>
       <c r="B46" s="29">
         <v>40</v>
@@ -18038,52 +18045,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C50:S66,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G46" s="232" t="e">
+      <c r="G46" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H46" s="233" t="e">
+      <c r="H46" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I46" s="232" t="e">
+      <c r="I46" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J46" s="233" t="e">
+      <c r="J46" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K46" s="232" t="e">
+      <c r="K46" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L46" s="233" t="e">
+      <c r="L46" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M46" s="233" t="e">
+      <c r="M46" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N46" s="233" t="e">
+      <c r="N46" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O46" s="233" t="e">
+      <c r="O46" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P46" s="233" t="e">
+      <c r="P46" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q46" s="233" t="e">
+      <c r="Q46" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="47" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A47" s="12"/>
       <c r="B47" s="29">
         <v>41</v>
@@ -18104,52 +18111,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C51:S67,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G47" s="232" t="e">
+      <c r="G47" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H47" s="233" t="e">
+      <c r="H47" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I47" s="232" t="e">
+      <c r="I47" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J47" s="233" t="e">
+      <c r="J47" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K47" s="232" t="e">
+      <c r="K47" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L47" s="233" t="e">
+      <c r="L47" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M47" s="233" t="e">
+      <c r="M47" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N47" s="233" t="e">
+      <c r="N47" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O47" s="233" t="e">
+      <c r="O47" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P47" s="233" t="e">
+      <c r="P47" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q47" s="233" t="e">
+      <c r="Q47" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="48" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A48" s="12"/>
       <c r="B48" s="29">
         <v>42</v>
@@ -18170,52 +18177,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C52:S68,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G48" s="232" t="e">
+      <c r="G48" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H48" s="233" t="e">
+      <c r="H48" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I48" s="232" t="e">
+      <c r="I48" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J48" s="233" t="e">
+      <c r="J48" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K48" s="232" t="e">
+      <c r="K48" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L48" s="233" t="e">
+      <c r="L48" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M48" s="233" t="e">
+      <c r="M48" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N48" s="233" t="e">
+      <c r="N48" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O48" s="233" t="e">
+      <c r="O48" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P48" s="233" t="e">
+      <c r="P48" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q48" s="233" t="e">
+      <c r="Q48" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="49" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A49" s="12"/>
       <c r="B49" s="29">
         <v>43</v>
@@ -18236,52 +18243,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C53:S69,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G49" s="232" t="e">
+      <c r="G49" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H49" s="233" t="e">
+      <c r="H49" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I49" s="232" t="e">
+      <c r="I49" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J49" s="233" t="e">
+      <c r="J49" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K49" s="232" t="e">
+      <c r="K49" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L49" s="233" t="e">
+      <c r="L49" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M49" s="233" t="e">
+      <c r="M49" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N49" s="233" t="e">
+      <c r="N49" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O49" s="233" t="e">
+      <c r="O49" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P49" s="233" t="e">
+      <c r="P49" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q49" s="233" t="e">
+      <c r="Q49" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="50" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A50" s="12"/>
       <c r="B50" s="29">
         <v>44</v>
@@ -18302,52 +18309,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C54:S70,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G50" s="232" t="e">
+      <c r="G50" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H50" s="233" t="e">
+      <c r="H50" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I50" s="232" t="e">
+      <c r="I50" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J50" s="233" t="e">
+      <c r="J50" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K50" s="232" t="e">
+      <c r="K50" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L50" s="233" t="e">
+      <c r="L50" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M50" s="233" t="e">
+      <c r="M50" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N50" s="233" t="e">
+      <c r="N50" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O50" s="233" t="e">
+      <c r="O50" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P50" s="233" t="e">
+      <c r="P50" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q50" s="233" t="e">
+      <c r="Q50" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="51" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A51" s="12"/>
       <c r="B51" s="29">
         <v>45</v>
@@ -18368,52 +18375,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C55:S71,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="232" t="e">
+      <c r="G51" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H51" s="233" t="e">
+      <c r="H51" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I51" s="232" t="e">
+      <c r="I51" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J51" s="233" t="e">
+      <c r="J51" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K51" s="232" t="e">
+      <c r="K51" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L51" s="233" t="e">
+      <c r="L51" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M51" s="233" t="e">
+      <c r="M51" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N51" s="233" t="e">
+      <c r="N51" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O51" s="233" t="e">
+      <c r="O51" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P51" s="233" t="e">
+      <c r="P51" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q51" s="233" t="e">
+      <c r="Q51" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="52" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A52" s="12"/>
       <c r="B52" s="29">
         <v>46</v>
@@ -18434,52 +18441,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C56:S72,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G52" s="232" t="e">
+      <c r="G52" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H52" s="233" t="e">
+      <c r="H52" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I52" s="232" t="e">
+      <c r="I52" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J52" s="233" t="e">
+      <c r="J52" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K52" s="232" t="e">
+      <c r="K52" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L52" s="233" t="e">
+      <c r="L52" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M52" s="233" t="e">
+      <c r="M52" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N52" s="233" t="e">
+      <c r="N52" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O52" s="233" t="e">
+      <c r="O52" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P52" s="233" t="e">
+      <c r="P52" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q52" s="233" t="e">
+      <c r="Q52" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="53" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A53" s="12"/>
       <c r="B53" s="29">
         <v>47</v>
@@ -18500,52 +18507,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C57:S73,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G53" s="232" t="e">
+      <c r="G53" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H53" s="233" t="e">
+      <c r="H53" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I53" s="232" t="e">
+      <c r="I53" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J53" s="233" t="e">
+      <c r="J53" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K53" s="232" t="e">
+      <c r="K53" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L53" s="233" t="e">
+      <c r="L53" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M53" s="233" t="e">
+      <c r="M53" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N53" s="233" t="e">
+      <c r="N53" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O53" s="233" t="e">
+      <c r="O53" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P53" s="233" t="e">
+      <c r="P53" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q53" s="233" t="e">
+      <c r="Q53" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="54" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A54" s="12"/>
       <c r="B54" s="29">
         <v>48</v>
@@ -18566,52 +18573,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C58:S74,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G54" s="232" t="e">
+      <c r="G54" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H54" s="233" t="e">
+      <c r="H54" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I54" s="232" t="e">
+      <c r="I54" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J54" s="233" t="e">
+      <c r="J54" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K54" s="232" t="e">
+      <c r="K54" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L54" s="233" t="e">
+      <c r="L54" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M54" s="233" t="e">
+      <c r="M54" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N54" s="233" t="e">
+      <c r="N54" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O54" s="233" t="e">
+      <c r="O54" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P54" s="233" t="e">
+      <c r="P54" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q54" s="233" t="e">
+      <c r="Q54" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="55" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A55" s="12"/>
       <c r="B55" s="29">
         <v>49</v>
@@ -18632,52 +18639,52 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C59:S75,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G55" s="232" t="e">
+      <c r="G55" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H55" s="233" t="e">
+      <c r="H55" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I55" s="232" t="e">
+      <c r="I55" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J55" s="233" t="e">
+      <c r="J55" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K55" s="232" t="e">
+      <c r="K55" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L55" s="233" t="e">
+      <c r="L55" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M55" s="233" t="e">
+      <c r="M55" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N55" s="233" t="e">
+      <c r="N55" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O55" s="233" t="e">
+      <c r="O55" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P55" s="233" t="e">
+      <c r="P55" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q55" s="233" t="e">
+      <c r="Q55" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="15" customFormat="1" ht="15.65">
+    <row r="56" spans="1:17" s="15" customFormat="1" ht="15.75">
       <c r="A56" s="12"/>
       <c r="B56" s="29">
         <v>50</v>
@@ -18698,61 +18705,61 @@
         <f>VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C60:S76,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G56" s="232" t="e">
+      <c r="G56" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H56" s="233" t="e">
+      <c r="H56" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I56" s="232" t="e">
+      <c r="I56" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="J56" s="233" t="e">
+      <c r="J56" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-EWMA'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K56" s="232" t="e">
+      <c r="K56" s="146" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,18,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="L56" s="233" t="e">
+      <c r="L56" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0)=0, "  ",VLOOKUP(C:C,'檢核表(ETF類)-MAX'!C:T,9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M56" s="233" t="e">
+      <c r="M56" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,10,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N56" s="233" t="e">
+      <c r="N56" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,11,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O56" s="233" t="e">
+      <c r="O56" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,13,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P56" s="233" t="e">
+      <c r="P56" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,14,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="Q56" s="233" t="e">
+      <c r="Q56" s="147" t="e">
         <f>IF(VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0)=0, " ",VLOOKUP(C:C,'檢核表(ETF類)-SMA'!C:T,15,0))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="B57" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="1:17" ht="16.3" customHeight="1">
+    <row r="58" spans="1:17" ht="16.350000000000001" customHeight="1">
       <c r="B58" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -18770,9 +18777,9 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
     </row>
-    <row r="59" spans="1:17" ht="16.3" customHeight="1">
+    <row r="59" spans="1:17" ht="16.350000000000001" customHeight="1">
       <c r="B59" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -18792,10 +18799,10 @@
     </row>
     <row r="62" spans="1:17">
       <c r="B62" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>329</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -18803,7 +18810,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -18811,7 +18818,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -18856,36 +18863,36 @@
       <selection activeCell="B29" sqref="B29:S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="0.125" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="17" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="3" customWidth="1"/>
     <col min="15" max="15" width="8" style="3" customWidth="1"/>
-    <col min="16" max="17" width="13.88671875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" style="3" customWidth="1"/>
+    <col min="16" max="17" width="13.875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="3" customWidth="1"/>
     <col min="19" max="19" width="10" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" customWidth="1"/>
+    <col min="20" max="20" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="P1" s="197" t="s">
+      <c r="P1" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
     </row>
     <row r="2" spans="1:20">
       <c r="B2" s="3" t="s">
@@ -18994,112 +19001,112 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="20.2" customHeight="1">
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="178" t="s">
+      <c r="E8" s="181" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="203" t="s">
+      <c r="G8" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="202" t="s">
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202" t="s">
+      <c r="M8" s="198"/>
+      <c r="N8" s="198"/>
+      <c r="O8" s="198"/>
+      <c r="P8" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-    </row>
-    <row r="9" spans="1:20" ht="22.55" customHeight="1">
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="178" t="s">
+      <c r="Q8" s="198"/>
+      <c r="R8" s="198"/>
+      <c r="S8" s="198"/>
+    </row>
+    <row r="9" spans="1:20" ht="22.5" customHeight="1">
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="193" t="s">
+      <c r="G9" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="195" t="s">
+      <c r="H9" s="199"/>
+      <c r="I9" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="193" t="s">
+      <c r="J9" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="206" t="s">
+      <c r="K9" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="198" t="s">
+      <c r="L9" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="199"/>
-      <c r="N9" s="193" t="s">
+      <c r="M9" s="195"/>
+      <c r="N9" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="193" t="s">
+      <c r="O9" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="192" t="s">
+      <c r="P9" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="194" t="s">
+      <c r="Q9" s="199"/>
+      <c r="R9" s="203" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="194" t="s">
+      <c r="S9" s="203" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="54" customHeight="1">
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
       <c r="G10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="196"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="206"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="199"/>
+      <c r="O10" s="199"/>
       <c r="P10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="194"/>
-      <c r="S10" s="194"/>
+      <c r="R10" s="203"/>
+      <c r="S10" s="203"/>
       <c r="T10" s="123" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="15" customFormat="1">
@@ -19510,7 +19517,7 @@
       <c r="S27" s="13"/>
       <c r="T27" s="125"/>
     </row>
-    <row r="28" spans="1:20" ht="23.95" customHeight="1">
+    <row r="28" spans="1:20" ht="24" customHeight="1">
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
@@ -19522,52 +19529,62 @@
       <c r="H28" s="16"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:20" ht="29.3" customHeight="1">
-      <c r="B29" s="190" t="s">
+    <row r="29" spans="1:20" ht="29.25" customHeight="1">
+      <c r="B29" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="191"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="206"/>
+      <c r="L29" s="206"/>
+      <c r="M29" s="206"/>
+      <c r="N29" s="206"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="206"/>
+      <c r="Q29" s="206"/>
+      <c r="R29" s="206"/>
+      <c r="S29" s="206"/>
     </row>
     <row r="30" spans="1:20" ht="28.5" customHeight="1">
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="191"/>
-      <c r="G30" s="191"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="191"/>
-      <c r="O30" s="191"/>
-      <c r="P30" s="191"/>
-      <c r="Q30" s="191"/>
-      <c r="R30" s="191"/>
-      <c r="S30" s="191"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="206"/>
+      <c r="L30" s="206"/>
+      <c r="M30" s="206"/>
+      <c r="N30" s="206"/>
+      <c r="O30" s="206"/>
+      <c r="P30" s="206"/>
+      <c r="Q30" s="206"/>
+      <c r="R30" s="206"/>
+      <c r="S30" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B30:S30"/>
+    <mergeCell ref="B29:S29"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="L9:M10"/>
     <mergeCell ref="L8:O8"/>
@@ -19579,16 +19596,6 @@
     <mergeCell ref="P8:S8"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B30:S30"/>
-    <mergeCell ref="B29:S29"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -19613,36 +19620,36 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="0.125" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="17" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="3" customWidth="1"/>
     <col min="15" max="15" width="8" style="3" customWidth="1"/>
-    <col min="16" max="17" width="13.88671875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" style="3" customWidth="1"/>
+    <col min="16" max="17" width="13.875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="3" customWidth="1"/>
     <col min="19" max="19" width="10" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" customWidth="1"/>
+    <col min="20" max="20" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="P1" s="197" t="s">
+      <c r="P1" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
     </row>
     <row r="2" spans="1:20">
       <c r="B2" s="3" t="s">
@@ -19751,112 +19758,112 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="20.2" customHeight="1">
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="178" t="s">
+      <c r="E8" s="181" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="144"/>
-      <c r="G8" s="203" t="s">
+      <c r="G8" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="202" t="s">
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202" t="s">
+      <c r="M8" s="198"/>
+      <c r="N8" s="198"/>
+      <c r="O8" s="198"/>
+      <c r="P8" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-    </row>
-    <row r="9" spans="1:20" ht="22.55" customHeight="1">
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="178" t="s">
+      <c r="Q8" s="198"/>
+      <c r="R8" s="198"/>
+      <c r="S8" s="198"/>
+    </row>
+    <row r="9" spans="1:20" ht="22.5" customHeight="1">
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="193" t="s">
+      <c r="G9" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="195" t="s">
+      <c r="H9" s="199"/>
+      <c r="I9" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="193" t="s">
+      <c r="J9" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="206" t="s">
+      <c r="K9" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="198" t="s">
+      <c r="L9" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="199"/>
-      <c r="N9" s="193" t="s">
+      <c r="M9" s="195"/>
+      <c r="N9" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="193" t="s">
+      <c r="O9" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="192" t="s">
+      <c r="P9" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="194" t="s">
+      <c r="Q9" s="199"/>
+      <c r="R9" s="203" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="194" t="s">
+      <c r="S9" s="203" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="54" customHeight="1">
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
       <c r="G10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="196"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="206"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="199"/>
+      <c r="O10" s="199"/>
       <c r="P10" s="143" t="s">
         <v>41</v>
       </c>
       <c r="Q10" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="194"/>
-      <c r="S10" s="194"/>
+      <c r="R10" s="203"/>
+      <c r="S10" s="203"/>
       <c r="T10" s="123" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="15" customFormat="1">
@@ -20267,7 +20274,7 @@
       <c r="S27" s="13"/>
       <c r="T27" s="125"/>
     </row>
-    <row r="28" spans="1:20" ht="23.95" customHeight="1">
+    <row r="28" spans="1:20" ht="24" customHeight="1">
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
@@ -20279,52 +20286,62 @@
       <c r="H28" s="16"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:20" ht="29.3" customHeight="1">
-      <c r="B29" s="190" t="s">
+    <row r="29" spans="1:20" ht="29.25" customHeight="1">
+      <c r="B29" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="191"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="206"/>
+      <c r="L29" s="206"/>
+      <c r="M29" s="206"/>
+      <c r="N29" s="206"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="206"/>
+      <c r="Q29" s="206"/>
+      <c r="R29" s="206"/>
+      <c r="S29" s="206"/>
     </row>
     <row r="30" spans="1:20" ht="28.5" customHeight="1">
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="191"/>
-      <c r="G30" s="191"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="191"/>
-      <c r="O30" s="191"/>
-      <c r="P30" s="191"/>
-      <c r="Q30" s="191"/>
-      <c r="R30" s="191"/>
-      <c r="S30" s="191"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="206"/>
+      <c r="L30" s="206"/>
+      <c r="M30" s="206"/>
+      <c r="N30" s="206"/>
+      <c r="O30" s="206"/>
+      <c r="P30" s="206"/>
+      <c r="Q30" s="206"/>
+      <c r="R30" s="206"/>
+      <c r="S30" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
@@ -20336,16 +20353,6 @@
     <mergeCell ref="L9:M10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -20370,36 +20377,36 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="0.125" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="17" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="3" customWidth="1"/>
     <col min="15" max="15" width="8" style="3" customWidth="1"/>
-    <col min="16" max="17" width="13.88671875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" style="3" customWidth="1"/>
+    <col min="16" max="17" width="13.875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="3" customWidth="1"/>
     <col min="19" max="19" width="10" style="3" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" customWidth="1"/>
+    <col min="20" max="20" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="P1" s="197" t="s">
+      <c r="P1" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
     </row>
     <row r="2" spans="1:20">
       <c r="B2" s="3" t="s">
@@ -20508,112 +20515,112 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="20.2" customHeight="1">
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="178" t="s">
+      <c r="E8" s="181" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="104"/>
-      <c r="G8" s="203" t="s">
+      <c r="G8" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="202" t="s">
+      <c r="H8" s="201"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202" t="s">
+      <c r="M8" s="198"/>
+      <c r="N8" s="198"/>
+      <c r="O8" s="198"/>
+      <c r="P8" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-    </row>
-    <row r="9" spans="1:20" ht="22.55" customHeight="1">
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="178" t="s">
+      <c r="Q8" s="198"/>
+      <c r="R8" s="198"/>
+      <c r="S8" s="198"/>
+    </row>
+    <row r="9" spans="1:20" ht="22.5" customHeight="1">
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="193" t="s">
+      <c r="G9" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="195" t="s">
+      <c r="H9" s="199"/>
+      <c r="I9" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="193" t="s">
+      <c r="J9" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="206" t="s">
+      <c r="K9" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="198" t="s">
+      <c r="L9" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="199"/>
-      <c r="N9" s="193" t="s">
+      <c r="M9" s="195"/>
+      <c r="N9" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="193" t="s">
+      <c r="O9" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="192" t="s">
+      <c r="P9" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="194" t="s">
+      <c r="Q9" s="199"/>
+      <c r="R9" s="203" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="194" t="s">
+      <c r="S9" s="203" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="54" customHeight="1">
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
       <c r="G10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="196"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="206"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="199"/>
+      <c r="O10" s="199"/>
       <c r="P10" s="103" t="s">
         <v>41</v>
       </c>
       <c r="Q10" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="194"/>
-      <c r="S10" s="194"/>
+      <c r="R10" s="203"/>
+      <c r="S10" s="203"/>
       <c r="T10" s="123" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="15" customFormat="1">
@@ -21024,7 +21031,7 @@
       <c r="S27" s="13"/>
       <c r="T27" s="125"/>
     </row>
-    <row r="28" spans="1:20" ht="23.95" customHeight="1">
+    <row r="28" spans="1:20" ht="24" customHeight="1">
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
@@ -21036,60 +21043,52 @@
       <c r="H28" s="16"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:20" ht="29.3" customHeight="1">
-      <c r="B29" s="190" t="s">
+    <row r="29" spans="1:20" ht="29.25" customHeight="1">
+      <c r="B29" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="191"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="206"/>
+      <c r="L29" s="206"/>
+      <c r="M29" s="206"/>
+      <c r="N29" s="206"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="206"/>
+      <c r="Q29" s="206"/>
+      <c r="R29" s="206"/>
+      <c r="S29" s="206"/>
     </row>
     <row r="30" spans="1:20" ht="28.5" customHeight="1">
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="191"/>
-      <c r="G30" s="191"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="191"/>
-      <c r="O30" s="191"/>
-      <c r="P30" s="191"/>
-      <c r="Q30" s="191"/>
-      <c r="R30" s="191"/>
-      <c r="S30" s="191"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="206"/>
+      <c r="L30" s="206"/>
+      <c r="M30" s="206"/>
+      <c r="N30" s="206"/>
+      <c r="O30" s="206"/>
+      <c r="P30" s="206"/>
+      <c r="Q30" s="206"/>
+      <c r="R30" s="206"/>
+      <c r="S30" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B29:S29"/>
-    <mergeCell ref="B30:S30"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
@@ -21103,6 +21102,14 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B29:S29"/>
+    <mergeCell ref="B30:S30"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -21127,24 +21134,24 @@
       <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.65"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="11" customWidth="1"/>
-    <col min="13" max="14" width="10.88671875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="17" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="33"/>
+    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="11" customWidth="1"/>
+    <col min="13" max="14" width="10.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="17" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="17" customFormat="1">
@@ -21157,7 +21164,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:16" s="17" customFormat="1" ht="16.3">
+    <row r="2" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A2" s="2"/>
       <c r="B2" s="17" t="s">
         <v>45</v>
@@ -21170,12 +21177,12 @@
       <c r="L2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="213">
+      <c r="M2" s="210">
         <v>43608</v>
       </c>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="212"/>
     </row>
     <row r="3" spans="1:16" s="17" customFormat="1">
       <c r="A3" s="2"/>
@@ -21196,42 +21203,42 @@
     </row>
     <row r="4" spans="1:16" s="17" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="202"/>
-      <c r="C4" s="216" t="s">
+      <c r="B4" s="198"/>
+      <c r="C4" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="206" t="s">
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="204" t="s">
         <v>48</v>
       </c>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" s="17" customFormat="1" ht="16.45" customHeight="1">
+    <row r="5" spans="1:16" s="17" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="219" t="s">
+      <c r="B5" s="198"/>
+      <c r="C5" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="219" t="s">
+      <c r="D5" s="217"/>
+      <c r="E5" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="219" t="s">
+      <c r="F5" s="217"/>
+      <c r="G5" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="220"/>
-      <c r="I5" s="219" t="s">
+      <c r="H5" s="217"/>
+      <c r="I5" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="220"/>
-      <c r="K5" s="206"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="204"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" s="17" customFormat="1" ht="16.149999999999999" customHeight="1">
@@ -21239,14 +21246,14 @@
       <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="211"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="210"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="221"/>
       <c r="K6" s="6"/>
       <c r="P6" s="11"/>
     </row>
@@ -21255,14 +21262,14 @@
       <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="209"/>
-      <c r="J7" s="210"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="221"/>
       <c r="K7" s="6"/>
       <c r="P7" s="11"/>
     </row>
@@ -21271,14 +21278,14 @@
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="211"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="210"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="221"/>
       <c r="K8" s="6"/>
       <c r="P8" s="11"/>
     </row>
@@ -21287,14 +21294,14 @@
       <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="211"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="210"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="221"/>
       <c r="K9" s="6"/>
       <c r="P9" s="11"/>
     </row>
@@ -21303,14 +21310,14 @@
       <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="211"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="210"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="221"/>
       <c r="K10" s="6"/>
       <c r="P10" s="11"/>
     </row>
@@ -21319,14 +21326,14 @@
       <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="210"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="220"/>
+      <c r="J11" s="221"/>
       <c r="K11" s="6"/>
       <c r="P11" s="11"/>
     </row>
@@ -21335,14 +21342,14 @@
       <c r="B12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="211"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="210"/>
+      <c r="C12" s="218"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="218"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="221"/>
       <c r="K12" s="6"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -21355,14 +21362,14 @@
       <c r="B13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="210"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="210"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="221"/>
       <c r="K13" s="6"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -21375,14 +21382,14 @@
       <c r="B14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="211"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="210"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="220"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="221"/>
       <c r="K14" s="6"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -21395,14 +21402,14 @@
       <c r="B15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="211"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="209"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="210"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="221"/>
       <c r="K15" s="6"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -21555,7 +21562,7 @@
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" hidden="1"/>
-    <row r="25" spans="1:16" s="17" customFormat="1" ht="16.3">
+    <row r="25" spans="1:16" s="17" customFormat="1" ht="16.5">
       <c r="A25" s="2"/>
       <c r="B25" s="17" t="s">
         <v>54</v>
@@ -21570,69 +21577,69 @@
     </row>
     <row r="27" spans="1:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="207" t="s">
+      <c r="B27" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="207" t="s">
+      <c r="C27" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="206" t="s">
+      <c r="D27" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="207" t="s">
+      <c r="E27" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="206" t="s">
+      <c r="F27" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="207" t="s">
+      <c r="G27" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="206" t="s">
+      <c r="H27" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="207" t="s">
+      <c r="I27" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="206" t="s">
+      <c r="J27" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="207" t="s">
+      <c r="K27" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="L27" s="206" t="s">
+      <c r="L27" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="M27" s="148" t="s">
+      <c r="M27" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="N27" s="206" t="s">
+      <c r="N27" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="148" t="s">
+      <c r="O27" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="P27" s="206" t="s">
+      <c r="P27" s="204" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="208"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="149"/>
-      <c r="N28" s="206"/>
-      <c r="O28" s="149"/>
-      <c r="P28" s="206"/>
+      <c r="B28" s="223"/>
+      <c r="C28" s="223"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="223"/>
+      <c r="L28" s="204"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="204"/>
     </row>
     <row r="29" spans="1:16" s="3" customFormat="1">
       <c r="A29" s="2"/>
@@ -21754,7 +21761,7 @@
       <c r="O34" s="35"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="16.3">
+    <row r="35" spans="1:16" ht="16.5">
       <c r="B35" s="3" t="s">
         <v>58</v>
       </c>
@@ -21763,36 +21770,36 @@
         <v>達得調整標準之天數自2014年12月1日起計算。</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.3">
+    <row r="36" spans="1:16" ht="16.5">
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="B37" s="207" t="s">
+      <c r="B37" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="207" t="s">
+      <c r="C37" s="222" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="206" t="s">
+      <c r="D37" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="207" t="s">
+      <c r="F37" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="148" t="s">
+      <c r="G37" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="H37" s="206" t="s">
+      <c r="H37" s="204" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="B38" s="208"/>
-      <c r="C38" s="208"/>
-      <c r="D38" s="206"/>
-      <c r="F38" s="208"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="206"/>
+      <c r="B38" s="223"/>
+      <c r="C38" s="223"/>
+      <c r="D38" s="204"/>
+      <c r="F38" s="223"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="204"/>
     </row>
     <row r="39" spans="1:16">
       <c r="B39" s="7" t="s">
@@ -21818,36 +21825,29 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -21864,34 +21864,41 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.42" right="0.43" top="0.9055118110236221" bottom="0.31496062992125984" header="0.46" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"標楷體,標準"&amp;20SPAN參數檔檢核結果&amp;R
 </oddHeader>

--- a/PhoenixCI/Excel_Template/40040.xlsx
+++ b/PhoenixCI/Excel_Template/40040.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\調整版本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandylo\Desktop\Update Source\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7964"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="保證金調整檢核表" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">保證金調整檢核表!$4:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'保證金調整檢核表(ETF_ETC類)'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1927,7 +1927,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2407,18 +2407,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2437,23 +2455,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2470,53 +2473,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2828,35 +2828,35 @@
   </sheetPr>
   <dimension ref="B1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.65"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="40" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="65" customWidth="1"/>
-    <col min="3" max="6" width="12.33203125" style="48" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="49" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="65" customWidth="1"/>
+    <col min="3" max="6" width="12.375" style="48" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="40" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="49" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="49" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="48" customWidth="1"/>
     <col min="11" max="11" width="8" style="40" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" style="40" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="40" customWidth="1"/>
     <col min="13" max="13" width="15" style="40" customWidth="1"/>
-    <col min="14" max="16" width="11.109375" style="40" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="40" customWidth="1"/>
+    <col min="14" max="16" width="11.125" style="40" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="40" customWidth="1"/>
     <col min="18" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-    </row>
-    <row r="2" spans="2:17" ht="6.75" customHeight="1"/>
-    <row r="3" spans="2:17" ht="16.3">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+    </row>
+    <row r="2" spans="2:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="74" t="s">
         <v>85</v>
       </c>
@@ -2864,34 +2864,34 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="20.2" customHeight="1">
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+    <row r="4" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="87"/>
+      <c r="C4" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="76" t="s">
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="79" t="s">
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="80"/>
-      <c r="N4" s="76" t="s">
+      <c r="M4" s="86"/>
+      <c r="N4" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-    </row>
-    <row r="5" spans="2:17" ht="34.450000000000003" customHeight="1">
-      <c r="B5" s="81"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+    </row>
+    <row r="5" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="87"/>
       <c r="C5" s="77" t="s">
         <v>86</v>
       </c>
@@ -2911,10 +2911,10 @@
       <c r="K5" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="85" t="s">
+      <c r="M5" s="79" t="s">
         <v>102</v>
       </c>
       <c r="N5" s="77" t="s">
@@ -2924,8 +2924,8 @@
       <c r="P5" s="78"/>
       <c r="Q5" s="78"/>
     </row>
-    <row r="6" spans="2:17" ht="43.85" customHeight="1">
-      <c r="B6" s="81"/>
+    <row r="6" spans="2:17" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="87"/>
       <c r="C6" s="63" t="s">
         <v>89</v>
       </c>
@@ -2951,8 +2951,8 @@
         <v>97</v>
       </c>
       <c r="K6" s="78"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
       <c r="N6" s="72" t="s">
         <v>111</v>
       </c>
@@ -2966,14 +2966,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="33" customFormat="1">
+    <row r="7" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="64"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="31"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -2988,14 +2988,14 @@
       </c>
       <c r="Q7" s="32"/>
     </row>
-    <row r="8" spans="2:17" s="33" customFormat="1">
+    <row r="8" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="64"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="31"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -3008,14 +3008,14 @@
       <c r="P8" s="64"/>
       <c r="Q8" s="32"/>
     </row>
-    <row r="9" spans="2:17" s="33" customFormat="1">
+    <row r="9" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="66" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="64"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="31"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -3028,14 +3028,14 @@
       <c r="P9" s="64"/>
       <c r="Q9" s="32"/>
     </row>
-    <row r="10" spans="2:17" s="33" customFormat="1">
+    <row r="10" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="66" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="64"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="31"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -3048,14 +3048,14 @@
       <c r="P10" s="64"/>
       <c r="Q10" s="32"/>
     </row>
-    <row r="11" spans="2:17" s="33" customFormat="1">
+    <row r="11" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="66" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="64"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="31"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -3068,14 +3068,14 @@
       <c r="P11" s="64"/>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="2:17" s="33" customFormat="1">
+    <row r="12" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="64"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="31"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -3088,14 +3088,14 @@
       <c r="P12" s="64"/>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="2:17" s="33" customFormat="1">
+    <row r="13" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="64"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="31"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -3108,14 +3108,14 @@
       <c r="P13" s="64"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="2:17" s="33" customFormat="1">
+    <row r="14" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="64"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="31"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -3128,14 +3128,14 @@
       <c r="P14" s="64"/>
       <c r="Q14" s="32"/>
     </row>
-    <row r="15" spans="2:17" s="33" customFormat="1" ht="15.65" hidden="1" customHeight="1">
+    <row r="15" spans="2:17" s="33" customFormat="1" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="66" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="64"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="31"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
@@ -3148,14 +3148,14 @@
       <c r="P15" s="64"/>
       <c r="Q15" s="32"/>
     </row>
-    <row r="16" spans="2:17" s="33" customFormat="1">
+    <row r="16" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="64"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="31"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
@@ -3168,14 +3168,14 @@
       <c r="P16" s="64"/>
       <c r="Q16" s="32"/>
     </row>
-    <row r="17" spans="2:17" s="33" customFormat="1">
+    <row r="17" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="66" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="64"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="31"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
@@ -3188,14 +3188,14 @@
       <c r="P17" s="64"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="2:17" s="36" customFormat="1">
+    <row r="18" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="67" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="47"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
@@ -3208,14 +3208,14 @@
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
     </row>
-    <row r="19" spans="2:17" s="36" customFormat="1">
+    <row r="19" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="66" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="47"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -3228,14 +3228,14 @@
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="2:17" s="36" customFormat="1">
+    <row r="20" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="66" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="47"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
@@ -3248,14 +3248,14 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="2:17" s="36" customFormat="1" ht="15.65" hidden="1" customHeight="1">
+    <row r="21" spans="2:17" s="36" customFormat="1" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="66" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="47"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
@@ -3268,14 +3268,14 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="2:17" s="36" customFormat="1">
+    <row r="22" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="66" t="s">
         <v>81</v>
       </c>
       <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="47"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
@@ -3288,14 +3288,14 @@
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="2:17" s="33" customFormat="1">
+    <row r="23" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="66" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="64"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="31"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -3308,14 +3308,14 @@
       <c r="P23" s="64"/>
       <c r="Q23" s="32"/>
     </row>
-    <row r="24" spans="2:17" s="33" customFormat="1">
+    <row r="24" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="66" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="64"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="31"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
@@ -3328,14 +3328,14 @@
       <c r="P24" s="64"/>
       <c r="Q24" s="32"/>
     </row>
-    <row r="25" spans="2:17" s="36" customFormat="1">
+    <row r="25" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="67" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="47"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
@@ -3348,14 +3348,14 @@
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
     </row>
-    <row r="26" spans="2:17" s="36" customFormat="1">
+    <row r="26" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="67" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="47"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
@@ -3368,14 +3368,14 @@
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
     </row>
-    <row r="27" spans="2:17" s="33" customFormat="1">
+    <row r="27" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="68" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="64"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="31"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
@@ -3388,14 +3388,14 @@
       <c r="P27" s="64"/>
       <c r="Q27" s="32"/>
     </row>
-    <row r="28" spans="2:17" s="33" customFormat="1">
+    <row r="28" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="68" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="64"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="31"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
@@ -3408,14 +3408,14 @@
       <c r="P28" s="64"/>
       <c r="Q28" s="32"/>
     </row>
-    <row r="29" spans="2:17" s="33" customFormat="1">
+    <row r="29" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="64"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="31"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
@@ -3428,14 +3428,14 @@
       <c r="P29" s="64"/>
       <c r="Q29" s="32"/>
     </row>
-    <row r="30" spans="2:17" s="62" customFormat="1">
+    <row r="30" spans="2:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="66" t="s">
         <v>90</v>
       </c>
       <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="59"/>
       <c r="H30" s="61"/>
       <c r="I30" s="61"/>
@@ -3448,14 +3448,14 @@
       <c r="P30" s="64"/>
       <c r="Q30" s="64"/>
     </row>
-    <row r="31" spans="2:17" s="33" customFormat="1">
+    <row r="31" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="64"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="31"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
@@ -3468,14 +3468,14 @@
       <c r="P31" s="64"/>
       <c r="Q31" s="32"/>
     </row>
-    <row r="32" spans="2:17" s="62" customFormat="1">
+    <row r="32" spans="2:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="66" t="s">
         <v>91</v>
       </c>
       <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="59"/>
       <c r="H32" s="61"/>
       <c r="I32" s="61"/>
@@ -3488,14 +3488,14 @@
       <c r="P32" s="64"/>
       <c r="Q32" s="64"/>
     </row>
-    <row r="33" spans="2:17" s="33" customFormat="1">
+    <row r="33" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="66" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="64"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="31"/>
       <c r="H33" s="34"/>
       <c r="I33" s="34"/>
@@ -3508,14 +3508,14 @@
       <c r="P33" s="64"/>
       <c r="Q33" s="32"/>
     </row>
-    <row r="34" spans="2:17" s="62" customFormat="1">
+    <row r="34" spans="2:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="66" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="59"/>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
@@ -3528,14 +3528,14 @@
       <c r="P34" s="64"/>
       <c r="Q34" s="64"/>
     </row>
-    <row r="35" spans="2:17" s="33" customFormat="1">
+    <row r="35" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="66" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="64"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="31"/>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
@@ -3548,14 +3548,14 @@
       <c r="P35" s="64"/>
       <c r="Q35" s="32"/>
     </row>
-    <row r="36" spans="2:17" s="62" customFormat="1">
+    <row r="36" spans="2:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="66" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="59"/>
       <c r="H36" s="61"/>
       <c r="I36" s="61"/>
@@ -3568,14 +3568,14 @@
       <c r="P36" s="64"/>
       <c r="Q36" s="64"/>
     </row>
-    <row r="37" spans="2:17" s="33" customFormat="1">
+    <row r="37" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="66" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="64"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="31"/>
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
@@ -3588,14 +3588,14 @@
       <c r="P37" s="64"/>
       <c r="Q37" s="32"/>
     </row>
-    <row r="38" spans="2:17" s="62" customFormat="1">
+    <row r="38" spans="2:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="66" t="s">
         <v>94</v>
       </c>
       <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
+      <c r="D38" s="61"/>
       <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="59"/>
       <c r="H38" s="61"/>
       <c r="I38" s="61"/>
@@ -3608,14 +3608,14 @@
       <c r="P38" s="64"/>
       <c r="Q38" s="64"/>
     </row>
-    <row r="39" spans="2:17" s="33" customFormat="1">
+    <row r="39" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="66" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="64"/>
+      <c r="F39" s="61"/>
       <c r="G39" s="31"/>
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
@@ -3628,14 +3628,14 @@
       <c r="P39" s="64"/>
       <c r="Q39" s="32"/>
     </row>
-    <row r="40" spans="2:17" s="33" customFormat="1">
+    <row r="40" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="66" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="D40" s="61"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="64"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="31"/>
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
@@ -3648,14 +3648,14 @@
       <c r="P40" s="64"/>
       <c r="Q40" s="32"/>
     </row>
-    <row r="41" spans="2:17" s="33" customFormat="1">
+    <row r="41" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="66" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="64"/>
+      <c r="F41" s="61"/>
       <c r="G41" s="31"/>
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
@@ -3668,38 +3668,38 @@
       <c r="P41" s="64"/>
       <c r="Q41" s="32"/>
     </row>
-    <row r="42" spans="2:17" ht="16.3">
+    <row r="42" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B42" s="60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="16.3">
-      <c r="B43" s="89" t="s">
+    <row r="43" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="90"/>
-    </row>
-    <row r="44" spans="2:17" ht="16.3">
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+    </row>
+    <row r="44" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="60" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="16.3">
+    <row r="45" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="60" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="16.3">
+    <row r="48" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="74" t="s">
         <v>84</v>
       </c>
@@ -3707,24 +3707,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="73">
         <v>1</v>
       </c>
-      <c r="C49" s="87" t="s">
+      <c r="C49" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-    </row>
-    <row r="50" spans="2:12" ht="16.3">
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+    </row>
+    <row r="50" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="73">
         <v>2</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="I50" s="42"/>
       <c r="J50" s="41"/>
     </row>
-    <row r="51" spans="2:12" ht="16.3">
+    <row r="51" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="73">
         <v>3</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="I51" s="42"/>
       <c r="J51" s="41"/>
     </row>
-    <row r="52" spans="2:12" ht="16.3">
+    <row r="52" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="69"/>
       <c r="C52" s="18" t="s">
         <v>9</v>
@@ -3767,7 +3767,7 @@
       <c r="I52" s="42"/>
       <c r="J52" s="41"/>
     </row>
-    <row r="53" spans="2:12" ht="16.3">
+    <row r="53" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="69"/>
       <c r="C53" s="41" t="s">
         <v>61</v>
@@ -3780,7 +3780,7 @@
       <c r="I53" s="42"/>
       <c r="J53" s="41"/>
     </row>
-    <row r="54" spans="2:12" ht="16.3">
+    <row r="54" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="69"/>
       <c r="C54" s="18" t="s">
         <v>44</v>
@@ -3793,7 +3793,7 @@
       <c r="I54" s="42"/>
       <c r="J54" s="41"/>
     </row>
-    <row r="55" spans="2:12" ht="16.3">
+    <row r="55" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="69"/>
       <c r="C55" s="18" t="s">
         <v>50</v>
@@ -3806,7 +3806,7 @@
       <c r="I55" s="42"/>
       <c r="J55" s="41"/>
     </row>
-    <row r="56" spans="2:12" ht="16.3">
+    <row r="56" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="69"/>
       <c r="C56" s="18" t="s">
         <v>79</v>
@@ -3819,7 +3819,7 @@
       <c r="I56" s="42"/>
       <c r="J56" s="41"/>
     </row>
-    <row r="57" spans="2:12" s="28" customFormat="1" ht="16.3">
+    <row r="57" spans="2:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B57" s="70"/>
       <c r="C57" s="56" t="s">
         <v>74</v>
@@ -3832,7 +3832,7 @@
       <c r="I57" s="58"/>
       <c r="J57" s="57"/>
     </row>
-    <row r="58" spans="2:12" s="52" customFormat="1" ht="16.3">
+    <row r="58" spans="2:12" s="52" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B58" s="71"/>
       <c r="C58" s="18" t="s">
         <v>82</v>
@@ -3845,7 +3845,7 @@
       <c r="I58" s="55"/>
       <c r="J58" s="54"/>
     </row>
-    <row r="59" spans="2:12" ht="16.3">
+    <row r="59" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B59" s="69"/>
       <c r="C59" s="18" t="s">
         <v>83</v>
@@ -3858,7 +3858,7 @@
       <c r="I59" s="42"/>
       <c r="J59" s="41"/>
     </row>
-    <row r="60" spans="2:12" ht="16.3">
+    <row r="60" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B60" s="69"/>
       <c r="C60" s="41" t="s">
         <v>62</v>
@@ -3871,29 +3871,21 @@
       <c r="I60" s="42"/>
       <c r="J60" s="41"/>
     </row>
-    <row r="61" spans="2:12">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="69"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C49:L49"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B43:M43"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="N5:Q5"/>
@@ -3903,6 +3895,14 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3920,37 +3920,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="10" customWidth="1"/>
-    <col min="9" max="10" width="10.109375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="16" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="0.125" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="10" customWidth="1"/>
+    <col min="9" max="10" width="10.125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="16" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="16" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="10" customWidth="1"/>
     <col min="15" max="15" width="8" style="3" customWidth="1"/>
-    <col min="16" max="17" width="13.88671875" style="3" customWidth="1"/>
+    <col min="16" max="17" width="13.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="P1" s="96" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P1" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="96"/>
-    </row>
-    <row r="2" spans="1:17" ht="6.75" customHeight="1"/>
-    <row r="3" spans="1:17" s="1" customFormat="1">
+      <c r="Q1" s="91"/>
+    </row>
+    <row r="2" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
@@ -3973,45 +3973,45 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="20.2" customHeight="1">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="94" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="76" t="s">
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
       <c r="P4" s="78" t="s">
         <v>65</v>
       </c>
       <c r="Q4" s="78"/>
     </row>
-    <row r="5" spans="1:17" ht="31.95" customHeight="1">
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="93" t="s">
+    <row r="5" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="94" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="77" t="s">
@@ -4033,19 +4033,19 @@
       <c r="O5" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="85" t="s">
+      <c r="P5" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="85" t="s">
+      <c r="Q5" s="79" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="54" customHeight="1">
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
+    <row r="6" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="63" t="s">
         <v>89</v>
       </c>
@@ -4071,10 +4071,10 @@
         <v>97</v>
       </c>
       <c r="O6" s="78"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-    </row>
-    <row r="7" spans="1:17" s="14" customFormat="1">
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+    </row>
+    <row r="7" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
@@ -4082,9 +4082,9 @@
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="12"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -4093,7 +4093,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17" s="14" customFormat="1">
+    <row r="8" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
@@ -4101,9 +4101,9 @@
       <c r="E8" s="25"/>
       <c r="F8" s="26"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="12"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -4112,7 +4112,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17" s="14" customFormat="1">
+    <row r="9" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
@@ -4120,9 +4120,9 @@
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="12"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
@@ -4131,7 +4131,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
     </row>
-    <row r="10" spans="1:17" s="14" customFormat="1">
+    <row r="10" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
@@ -4139,9 +4139,9 @@
       <c r="E10" s="25"/>
       <c r="F10" s="26"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="12"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -4150,7 +4150,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17" s="14" customFormat="1">
+    <row r="11" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
@@ -4158,9 +4158,9 @@
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="12"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -4169,7 +4169,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17" s="14" customFormat="1">
+    <row r="12" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -4177,9 +4177,9 @@
       <c r="E12" s="25"/>
       <c r="F12" s="26"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="12"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -4188,7 +4188,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
     </row>
-    <row r="13" spans="1:17" s="14" customFormat="1">
+    <row r="13" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -4196,9 +4196,9 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="12"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -4207,7 +4207,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="1:17" s="14" customFormat="1">
+    <row r="14" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -4215,9 +4215,9 @@
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="12"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -4226,7 +4226,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" s="14" customFormat="1">
+    <row r="15" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
@@ -4234,9 +4234,9 @@
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="12"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -4245,7 +4245,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17" s="14" customFormat="1">
+    <row r="16" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -4253,9 +4253,9 @@
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="12"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
@@ -4264,7 +4264,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" s="14" customFormat="1">
+    <row r="17" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -4272,9 +4272,9 @@
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="12"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -4283,7 +4283,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" s="14" customFormat="1">
+    <row r="18" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
@@ -4291,9 +4291,9 @@
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="12"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -4302,7 +4302,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" s="14" customFormat="1">
+    <row r="19" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -4310,9 +4310,9 @@
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="12"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
@@ -4321,7 +4321,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" s="14" customFormat="1">
+    <row r="20" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -4329,9 +4329,9 @@
       <c r="E20" s="25"/>
       <c r="F20" s="26"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
@@ -4340,7 +4340,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" s="14" customFormat="1">
+    <row r="21" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -4348,9 +4348,9 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
@@ -4359,7 +4359,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" s="14" customFormat="1">
+    <row r="22" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -4367,9 +4367,9 @@
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="12"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -4378,7 +4378,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" s="14" customFormat="1">
+    <row r="23" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -4386,9 +4386,9 @@
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="12"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -4397,7 +4397,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" s="14" customFormat="1">
+    <row r="24" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -4405,9 +4405,9 @@
       <c r="E24" s="25"/>
       <c r="F24" s="26"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="12"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -4416,7 +4416,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" s="14" customFormat="1">
+    <row r="25" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -4424,9 +4424,9 @@
       <c r="E25" s="25"/>
       <c r="F25" s="26"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="12"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
@@ -4435,7 +4435,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" s="14" customFormat="1">
+    <row r="26" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -4443,9 +4443,9 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="12"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -4454,7 +4454,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" s="14" customFormat="1">
+    <row r="27" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -4462,9 +4462,9 @@
       <c r="E27" s="25"/>
       <c r="F27" s="26"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="12"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
@@ -4473,7 +4473,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" s="14" customFormat="1">
+    <row r="28" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -4481,9 +4481,9 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="12"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
@@ -4492,7 +4492,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" s="14" customFormat="1">
+    <row r="29" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -4500,9 +4500,9 @@
       <c r="E29" s="25"/>
       <c r="F29" s="26"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="12"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
@@ -4511,7 +4511,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" s="14" customFormat="1">
+    <row r="30" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -4519,9 +4519,9 @@
       <c r="E30" s="25"/>
       <c r="F30" s="26"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="12"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
@@ -4530,7 +4530,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:17" s="14" customFormat="1">
+    <row r="31" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -4538,9 +4538,9 @@
       <c r="E31" s="25"/>
       <c r="F31" s="26"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="12"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
@@ -4549,7 +4549,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
     </row>
-    <row r="32" spans="1:17" s="14" customFormat="1">
+    <row r="32" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -4557,9 +4557,9 @@
       <c r="E32" s="25"/>
       <c r="F32" s="26"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="12"/>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
@@ -4568,7 +4568,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
     </row>
-    <row r="33" spans="1:17" s="14" customFormat="1">
+    <row r="33" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
@@ -4576,9 +4576,9 @@
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="12"/>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
@@ -4587,7 +4587,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
     </row>
-    <row r="34" spans="1:17" s="14" customFormat="1">
+    <row r="34" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -4595,9 +4595,9 @@
       <c r="E34" s="25"/>
       <c r="F34" s="26"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="12"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
@@ -4606,7 +4606,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
     </row>
-    <row r="35" spans="1:17" s="14" customFormat="1">
+    <row r="35" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -4614,9 +4614,9 @@
       <c r="E35" s="25"/>
       <c r="F35" s="26"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="12"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -4625,7 +4625,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
     </row>
-    <row r="36" spans="1:17" s="14" customFormat="1">
+    <row r="36" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -4633,9 +4633,9 @@
       <c r="E36" s="25"/>
       <c r="F36" s="26"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="12"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
@@ -4644,7 +4644,7 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
     </row>
-    <row r="37" spans="1:17" s="14" customFormat="1">
+    <row r="37" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -4652,9 +4652,9 @@
       <c r="E37" s="25"/>
       <c r="F37" s="26"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="J37" s="17"/>
       <c r="K37" s="12"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
@@ -4663,7 +4663,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
     </row>
-    <row r="38" spans="1:17" s="14" customFormat="1">
+    <row r="38" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -4671,9 +4671,9 @@
       <c r="E38" s="25"/>
       <c r="F38" s="26"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="12"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -4682,7 +4682,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
     </row>
-    <row r="39" spans="1:17" s="14" customFormat="1">
+    <row r="39" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
@@ -4690,9 +4690,9 @@
       <c r="E39" s="25"/>
       <c r="F39" s="26"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="12"/>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
@@ -4701,7 +4701,7 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:17" s="14" customFormat="1">
+    <row r="40" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -4709,9 +4709,9 @@
       <c r="E40" s="25"/>
       <c r="F40" s="26"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="J40" s="17"/>
       <c r="K40" s="12"/>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
@@ -4720,7 +4720,7 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
     </row>
-    <row r="41" spans="1:17" s="14" customFormat="1">
+    <row r="41" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
@@ -4728,9 +4728,9 @@
       <c r="E41" s="25"/>
       <c r="F41" s="26"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="J41" s="17"/>
       <c r="K41" s="12"/>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
@@ -4739,7 +4739,7 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
     </row>
-    <row r="42" spans="1:17" s="14" customFormat="1">
+    <row r="42" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
@@ -4747,9 +4747,9 @@
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="J42" s="17"/>
       <c r="K42" s="12"/>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
@@ -4758,7 +4758,7 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
     </row>
-    <row r="43" spans="1:17" s="14" customFormat="1">
+    <row r="43" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
@@ -4766,9 +4766,9 @@
       <c r="E43" s="25"/>
       <c r="F43" s="26"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+      <c r="J43" s="17"/>
       <c r="K43" s="12"/>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
@@ -4777,7 +4777,7 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
     </row>
-    <row r="44" spans="1:17" s="14" customFormat="1">
+    <row r="44" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
@@ -4785,9 +4785,9 @@
       <c r="E44" s="25"/>
       <c r="F44" s="26"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="J44" s="17"/>
       <c r="K44" s="12"/>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
@@ -4796,7 +4796,7 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
     </row>
-    <row r="45" spans="1:17" s="14" customFormat="1">
+    <row r="45" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
@@ -4804,9 +4804,9 @@
       <c r="E45" s="25"/>
       <c r="F45" s="26"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="H45" s="17"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="12"/>
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
@@ -4815,7 +4815,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:17" s="14" customFormat="1">
+    <row r="46" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
@@ -4823,9 +4823,9 @@
       <c r="E46" s="25"/>
       <c r="F46" s="26"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="12"/>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
@@ -4834,7 +4834,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
     </row>
-    <row r="47" spans="1:17" s="14" customFormat="1">
+    <row r="47" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
@@ -4842,9 +4842,9 @@
       <c r="E47" s="25"/>
       <c r="F47" s="26"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="12"/>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
@@ -4853,7 +4853,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="1:17" s="14" customFormat="1">
+    <row r="48" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
@@ -4861,9 +4861,9 @@
       <c r="E48" s="25"/>
       <c r="F48" s="26"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="12"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
@@ -4872,7 +4872,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:17" s="14" customFormat="1">
+    <row r="49" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
@@ -4880,9 +4880,9 @@
       <c r="E49" s="25"/>
       <c r="F49" s="26"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="H49" s="17"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+      <c r="J49" s="17"/>
       <c r="K49" s="12"/>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
@@ -4891,7 +4891,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:17" s="14" customFormat="1">
+    <row r="50" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
@@ -4899,9 +4899,9 @@
       <c r="E50" s="25"/>
       <c r="F50" s="26"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="H50" s="17"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+      <c r="J50" s="17"/>
       <c r="K50" s="12"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
@@ -4910,7 +4910,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="1:17" s="14" customFormat="1">
+    <row r="51" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
@@ -4918,9 +4918,9 @@
       <c r="E51" s="25"/>
       <c r="F51" s="26"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="H51" s="17"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
+      <c r="J51" s="17"/>
       <c r="K51" s="12"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
@@ -4929,7 +4929,7 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
     </row>
-    <row r="52" spans="1:17" s="14" customFormat="1">
+    <row r="52" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
@@ -4937,9 +4937,9 @@
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="J52" s="17"/>
       <c r="K52" s="12"/>
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>
@@ -4948,7 +4948,7 @@
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
     </row>
-    <row r="53" spans="1:17" s="14" customFormat="1">
+    <row r="53" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
@@ -4956,9 +4956,9 @@
       <c r="E53" s="25"/>
       <c r="F53" s="26"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="J53" s="17"/>
       <c r="K53" s="12"/>
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>
@@ -4967,7 +4967,7 @@
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
     </row>
-    <row r="54" spans="1:17" s="14" customFormat="1">
+    <row r="54" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
@@ -4975,9 +4975,9 @@
       <c r="E54" s="25"/>
       <c r="F54" s="26"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
+      <c r="H54" s="17"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="J54" s="17"/>
       <c r="K54" s="12"/>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
@@ -4986,7 +4986,7 @@
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="1:17" s="14" customFormat="1">
+    <row r="55" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
@@ -4994,9 +4994,9 @@
       <c r="E55" s="25"/>
       <c r="F55" s="26"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
+      <c r="J55" s="17"/>
       <c r="K55" s="12"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
@@ -5005,7 +5005,7 @@
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
     </row>
-    <row r="56" spans="1:17" s="14" customFormat="1">
+    <row r="56" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
@@ -5013,9 +5013,9 @@
       <c r="E56" s="25"/>
       <c r="F56" s="26"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="H56" s="17"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="J56" s="17"/>
       <c r="K56" s="12"/>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
@@ -5024,7 +5024,7 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>26</v>
       </c>
@@ -5037,47 +5037,47 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:17">
-      <c r="B58" s="91" t="s">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="92"/>
-      <c r="N58" s="92"/>
-      <c r="O58" s="92"/>
-      <c r="P58" s="92"/>
-      <c r="Q58" s="92"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="B59" s="91" t="s">
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="93"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="93"/>
+      <c r="N58" s="93"/>
+      <c r="O58" s="93"/>
+      <c r="P58" s="93"/>
+      <c r="Q58" s="93"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="92"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="92"/>
-      <c r="N59" s="92"/>
-      <c r="O59" s="92"/>
-      <c r="P59" s="92"/>
-      <c r="Q59" s="92"/>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="M59" s="93"/>
+      <c r="N59" s="93"/>
+      <c r="O59" s="93"/>
+      <c r="P59" s="93"/>
+      <c r="Q59" s="93"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>109</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B63" s="5">
         <v>1</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B64" s="5">
         <v>2</v>
       </c>
@@ -5103,6 +5103,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B59:Q59"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="O5:O6"/>
@@ -5114,13 +5121,6 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="B59:Q59"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5145,27 +5145,27 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.65"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="10" customWidth="1"/>
-    <col min="13" max="14" width="10.88671875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="16" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="28"/>
+    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="10" customWidth="1"/>
+    <col min="13" max="14" width="10.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="16" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1">
+    <row r="1" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -5175,7 +5175,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="16.3">
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="16" t="s">
         <v>27</v>
@@ -5188,12 +5188,12 @@
       <c r="L2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-    </row>
-    <row r="3" spans="1:16" s="16" customFormat="1">
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
+    </row>
+    <row r="3" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5210,155 +5210,155 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="99" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="10"/>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="16.45" customHeight="1">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="110" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="110" t="s">
+      <c r="D5" s="105"/>
+      <c r="E5" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="110" t="s">
+      <c r="F5" s="105"/>
+      <c r="G5" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="110" t="s">
+      <c r="H5" s="105"/>
+      <c r="I5" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="111"/>
-      <c r="K5" s="99"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="103"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1">
+    <row r="6" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="109"/>
       <c r="K6" s="6"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:16" s="16" customFormat="1">
+    <row r="7" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="109"/>
       <c r="K7" s="6"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:16" s="16" customFormat="1">
+    <row r="8" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="101"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="109"/>
       <c r="K8" s="6"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:16" s="16" customFormat="1">
+    <row r="9" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="109"/>
       <c r="K9" s="6"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:16" s="16" customFormat="1">
+    <row r="10" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
       <c r="K10" s="6"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:16" s="16" customFormat="1">
+    <row r="11" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
       <c r="K11" s="6"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="101"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
       <c r="K12" s="6"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -5366,19 +5366,19 @@
       <c r="O12" s="16"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1">
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="109"/>
       <c r="K13" s="6"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -5386,19 +5386,19 @@
       <c r="O13" s="16"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1">
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="101"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="109"/>
       <c r="K14" s="6"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -5406,19 +5406,19 @@
       <c r="O14" s="16"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1">
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="101"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="109"/>
       <c r="K15" s="6"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -5426,7 +5426,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1">
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="43"/>
       <c r="C16" s="44"/>
@@ -5444,7 +5444,7 @@
       <c r="O16" s="16"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" hidden="1">
+    <row r="17" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="43"/>
       <c r="C17" s="44"/>
@@ -5462,7 +5462,7 @@
       <c r="O17" s="16"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" hidden="1">
+    <row r="18" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="43"/>
       <c r="C18" s="44"/>
@@ -5480,7 +5480,7 @@
       <c r="O18" s="16"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" hidden="1">
+    <row r="19" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="43"/>
       <c r="C19" s="44"/>
@@ -5498,7 +5498,7 @@
       <c r="O19" s="16"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" hidden="1">
+    <row r="20" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="43"/>
       <c r="C20" s="44"/>
@@ -5516,7 +5516,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" hidden="1">
+    <row r="21" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="43"/>
       <c r="C21" s="44"/>
@@ -5534,7 +5534,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" hidden="1">
+    <row r="22" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="43"/>
       <c r="C22" s="44"/>
@@ -5552,7 +5552,7 @@
       <c r="O22" s="16"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" hidden="1">
+    <row r="23" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="43"/>
       <c r="C23" s="44"/>
@@ -5570,8 +5570,8 @@
       <c r="O23" s="16"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:16" hidden="1"/>
-    <row r="25" spans="1:16" s="16" customFormat="1" ht="16.3">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:16" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="16" t="s">
         <v>36</v>
@@ -5584,73 +5584,73 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
+    <row r="27" spans="1:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="99" t="s">
+      <c r="F27" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="97" t="s">
+      <c r="G27" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="99" t="s">
+      <c r="H27" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="97" t="s">
+      <c r="I27" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="99" t="s">
+      <c r="J27" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="97" t="s">
+      <c r="K27" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="99" t="s">
+      <c r="L27" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="85" t="s">
+      <c r="M27" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="99" t="s">
+      <c r="N27" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="85" t="s">
+      <c r="O27" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="99" t="s">
+      <c r="P27" s="103" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" ht="17.25" customHeight="1">
+    <row r="28" spans="1:16" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="99"/>
-    </row>
-    <row r="29" spans="1:16" s="3" customFormat="1">
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="103"/>
+    </row>
+    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="7" t="s">
         <v>0</v>
@@ -5670,7 +5670,7 @@
       <c r="O29" s="30"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1">
+    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="7" t="s">
         <v>1</v>
@@ -5690,7 +5690,7 @@
       <c r="O30" s="30"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1">
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="7" t="s">
         <v>2</v>
@@ -5710,7 +5710,7 @@
       <c r="O31" s="30"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1">
+    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="7" t="s">
         <v>38</v>
@@ -5730,7 +5730,7 @@
       <c r="O32" s="30"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1">
+    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="7" t="s">
         <v>39</v>
@@ -5750,7 +5750,7 @@
       <c r="O33" s="30"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1">
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="31" t="s">
         <v>43</v>
@@ -5770,7 +5770,7 @@
       <c r="O34" s="30"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="16.3">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
@@ -5779,38 +5779,38 @@
         <v>達得調整標準之天數自2014年12月1日起計算。</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.3">
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:16">
-      <c r="B37" s="97" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="97" t="s">
+      <c r="C37" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="99" t="s">
+      <c r="D37" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="97" t="s">
+      <c r="F37" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="85" t="s">
+      <c r="G37" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="99" t="s">
+      <c r="H37" s="103" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="99"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="99"/>
-    </row>
-    <row r="39" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="103"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="103"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>56</v>
       </c>
@@ -5822,48 +5822,41 @@
       <c r="G39" s="32"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F41" s="40"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F42" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -5880,29 +5873,36 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/PhoenixCI/Excel_Template/40040.xlsx
+++ b/PhoenixCI/Excel_Template/40040.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="保證金調整檢核表" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
   <si>
     <t>TX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1907,27 +1907,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>調整後原始保證金占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>國外同類商品原始保證金占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">調整後原始保證金占比
+SMA
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">調整後原始保證金占比
+EWMA
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">調整後原始保證金占比
+MAX
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2181,7 +2196,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2516,6 +2531,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2826,13 +2847,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q61"/>
+  <dimension ref="B1:S61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" activeCellId="2" sqref="D7:D41 F7:F41 H7:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="1" style="40" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="65" customWidth="1"/>
@@ -2844,19 +2865,21 @@
     <col min="11" max="11" width="8" style="40" customWidth="1"/>
     <col min="12" max="12" width="15.25" style="40" customWidth="1"/>
     <col min="13" max="13" width="15" style="40" customWidth="1"/>
-    <col min="14" max="16" width="11.125" style="40" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="40" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="40"/>
+    <col min="14" max="18" width="11.125" style="40" customWidth="1"/>
+    <col min="19" max="19" width="10.375" style="40" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19">
       <c r="N1" s="83"/>
       <c r="O1" s="83"/>
       <c r="P1" s="83"/>
       <c r="Q1" s="83"/>
-    </row>
-    <row r="2" spans="2:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+    </row>
+    <row r="2" spans="2:19" ht="6.75" customHeight="1"/>
+    <row r="3" spans="2:19" ht="16.5">
       <c r="B3" s="74" t="s">
         <v>85</v>
       </c>
@@ -2864,7 +2887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="20.25" customHeight="1">
       <c r="B4" s="87"/>
       <c r="C4" s="88" t="s">
         <v>99</v>
@@ -2889,8 +2912,10 @@
       <c r="O4" s="84"/>
       <c r="P4" s="84"/>
       <c r="Q4" s="84"/>
-    </row>
-    <row r="5" spans="2:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+    </row>
+    <row r="5" spans="2:19" ht="34.5" customHeight="1">
       <c r="B5" s="87"/>
       <c r="C5" s="77" t="s">
         <v>86</v>
@@ -2923,8 +2948,10 @@
       <c r="O5" s="78"/>
       <c r="P5" s="78"/>
       <c r="Q5" s="78"/>
-    </row>
-    <row r="6" spans="2:17" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+    </row>
+    <row r="6" spans="2:19" ht="63">
       <c r="B6" s="87"/>
       <c r="C6" s="63" t="s">
         <v>89</v>
@@ -2957,25 +2984,31 @@
         <v>111</v>
       </c>
       <c r="O6" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q6" s="72" t="s">
+      <c r="S6" s="72" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" s="33" customFormat="1">
       <c r="B7" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="61"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="61"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="34"/>
+      <c r="H7" s="112"/>
       <c r="I7" s="34"/>
       <c r="J7" s="35"/>
       <c r="K7" s="31"/>
@@ -2983,21 +3016,23 @@
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
       <c r="O7" s="64"/>
-      <c r="P7" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="32"/>
-    </row>
-    <row r="8" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="S7" s="32"/>
+    </row>
+    <row r="8" spans="2:19" s="33" customFormat="1">
       <c r="B8" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="61"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="61"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="34"/>
+      <c r="H8" s="112"/>
       <c r="I8" s="34"/>
       <c r="J8" s="35"/>
       <c r="K8" s="31"/>
@@ -3006,18 +3041,20 @@
       <c r="N8" s="32"/>
       <c r="O8" s="64"/>
       <c r="P8" s="64"/>
-      <c r="Q8" s="32"/>
-    </row>
-    <row r="9" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="32"/>
+    </row>
+    <row r="9" spans="2:19" s="33" customFormat="1">
       <c r="B9" s="66" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="61"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="61"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="34"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="34"/>
       <c r="J9" s="35"/>
       <c r="K9" s="31"/>
@@ -3026,18 +3063,20 @@
       <c r="N9" s="32"/>
       <c r="O9" s="64"/>
       <c r="P9" s="64"/>
-      <c r="Q9" s="32"/>
-    </row>
-    <row r="10" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="32"/>
+    </row>
+    <row r="10" spans="2:19" s="33" customFormat="1">
       <c r="B10" s="66" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="61"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="61"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="34"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="34"/>
       <c r="J10" s="35"/>
       <c r="K10" s="31"/>
@@ -3046,18 +3085,20 @@
       <c r="N10" s="32"/>
       <c r="O10" s="64"/>
       <c r="P10" s="64"/>
-      <c r="Q10" s="32"/>
-    </row>
-    <row r="11" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="32"/>
+    </row>
+    <row r="11" spans="2:19" s="33" customFormat="1">
       <c r="B11" s="66" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="32"/>
-      <c r="D11" s="61"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="61"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="34"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="34"/>
       <c r="J11" s="35"/>
       <c r="K11" s="31"/>
@@ -3066,18 +3107,20 @@
       <c r="N11" s="32"/>
       <c r="O11" s="64"/>
       <c r="P11" s="64"/>
-      <c r="Q11" s="32"/>
-    </row>
-    <row r="12" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="32"/>
+    </row>
+    <row r="12" spans="2:19" s="33" customFormat="1">
       <c r="B12" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="32"/>
-      <c r="D12" s="61"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="61"/>
+      <c r="F12" s="112"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="34"/>
+      <c r="H12" s="112"/>
       <c r="I12" s="34"/>
       <c r="J12" s="35"/>
       <c r="K12" s="31"/>
@@ -3086,18 +3129,20 @@
       <c r="N12" s="32"/>
       <c r="O12" s="64"/>
       <c r="P12" s="64"/>
-      <c r="Q12" s="32"/>
-    </row>
-    <row r="13" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="32"/>
+    </row>
+    <row r="13" spans="2:19" s="33" customFormat="1">
       <c r="B13" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="32"/>
-      <c r="D13" s="61"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="61"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="34"/>
+      <c r="H13" s="112"/>
       <c r="I13" s="34"/>
       <c r="J13" s="35"/>
       <c r="K13" s="31"/>
@@ -3106,18 +3151,20 @@
       <c r="N13" s="32"/>
       <c r="O13" s="64"/>
       <c r="P13" s="64"/>
-      <c r="Q13" s="32"/>
-    </row>
-    <row r="14" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="32"/>
+    </row>
+    <row r="14" spans="2:19" s="33" customFormat="1">
       <c r="B14" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="32"/>
-      <c r="D14" s="61"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="61"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="34"/>
+      <c r="H14" s="112"/>
       <c r="I14" s="34"/>
       <c r="J14" s="35"/>
       <c r="K14" s="31"/>
@@ -3126,18 +3173,20 @@
       <c r="N14" s="32"/>
       <c r="O14" s="64"/>
       <c r="P14" s="64"/>
-      <c r="Q14" s="32"/>
-    </row>
-    <row r="15" spans="2:17" s="33" customFormat="1" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="32"/>
+    </row>
+    <row r="15" spans="2:19" s="33" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="B15" s="66" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="32"/>
-      <c r="D15" s="61"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="61"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="31"/>
-      <c r="H15" s="34"/>
+      <c r="H15" s="112"/>
       <c r="I15" s="34"/>
       <c r="J15" s="35"/>
       <c r="K15" s="31"/>
@@ -3146,18 +3195,20 @@
       <c r="N15" s="32"/>
       <c r="O15" s="64"/>
       <c r="P15" s="64"/>
-      <c r="Q15" s="32"/>
-    </row>
-    <row r="16" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="32"/>
+    </row>
+    <row r="16" spans="2:19" s="33" customFormat="1">
       <c r="B16" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="32"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="61"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="34"/>
+      <c r="H16" s="112"/>
       <c r="I16" s="34"/>
       <c r="J16" s="35"/>
       <c r="K16" s="31"/>
@@ -3166,18 +3217,20 @@
       <c r="N16" s="32"/>
       <c r="O16" s="64"/>
       <c r="P16" s="64"/>
-      <c r="Q16" s="32"/>
-    </row>
-    <row r="17" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="32"/>
+    </row>
+    <row r="17" spans="2:19" s="33" customFormat="1">
       <c r="B17" s="66" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="32"/>
-      <c r="D17" s="61"/>
+      <c r="D17" s="112"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="61"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="31"/>
-      <c r="H17" s="34"/>
+      <c r="H17" s="112"/>
       <c r="I17" s="34"/>
       <c r="J17" s="35"/>
       <c r="K17" s="31"/>
@@ -3186,18 +3239,20 @@
       <c r="N17" s="32"/>
       <c r="O17" s="64"/>
       <c r="P17" s="64"/>
-      <c r="Q17" s="32"/>
-    </row>
-    <row r="18" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="32"/>
+    </row>
+    <row r="18" spans="2:19" s="36" customFormat="1">
       <c r="B18" s="67" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="37"/>
-      <c r="D18" s="61"/>
+      <c r="D18" s="112"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="61"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="38"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="38"/>
       <c r="J18" s="39"/>
       <c r="K18" s="47"/>
@@ -3207,17 +3262,19 @@
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
-    </row>
-    <row r="19" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+    </row>
+    <row r="19" spans="2:19" s="36" customFormat="1">
       <c r="B19" s="66" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="37"/>
-      <c r="D19" s="61"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="61"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="47"/>
-      <c r="H19" s="38"/>
+      <c r="H19" s="113"/>
       <c r="I19" s="38"/>
       <c r="J19" s="39"/>
       <c r="K19" s="47"/>
@@ -3227,17 +3284,19 @@
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
-    </row>
-    <row r="20" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+    </row>
+    <row r="20" spans="2:19" s="36" customFormat="1">
       <c r="B20" s="66" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="37"/>
-      <c r="D20" s="61"/>
+      <c r="D20" s="112"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="61"/>
+      <c r="F20" s="112"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="38"/>
+      <c r="H20" s="113"/>
       <c r="I20" s="38"/>
       <c r="J20" s="39"/>
       <c r="K20" s="47"/>
@@ -3247,17 +3306,19 @@
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
-    </row>
-    <row r="21" spans="2:17" s="36" customFormat="1" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+    </row>
+    <row r="21" spans="2:19" s="36" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="B21" s="66" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="37"/>
-      <c r="D21" s="61"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="61"/>
+      <c r="F21" s="112"/>
       <c r="G21" s="47"/>
-      <c r="H21" s="38"/>
+      <c r="H21" s="113"/>
       <c r="I21" s="38"/>
       <c r="J21" s="39"/>
       <c r="K21" s="47"/>
@@ -3267,17 +3328,19 @@
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
-    </row>
-    <row r="22" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+    </row>
+    <row r="22" spans="2:19" s="36" customFormat="1">
       <c r="B22" s="66" t="s">
         <v>81</v>
       </c>
       <c r="C22" s="37"/>
-      <c r="D22" s="61"/>
+      <c r="D22" s="112"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="61"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="38"/>
+      <c r="H22" s="113"/>
       <c r="I22" s="38"/>
       <c r="J22" s="39"/>
       <c r="K22" s="47"/>
@@ -3287,17 +3350,19 @@
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
-    </row>
-    <row r="23" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+    </row>
+    <row r="23" spans="2:19" s="33" customFormat="1">
       <c r="B23" s="66" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="32"/>
-      <c r="D23" s="61"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="61"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="34"/>
+      <c r="H23" s="112"/>
       <c r="I23" s="34"/>
       <c r="J23" s="35"/>
       <c r="K23" s="31"/>
@@ -3306,18 +3371,20 @@
       <c r="N23" s="32"/>
       <c r="O23" s="64"/>
       <c r="P23" s="64"/>
-      <c r="Q23" s="32"/>
-    </row>
-    <row r="24" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="32"/>
+    </row>
+    <row r="24" spans="2:19" s="33" customFormat="1">
       <c r="B24" s="66" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="32"/>
-      <c r="D24" s="61"/>
+      <c r="D24" s="112"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="61"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="34"/>
+      <c r="H24" s="112"/>
       <c r="I24" s="34"/>
       <c r="J24" s="35"/>
       <c r="K24" s="31"/>
@@ -3326,18 +3393,20 @@
       <c r="N24" s="32"/>
       <c r="O24" s="64"/>
       <c r="P24" s="64"/>
-      <c r="Q24" s="32"/>
-    </row>
-    <row r="25" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="32"/>
+    </row>
+    <row r="25" spans="2:19" s="36" customFormat="1">
       <c r="B25" s="67" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="37"/>
-      <c r="D25" s="61"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="61"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="47"/>
-      <c r="H25" s="38"/>
+      <c r="H25" s="113"/>
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
       <c r="K25" s="47"/>
@@ -3347,17 +3416,19 @@
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
-    </row>
-    <row r="26" spans="2:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+    </row>
+    <row r="26" spans="2:19" s="36" customFormat="1">
       <c r="B26" s="67" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="37"/>
-      <c r="D26" s="61"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="61"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="113"/>
       <c r="I26" s="38"/>
       <c r="J26" s="39"/>
       <c r="K26" s="47"/>
@@ -3367,17 +3438,19 @@
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
-    </row>
-    <row r="27" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+    </row>
+    <row r="27" spans="2:19" s="33" customFormat="1">
       <c r="B27" s="68" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="32"/>
-      <c r="D27" s="61"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="61"/>
+      <c r="F27" s="112"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="34"/>
+      <c r="H27" s="112"/>
       <c r="I27" s="34"/>
       <c r="J27" s="35"/>
       <c r="K27" s="31"/>
@@ -3386,18 +3459,20 @@
       <c r="N27" s="32"/>
       <c r="O27" s="64"/>
       <c r="P27" s="64"/>
-      <c r="Q27" s="32"/>
-    </row>
-    <row r="28" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="32"/>
+    </row>
+    <row r="28" spans="2:19" s="33" customFormat="1">
       <c r="B28" s="68" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="32"/>
-      <c r="D28" s="61"/>
+      <c r="D28" s="112"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="61"/>
+      <c r="F28" s="112"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="34"/>
+      <c r="H28" s="112"/>
       <c r="I28" s="34"/>
       <c r="J28" s="35"/>
       <c r="K28" s="31"/>
@@ -3406,18 +3481,20 @@
       <c r="N28" s="32"/>
       <c r="O28" s="64"/>
       <c r="P28" s="64"/>
-      <c r="Q28" s="32"/>
-    </row>
-    <row r="29" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="32"/>
+    </row>
+    <row r="29" spans="2:19" s="33" customFormat="1">
       <c r="B29" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="61"/>
+      <c r="D29" s="112"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="61"/>
+      <c r="F29" s="112"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="34"/>
+      <c r="H29" s="112"/>
       <c r="I29" s="34"/>
       <c r="J29" s="35"/>
       <c r="K29" s="31"/>
@@ -3426,18 +3503,20 @@
       <c r="N29" s="32"/>
       <c r="O29" s="64"/>
       <c r="P29" s="64"/>
-      <c r="Q29" s="32"/>
-    </row>
-    <row r="30" spans="2:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="32"/>
+    </row>
+    <row r="30" spans="2:19" s="62" customFormat="1">
       <c r="B30" s="66" t="s">
         <v>90</v>
       </c>
       <c r="C30" s="64"/>
-      <c r="D30" s="61"/>
+      <c r="D30" s="112"/>
       <c r="E30" s="64"/>
-      <c r="F30" s="61"/>
+      <c r="F30" s="112"/>
       <c r="G30" s="59"/>
-      <c r="H30" s="61"/>
+      <c r="H30" s="112"/>
       <c r="I30" s="61"/>
       <c r="J30" s="35"/>
       <c r="K30" s="59"/>
@@ -3447,17 +3526,19 @@
       <c r="O30" s="64"/>
       <c r="P30" s="64"/>
       <c r="Q30" s="64"/>
-    </row>
-    <row r="31" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+    </row>
+    <row r="31" spans="2:19" s="33" customFormat="1">
       <c r="B31" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="32"/>
-      <c r="D31" s="61"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="61"/>
+      <c r="F31" s="112"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="34"/>
+      <c r="H31" s="112"/>
       <c r="I31" s="34"/>
       <c r="J31" s="35"/>
       <c r="K31" s="31"/>
@@ -3466,18 +3547,20 @@
       <c r="N31" s="32"/>
       <c r="O31" s="64"/>
       <c r="P31" s="64"/>
-      <c r="Q31" s="32"/>
-    </row>
-    <row r="32" spans="2:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="32"/>
+    </row>
+    <row r="32" spans="2:19" s="62" customFormat="1">
       <c r="B32" s="66" t="s">
         <v>91</v>
       </c>
       <c r="C32" s="64"/>
-      <c r="D32" s="61"/>
+      <c r="D32" s="112"/>
       <c r="E32" s="64"/>
-      <c r="F32" s="61"/>
+      <c r="F32" s="112"/>
       <c r="G32" s="59"/>
-      <c r="H32" s="61"/>
+      <c r="H32" s="112"/>
       <c r="I32" s="61"/>
       <c r="J32" s="35"/>
       <c r="K32" s="59"/>
@@ -3487,17 +3570,19 @@
       <c r="O32" s="64"/>
       <c r="P32" s="64"/>
       <c r="Q32" s="64"/>
-    </row>
-    <row r="33" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+    </row>
+    <row r="33" spans="2:19" s="33" customFormat="1">
       <c r="B33" s="66" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="32"/>
-      <c r="D33" s="61"/>
+      <c r="D33" s="112"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="61"/>
+      <c r="F33" s="112"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="34"/>
+      <c r="H33" s="112"/>
       <c r="I33" s="34"/>
       <c r="J33" s="35"/>
       <c r="K33" s="31"/>
@@ -3506,18 +3591,20 @@
       <c r="N33" s="32"/>
       <c r="O33" s="64"/>
       <c r="P33" s="64"/>
-      <c r="Q33" s="32"/>
-    </row>
-    <row r="34" spans="2:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="32"/>
+    </row>
+    <row r="34" spans="2:19" s="62" customFormat="1">
       <c r="B34" s="66" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="64"/>
-      <c r="D34" s="61"/>
+      <c r="D34" s="112"/>
       <c r="E34" s="64"/>
-      <c r="F34" s="61"/>
+      <c r="F34" s="112"/>
       <c r="G34" s="59"/>
-      <c r="H34" s="61"/>
+      <c r="H34" s="112"/>
       <c r="I34" s="61"/>
       <c r="J34" s="35"/>
       <c r="K34" s="59"/>
@@ -3527,17 +3614,19 @@
       <c r="O34" s="64"/>
       <c r="P34" s="64"/>
       <c r="Q34" s="64"/>
-    </row>
-    <row r="35" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+    </row>
+    <row r="35" spans="2:19" s="33" customFormat="1">
       <c r="B35" s="66" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="32"/>
-      <c r="D35" s="61"/>
+      <c r="D35" s="112"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="61"/>
+      <c r="F35" s="112"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="34"/>
+      <c r="H35" s="112"/>
       <c r="I35" s="34"/>
       <c r="J35" s="35"/>
       <c r="K35" s="31"/>
@@ -3546,18 +3635,20 @@
       <c r="N35" s="32"/>
       <c r="O35" s="64"/>
       <c r="P35" s="64"/>
-      <c r="Q35" s="32"/>
-    </row>
-    <row r="36" spans="2:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="32"/>
+    </row>
+    <row r="36" spans="2:19" s="62" customFormat="1">
       <c r="B36" s="66" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="64"/>
-      <c r="D36" s="61"/>
+      <c r="D36" s="112"/>
       <c r="E36" s="64"/>
-      <c r="F36" s="61"/>
+      <c r="F36" s="112"/>
       <c r="G36" s="59"/>
-      <c r="H36" s="61"/>
+      <c r="H36" s="112"/>
       <c r="I36" s="61"/>
       <c r="J36" s="35"/>
       <c r="K36" s="59"/>
@@ -3567,17 +3658,19 @@
       <c r="O36" s="64"/>
       <c r="P36" s="64"/>
       <c r="Q36" s="64"/>
-    </row>
-    <row r="37" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+    </row>
+    <row r="37" spans="2:19" s="33" customFormat="1">
       <c r="B37" s="66" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="32"/>
-      <c r="D37" s="61"/>
+      <c r="D37" s="112"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="61"/>
+      <c r="F37" s="112"/>
       <c r="G37" s="31"/>
-      <c r="H37" s="34"/>
+      <c r="H37" s="112"/>
       <c r="I37" s="34"/>
       <c r="J37" s="35"/>
       <c r="K37" s="31"/>
@@ -3586,18 +3679,20 @@
       <c r="N37" s="32"/>
       <c r="O37" s="64"/>
       <c r="P37" s="64"/>
-      <c r="Q37" s="32"/>
-    </row>
-    <row r="38" spans="2:17" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="32"/>
+    </row>
+    <row r="38" spans="2:19" s="62" customFormat="1">
       <c r="B38" s="66" t="s">
         <v>94</v>
       </c>
       <c r="C38" s="64"/>
-      <c r="D38" s="61"/>
+      <c r="D38" s="112"/>
       <c r="E38" s="64"/>
-      <c r="F38" s="61"/>
+      <c r="F38" s="112"/>
       <c r="G38" s="59"/>
-      <c r="H38" s="61"/>
+      <c r="H38" s="112"/>
       <c r="I38" s="61"/>
       <c r="J38" s="35"/>
       <c r="K38" s="59"/>
@@ -3607,17 +3702,19 @@
       <c r="O38" s="64"/>
       <c r="P38" s="64"/>
       <c r="Q38" s="64"/>
-    </row>
-    <row r="39" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+    </row>
+    <row r="39" spans="2:19" s="33" customFormat="1">
       <c r="B39" s="66" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="32"/>
-      <c r="D39" s="61"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="61"/>
+      <c r="F39" s="112"/>
       <c r="G39" s="31"/>
-      <c r="H39" s="34"/>
+      <c r="H39" s="112"/>
       <c r="I39" s="34"/>
       <c r="J39" s="35"/>
       <c r="K39" s="31"/>
@@ -3626,18 +3723,20 @@
       <c r="N39" s="32"/>
       <c r="O39" s="64"/>
       <c r="P39" s="64"/>
-      <c r="Q39" s="32"/>
-    </row>
-    <row r="40" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="32"/>
+    </row>
+    <row r="40" spans="2:19" s="33" customFormat="1">
       <c r="B40" s="66" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="32"/>
-      <c r="D40" s="61"/>
+      <c r="D40" s="112"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="61"/>
+      <c r="F40" s="112"/>
       <c r="G40" s="31"/>
-      <c r="H40" s="34"/>
+      <c r="H40" s="112"/>
       <c r="I40" s="34"/>
       <c r="J40" s="35"/>
       <c r="K40" s="31"/>
@@ -3646,18 +3745,20 @@
       <c r="N40" s="32"/>
       <c r="O40" s="64"/>
       <c r="P40" s="64"/>
-      <c r="Q40" s="32"/>
-    </row>
-    <row r="41" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="32"/>
+    </row>
+    <row r="41" spans="2:19" s="33" customFormat="1">
       <c r="B41" s="66" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="32"/>
-      <c r="D41" s="61"/>
+      <c r="D41" s="112"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="61"/>
+      <c r="F41" s="112"/>
       <c r="G41" s="31"/>
-      <c r="H41" s="34"/>
+      <c r="H41" s="112"/>
       <c r="I41" s="34"/>
       <c r="J41" s="35"/>
       <c r="K41" s="31"/>
@@ -3666,14 +3767,16 @@
       <c r="N41" s="32"/>
       <c r="O41" s="64"/>
       <c r="P41" s="64"/>
-      <c r="Q41" s="32"/>
-    </row>
-    <row r="42" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="32"/>
+    </row>
+    <row r="42" spans="2:19" ht="16.5">
       <c r="B42" s="60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" ht="16.5">
       <c r="B43" s="81" t="s">
         <v>107</v>
       </c>
@@ -3689,17 +3792,17 @@
       <c r="L43" s="82"/>
       <c r="M43" s="82"/>
     </row>
-    <row r="44" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" ht="16.5">
       <c r="B44" s="60" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" ht="16.5">
       <c r="B45" s="60" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" ht="16.5">
       <c r="B48" s="74" t="s">
         <v>84</v>
       </c>
@@ -3707,7 +3810,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12">
       <c r="B49" s="73">
         <v>1</v>
       </c>
@@ -3724,7 +3827,7 @@
       <c r="K49" s="76"/>
       <c r="L49" s="76"/>
     </row>
-    <row r="50" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="16.5">
       <c r="B50" s="73">
         <v>2</v>
       </c>
@@ -3739,7 +3842,7 @@
       <c r="I50" s="42"/>
       <c r="J50" s="41"/>
     </row>
-    <row r="51" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="16.5">
       <c r="B51" s="73">
         <v>3</v>
       </c>
@@ -3754,7 +3857,7 @@
       <c r="I51" s="42"/>
       <c r="J51" s="41"/>
     </row>
-    <row r="52" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="16.5">
       <c r="B52" s="69"/>
       <c r="C52" s="18" t="s">
         <v>9</v>
@@ -3767,7 +3870,7 @@
       <c r="I52" s="42"/>
       <c r="J52" s="41"/>
     </row>
-    <row r="53" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="16.5">
       <c r="B53" s="69"/>
       <c r="C53" s="41" t="s">
         <v>61</v>
@@ -3780,7 +3883,7 @@
       <c r="I53" s="42"/>
       <c r="J53" s="41"/>
     </row>
-    <row r="54" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="16.5">
       <c r="B54" s="69"/>
       <c r="C54" s="18" t="s">
         <v>44</v>
@@ -3793,7 +3896,7 @@
       <c r="I54" s="42"/>
       <c r="J54" s="41"/>
     </row>
-    <row r="55" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="16.5">
       <c r="B55" s="69"/>
       <c r="C55" s="18" t="s">
         <v>50</v>
@@ -3806,7 +3909,7 @@
       <c r="I55" s="42"/>
       <c r="J55" s="41"/>
     </row>
-    <row r="56" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="16.5">
       <c r="B56" s="69"/>
       <c r="C56" s="18" t="s">
         <v>79</v>
@@ -3819,7 +3922,7 @@
       <c r="I56" s="42"/>
       <c r="J56" s="41"/>
     </row>
-    <row r="57" spans="2:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" s="28" customFormat="1" ht="16.5">
       <c r="B57" s="70"/>
       <c r="C57" s="56" t="s">
         <v>74</v>
@@ -3832,7 +3935,7 @@
       <c r="I57" s="58"/>
       <c r="J57" s="57"/>
     </row>
-    <row r="58" spans="2:12" s="52" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" s="52" customFormat="1" ht="16.5">
       <c r="B58" s="71"/>
       <c r="C58" s="18" t="s">
         <v>82</v>
@@ -3845,7 +3948,7 @@
       <c r="I58" s="55"/>
       <c r="J58" s="54"/>
     </row>
-    <row r="59" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="16.5">
       <c r="B59" s="69"/>
       <c r="C59" s="18" t="s">
         <v>83</v>
@@ -3858,7 +3961,7 @@
       <c r="I59" s="42"/>
       <c r="J59" s="41"/>
     </row>
-    <row r="60" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="16.5">
       <c r="B60" s="69"/>
       <c r="C60" s="41" t="s">
         <v>62</v>
@@ -3871,7 +3974,7 @@
       <c r="I60" s="42"/>
       <c r="J60" s="41"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12">
       <c r="B61" s="69"/>
       <c r="C61" s="75"/>
       <c r="D61" s="76"/>
@@ -3886,9 +3989,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:H4"/>
@@ -3920,11 +4023,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="J7" sqref="J7:J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="0.125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="3" customWidth="1"/>
@@ -3943,14 +4046,14 @@
     <col min="16" max="17" width="13.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="P1" s="91" t="s">
         <v>20</v>
       </c>
       <c r="Q1" s="91"/>
     </row>
-    <row r="2" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="6.75" customHeight="1"/>
+    <row r="3" spans="1:17" s="1" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
@@ -3973,7 +4076,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="94" t="s">
         <v>21</v>
@@ -4006,7 +4109,7 @@
       </c>
       <c r="Q4" s="78"/>
     </row>
-    <row r="5" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="31.9" customHeight="1">
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="95"/>
@@ -4040,7 +4143,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="54" customHeight="1">
       <c r="B6" s="96"/>
       <c r="C6" s="96"/>
       <c r="D6" s="96"/>
@@ -4074,7 +4177,7 @@
       <c r="P6" s="80"/>
       <c r="Q6" s="80"/>
     </row>
-    <row r="7" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="11"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
@@ -4093,7 +4196,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="14" customFormat="1">
       <c r="A8" s="11"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
@@ -4112,7 +4215,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="14" customFormat="1">
       <c r="A9" s="11"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
@@ -4131,7 +4234,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
     </row>
-    <row r="10" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="14" customFormat="1">
       <c r="A10" s="11"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
@@ -4150,7 +4253,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="14" customFormat="1">
       <c r="A11" s="11"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
@@ -4169,7 +4272,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="14" customFormat="1">
       <c r="A12" s="11"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -4188,7 +4291,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
     </row>
-    <row r="13" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="14" customFormat="1">
       <c r="A13" s="11"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -4207,7 +4310,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="14" customFormat="1">
       <c r="A14" s="11"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -4226,7 +4329,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="14" customFormat="1">
       <c r="A15" s="11"/>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
@@ -4245,7 +4348,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="14" customFormat="1">
       <c r="A16" s="11"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -4264,7 +4367,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="14" customFormat="1">
       <c r="A17" s="11"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -4283,7 +4386,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="14" customFormat="1">
       <c r="A18" s="11"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
@@ -4302,7 +4405,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="14" customFormat="1">
       <c r="A19" s="11"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -4321,7 +4424,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="14" customFormat="1">
       <c r="A20" s="11"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -4340,7 +4443,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="14" customFormat="1">
       <c r="A21" s="11"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -4359,7 +4462,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="14" customFormat="1">
       <c r="A22" s="11"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -4378,7 +4481,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="14" customFormat="1">
       <c r="A23" s="11"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -4397,7 +4500,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="14" customFormat="1">
       <c r="A24" s="11"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -4416,7 +4519,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="14" customFormat="1">
       <c r="A25" s="11"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -4435,7 +4538,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="14" customFormat="1">
       <c r="A26" s="11"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -4454,7 +4557,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="14" customFormat="1">
       <c r="A27" s="11"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -4473,7 +4576,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="14" customFormat="1">
       <c r="A28" s="11"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -4492,7 +4595,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="14" customFormat="1">
       <c r="A29" s="11"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -4511,7 +4614,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="14" customFormat="1">
       <c r="A30" s="11"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -4530,7 +4633,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="14" customFormat="1">
       <c r="A31" s="11"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -4549,7 +4652,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
     </row>
-    <row r="32" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="14" customFormat="1">
       <c r="A32" s="11"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -4568,7 +4671,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
     </row>
-    <row r="33" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="14" customFormat="1">
       <c r="A33" s="11"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
@@ -4587,7 +4690,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
     </row>
-    <row r="34" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="14" customFormat="1">
       <c r="A34" s="11"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -4606,7 +4709,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
     </row>
-    <row r="35" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="14" customFormat="1">
       <c r="A35" s="11"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -4625,7 +4728,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
     </row>
-    <row r="36" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="14" customFormat="1">
       <c r="A36" s="11"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -4644,7 +4747,7 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
     </row>
-    <row r="37" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="14" customFormat="1">
       <c r="A37" s="11"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -4663,7 +4766,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
     </row>
-    <row r="38" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="14" customFormat="1">
       <c r="A38" s="11"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -4682,7 +4785,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
     </row>
-    <row r="39" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="14" customFormat="1">
       <c r="A39" s="11"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
@@ -4701,7 +4804,7 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
     </row>
-    <row r="40" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="14" customFormat="1">
       <c r="A40" s="11"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -4720,7 +4823,7 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
     </row>
-    <row r="41" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="14" customFormat="1">
       <c r="A41" s="11"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
@@ -4739,7 +4842,7 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
     </row>
-    <row r="42" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="14" customFormat="1">
       <c r="A42" s="11"/>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
@@ -4758,7 +4861,7 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
     </row>
-    <row r="43" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="14" customFormat="1">
       <c r="A43" s="11"/>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
@@ -4777,7 +4880,7 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
     </row>
-    <row r="44" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="14" customFormat="1">
       <c r="A44" s="11"/>
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
@@ -4796,7 +4899,7 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
     </row>
-    <row r="45" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="14" customFormat="1">
       <c r="A45" s="11"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
@@ -4815,7 +4918,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="14" customFormat="1">
       <c r="A46" s="11"/>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
@@ -4834,7 +4937,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
     </row>
-    <row r="47" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="14" customFormat="1">
       <c r="A47" s="11"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
@@ -4853,7 +4956,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="14" customFormat="1">
       <c r="A48" s="11"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
@@ -4872,7 +4975,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="14" customFormat="1">
       <c r="A49" s="11"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
@@ -4891,7 +4994,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="14" customFormat="1">
       <c r="A50" s="11"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
@@ -4910,7 +5013,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="14" customFormat="1">
       <c r="A51" s="11"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
@@ -4929,7 +5032,7 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
     </row>
-    <row r="52" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="14" customFormat="1">
       <c r="A52" s="11"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
@@ -4948,7 +5051,7 @@
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
     </row>
-    <row r="53" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="14" customFormat="1">
       <c r="A53" s="11"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
@@ -4967,7 +5070,7 @@
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
     </row>
-    <row r="54" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="14" customFormat="1">
       <c r="A54" s="11"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
@@ -4986,7 +5089,7 @@
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="14" customFormat="1">
       <c r="A55" s="11"/>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
@@ -5005,7 +5108,7 @@
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
     </row>
-    <row r="56" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="14" customFormat="1">
       <c r="A56" s="11"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
@@ -5024,7 +5127,7 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="B57" s="8" t="s">
         <v>26</v>
       </c>
@@ -5037,7 +5140,7 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="B58" s="92" t="s">
         <v>103</v>
       </c>
@@ -5057,7 +5160,7 @@
       <c r="P58" s="93"/>
       <c r="Q58" s="93"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="B59" s="92" t="s">
         <v>104</v>
       </c>
@@ -5077,7 +5180,7 @@
       <c r="P59" s="93"/>
       <c r="Q59" s="93"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="B62" s="1" t="s">
         <v>109</v>
       </c>
@@ -5085,7 +5188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="B63" s="5">
         <v>1</v>
       </c>
@@ -5093,7 +5196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="B64" s="5">
         <v>2</v>
       </c>
@@ -5145,7 +5248,7 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
@@ -5165,7 +5268,7 @@
     <col min="17" max="16384" width="8.875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="16" customFormat="1">
       <c r="A1" s="2"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -5175,7 +5278,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="16.5">
       <c r="A2" s="2"/>
       <c r="B2" s="16" t="s">
         <v>27</v>
@@ -5193,7 +5296,7 @@
       <c r="O2" s="97"/>
       <c r="P2" s="98"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="16" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5210,7 +5313,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="99"/>
       <c r="C4" s="100" t="s">
@@ -5228,7 +5331,7 @@
       </c>
       <c r="P4" s="10"/>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="99"/>
       <c r="C5" s="104" t="s">
@@ -5250,7 +5353,7 @@
       <c r="K5" s="103"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -5266,7 +5369,7 @@
       <c r="K6" s="6"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="16" customFormat="1">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
@@ -5282,7 +5385,7 @@
       <c r="K7" s="6"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="16" customFormat="1">
       <c r="A8" s="2"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
@@ -5298,7 +5401,7 @@
       <c r="K8" s="6"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="16" customFormat="1">
       <c r="A9" s="2"/>
       <c r="B9" s="7" t="s">
         <v>17</v>
@@ -5314,7 +5417,7 @@
       <c r="K9" s="6"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="16" customFormat="1">
       <c r="A10" s="2"/>
       <c r="B10" s="7" t="s">
         <v>18</v>
@@ -5330,7 +5433,7 @@
       <c r="K10" s="6"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="16" customFormat="1">
       <c r="A11" s="2"/>
       <c r="B11" s="7" t="s">
         <v>19</v>
@@ -5346,7 +5449,7 @@
       <c r="K11" s="6"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="3" customFormat="1">
       <c r="A12" s="2"/>
       <c r="B12" s="7" t="s">
         <v>35</v>
@@ -5366,7 +5469,7 @@
       <c r="O12" s="16"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="3" customFormat="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7" t="s">
         <v>41</v>
@@ -5386,7 +5489,7 @@
       <c r="O13" s="16"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="3" customFormat="1">
       <c r="A14" s="2"/>
       <c r="B14" s="7" t="s">
         <v>53</v>
@@ -5406,7 +5509,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="3" customFormat="1">
       <c r="A15" s="2"/>
       <c r="B15" s="7" t="s">
         <v>54</v>
@@ -5426,7 +5529,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="3" customFormat="1">
       <c r="A16" s="2"/>
       <c r="B16" s="43"/>
       <c r="C16" s="44"/>
@@ -5444,7 +5547,7 @@
       <c r="O16" s="16"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="3" customFormat="1" hidden="1">
       <c r="A17" s="2"/>
       <c r="B17" s="43"/>
       <c r="C17" s="44"/>
@@ -5462,7 +5565,7 @@
       <c r="O17" s="16"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="3" customFormat="1" hidden="1">
       <c r="A18" s="2"/>
       <c r="B18" s="43"/>
       <c r="C18" s="44"/>
@@ -5480,7 +5583,7 @@
       <c r="O18" s="16"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="3" customFormat="1" hidden="1">
       <c r="A19" s="2"/>
       <c r="B19" s="43"/>
       <c r="C19" s="44"/>
@@ -5498,7 +5601,7 @@
       <c r="O19" s="16"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="3" customFormat="1" hidden="1">
       <c r="A20" s="2"/>
       <c r="B20" s="43"/>
       <c r="C20" s="44"/>
@@ -5516,7 +5619,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="3" customFormat="1" hidden="1">
       <c r="A21" s="2"/>
       <c r="B21" s="43"/>
       <c r="C21" s="44"/>
@@ -5534,7 +5637,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="3" customFormat="1" hidden="1">
       <c r="A22" s="2"/>
       <c r="B22" s="43"/>
       <c r="C22" s="44"/>
@@ -5552,7 +5655,7 @@
       <c r="O22" s="16"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="3" customFormat="1" hidden="1">
       <c r="A23" s="2"/>
       <c r="B23" s="43"/>
       <c r="C23" s="44"/>
@@ -5570,8 +5673,8 @@
       <c r="O23" s="16"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:16" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" hidden="1"/>
+    <row r="25" spans="1:16" s="16" customFormat="1" ht="16.5">
       <c r="A25" s="2"/>
       <c r="B25" s="16" t="s">
         <v>36</v>
@@ -5584,7 +5687,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="110" t="s">
         <v>37</v>
@@ -5632,7 +5735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="111"/>
       <c r="C28" s="111"/>
@@ -5650,7 +5753,7 @@
       <c r="O28" s="80"/>
       <c r="P28" s="103"/>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="3" customFormat="1">
       <c r="A29" s="2"/>
       <c r="B29" s="7" t="s">
         <v>0</v>
@@ -5670,7 +5773,7 @@
       <c r="O29" s="30"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="3" customFormat="1">
       <c r="A30" s="2"/>
       <c r="B30" s="7" t="s">
         <v>1</v>
@@ -5690,7 +5793,7 @@
       <c r="O30" s="30"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="3" customFormat="1">
       <c r="A31" s="2"/>
       <c r="B31" s="7" t="s">
         <v>2</v>
@@ -5710,7 +5813,7 @@
       <c r="O31" s="30"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="3" customFormat="1">
       <c r="A32" s="2"/>
       <c r="B32" s="7" t="s">
         <v>38</v>
@@ -5730,7 +5833,7 @@
       <c r="O32" s="30"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="3" customFormat="1">
       <c r="A33" s="2"/>
       <c r="B33" s="7" t="s">
         <v>39</v>
@@ -5750,7 +5853,7 @@
       <c r="O33" s="30"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="3" customFormat="1">
       <c r="A34" s="2"/>
       <c r="B34" s="31" t="s">
         <v>43</v>
@@ -5770,7 +5873,7 @@
       <c r="O34" s="30"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="16.5">
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
@@ -5779,10 +5882,10 @@
         <v>達得調整標準之天數自2014年12月1日起計算。</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="16.5">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="B37" s="110" t="s">
         <v>37</v>
       </c>
@@ -5802,7 +5905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="B38" s="111"/>
       <c r="C38" s="111"/>
       <c r="D38" s="103"/>
@@ -5810,7 +5913,7 @@
       <c r="G38" s="80"/>
       <c r="H38" s="103"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="B39" s="7" t="s">
         <v>56</v>
       </c>
@@ -5822,14 +5925,14 @@
       <c r="G39" s="32"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="F41" s="40"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="F42" s="40"/>
     </row>
   </sheetData>
@@ -5907,7 +6010,7 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.42" right="0.43" top="0.9055118110236221" bottom="0.31496062992125984" header="0.46" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"標楷體,標準"&amp;20SPAN參數檔檢核結果&amp;R
 </oddHeader>

--- a/PhoenixCI/Excel_Template/40040.xlsx
+++ b/PhoenixCI/Excel_Template/40040.xlsx
@@ -2422,6 +2422,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2446,9 +2452,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2533,11 +2536,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2849,16 +2849,19 @@
   </sheetPr>
   <dimension ref="B1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" activeCellId="2" sqref="D7:D41 F7:F41 H7:H41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="1" style="40" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="65" customWidth="1"/>
-    <col min="3" max="6" width="12.375" style="48" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="48" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="48" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="40" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="49" customWidth="1"/>
     <col min="9" max="9" width="10.25" style="49" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="48" customWidth="1"/>
@@ -2871,12 +2874,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
     </row>
     <row r="2" spans="2:19" ht="6.75" customHeight="1"/>
     <row r="3" spans="2:19" ht="16.5">
@@ -2888,71 +2891,71 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B4" s="87"/>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="84" t="s">
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="85" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="84" t="s">
+      <c r="M4" s="87"/>
+      <c r="N4" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
     </row>
     <row r="5" spans="2:19" ht="34.5" customHeight="1">
-      <c r="B5" s="87"/>
-      <c r="C5" s="77" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="77" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="77" t="s">
+      <c r="F5" s="80"/>
+      <c r="G5" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="77" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78" t="s">
+      <c r="J5" s="80"/>
+      <c r="K5" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="L5" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="79" t="s">
+      <c r="M5" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="N5" s="77" t="s">
+      <c r="N5" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
     </row>
     <row r="6" spans="2:19" ht="63">
-      <c r="B6" s="87"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="63" t="s">
         <v>89</v>
       </c>
@@ -2977,9 +2980,9 @@
       <c r="J6" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="72" t="s">
         <v>111</v>
       </c>
@@ -3004,11 +3007,11 @@
         <v>0</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="112"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="112"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="34"/>
       <c r="J7" s="35"/>
       <c r="K7" s="31"/>
@@ -3028,11 +3031,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="112"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="112"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="34"/>
       <c r="J8" s="35"/>
       <c r="K8" s="31"/>
@@ -3050,11 +3053,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="112"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="112"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="34"/>
       <c r="J9" s="35"/>
       <c r="K9" s="31"/>
@@ -3072,11 +3075,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="112"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="112"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="34"/>
       <c r="J10" s="35"/>
       <c r="K10" s="31"/>
@@ -3094,11 +3097,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="32"/>
-      <c r="D11" s="112"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="112"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="34"/>
       <c r="J11" s="35"/>
       <c r="K11" s="31"/>
@@ -3116,11 +3119,11 @@
         <v>10</v>
       </c>
       <c r="C12" s="32"/>
-      <c r="D12" s="112"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="112"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="34"/>
       <c r="J12" s="35"/>
       <c r="K12" s="31"/>
@@ -3138,11 +3141,11 @@
         <v>11</v>
       </c>
       <c r="C13" s="32"/>
-      <c r="D13" s="112"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="112"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="34"/>
       <c r="J13" s="35"/>
       <c r="K13" s="31"/>
@@ -3160,11 +3163,11 @@
         <v>12</v>
       </c>
       <c r="C14" s="32"/>
-      <c r="D14" s="112"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="112"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="34"/>
       <c r="J14" s="35"/>
       <c r="K14" s="31"/>
@@ -3182,11 +3185,11 @@
         <v>51</v>
       </c>
       <c r="C15" s="32"/>
-      <c r="D15" s="112"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="112"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="34"/>
       <c r="J15" s="35"/>
       <c r="K15" s="31"/>
@@ -3204,11 +3207,11 @@
         <v>13</v>
       </c>
       <c r="C16" s="32"/>
-      <c r="D16" s="112"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="112"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="34"/>
       <c r="J16" s="35"/>
       <c r="K16" s="31"/>
@@ -3226,11 +3229,11 @@
         <v>47</v>
       </c>
       <c r="C17" s="32"/>
-      <c r="D17" s="112"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="112"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="34"/>
       <c r="J17" s="35"/>
       <c r="K17" s="31"/>
@@ -3248,11 +3251,11 @@
         <v>71</v>
       </c>
       <c r="C18" s="37"/>
-      <c r="D18" s="112"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="113"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="38"/>
       <c r="J18" s="39"/>
       <c r="K18" s="47"/>
@@ -3270,11 +3273,11 @@
         <v>75</v>
       </c>
       <c r="C19" s="37"/>
-      <c r="D19" s="112"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="113"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="38"/>
       <c r="J19" s="39"/>
       <c r="K19" s="47"/>
@@ -3292,11 +3295,11 @@
         <v>76</v>
       </c>
       <c r="C20" s="37"/>
-      <c r="D20" s="112"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="113"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="38"/>
       <c r="J20" s="39"/>
       <c r="K20" s="47"/>
@@ -3314,11 +3317,11 @@
         <v>80</v>
       </c>
       <c r="C21" s="37"/>
-      <c r="D21" s="112"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="113"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="38"/>
       <c r="J21" s="39"/>
       <c r="K21" s="47"/>
@@ -3336,11 +3339,11 @@
         <v>81</v>
       </c>
       <c r="C22" s="37"/>
-      <c r="D22" s="112"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="113"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="38"/>
       <c r="J22" s="39"/>
       <c r="K22" s="47"/>
@@ -3358,11 +3361,11 @@
         <v>45</v>
       </c>
       <c r="C23" s="32"/>
-      <c r="D23" s="112"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="112"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="34"/>
       <c r="J23" s="35"/>
       <c r="K23" s="31"/>
@@ -3380,11 +3383,11 @@
         <v>46</v>
       </c>
       <c r="C24" s="32"/>
-      <c r="D24" s="112"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="112"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="34"/>
       <c r="J24" s="35"/>
       <c r="K24" s="31"/>
@@ -3402,11 +3405,11 @@
         <v>69</v>
       </c>
       <c r="C25" s="37"/>
-      <c r="D25" s="112"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="113"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
       <c r="K25" s="47"/>
@@ -3424,11 +3427,11 @@
         <v>70</v>
       </c>
       <c r="C26" s="37"/>
-      <c r="D26" s="112"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="113"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="38"/>
       <c r="J26" s="39"/>
       <c r="K26" s="47"/>
@@ -3446,11 +3449,11 @@
         <v>77</v>
       </c>
       <c r="C27" s="32"/>
-      <c r="D27" s="112"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="112"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="75"/>
       <c r="I27" s="34"/>
       <c r="J27" s="35"/>
       <c r="K27" s="31"/>
@@ -3468,11 +3471,11 @@
         <v>78</v>
       </c>
       <c r="C28" s="32"/>
-      <c r="D28" s="112"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="112"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="75"/>
       <c r="I28" s="34"/>
       <c r="J28" s="35"/>
       <c r="K28" s="31"/>
@@ -3490,11 +3493,11 @@
         <v>14</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="112"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="112"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="75"/>
       <c r="I29" s="34"/>
       <c r="J29" s="35"/>
       <c r="K29" s="31"/>
@@ -3512,11 +3515,11 @@
         <v>90</v>
       </c>
       <c r="C30" s="64"/>
-      <c r="D30" s="112"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="64"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="112"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="61"/>
       <c r="J30" s="35"/>
       <c r="K30" s="59"/>
@@ -3534,11 +3537,11 @@
         <v>15</v>
       </c>
       <c r="C31" s="32"/>
-      <c r="D31" s="112"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="112"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="34"/>
       <c r="J31" s="35"/>
       <c r="K31" s="31"/>
@@ -3556,11 +3559,11 @@
         <v>91</v>
       </c>
       <c r="C32" s="64"/>
-      <c r="D32" s="112"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="64"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="112"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="61"/>
       <c r="J32" s="35"/>
       <c r="K32" s="59"/>
@@ -3578,11 +3581,11 @@
         <v>16</v>
       </c>
       <c r="C33" s="32"/>
-      <c r="D33" s="112"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="112"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="75"/>
       <c r="I33" s="34"/>
       <c r="J33" s="35"/>
       <c r="K33" s="31"/>
@@ -3600,11 +3603,11 @@
         <v>92</v>
       </c>
       <c r="C34" s="64"/>
-      <c r="D34" s="112"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="64"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="112"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="75"/>
       <c r="I34" s="61"/>
       <c r="J34" s="35"/>
       <c r="K34" s="59"/>
@@ -3622,11 +3625,11 @@
         <v>17</v>
       </c>
       <c r="C35" s="32"/>
-      <c r="D35" s="112"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="112"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="75"/>
       <c r="I35" s="34"/>
       <c r="J35" s="35"/>
       <c r="K35" s="31"/>
@@ -3644,11 +3647,11 @@
         <v>93</v>
       </c>
       <c r="C36" s="64"/>
-      <c r="D36" s="112"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="64"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="112"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="61"/>
       <c r="J36" s="35"/>
       <c r="K36" s="59"/>
@@ -3666,11 +3669,11 @@
         <v>18</v>
       </c>
       <c r="C37" s="32"/>
-      <c r="D37" s="112"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="112"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="34"/>
       <c r="J37" s="35"/>
       <c r="K37" s="31"/>
@@ -3688,11 +3691,11 @@
         <v>94</v>
       </c>
       <c r="C38" s="64"/>
-      <c r="D38" s="112"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="64"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="112"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="61"/>
       <c r="J38" s="35"/>
       <c r="K38" s="59"/>
@@ -3710,11 +3713,11 @@
         <v>19</v>
       </c>
       <c r="C39" s="32"/>
-      <c r="D39" s="112"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="112"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="34"/>
       <c r="J39" s="35"/>
       <c r="K39" s="31"/>
@@ -3732,11 +3735,11 @@
         <v>48</v>
       </c>
       <c r="C40" s="32"/>
-      <c r="D40" s="112"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="112"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="75"/>
       <c r="I40" s="34"/>
       <c r="J40" s="35"/>
       <c r="K40" s="31"/>
@@ -3754,11 +3757,11 @@
         <v>49</v>
       </c>
       <c r="C41" s="32"/>
-      <c r="D41" s="112"/>
+      <c r="D41" s="75"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="112"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="75"/>
       <c r="I41" s="34"/>
       <c r="J41" s="35"/>
       <c r="K41" s="31"/>
@@ -3777,20 +3780,20 @@
       </c>
     </row>
     <row r="43" spans="2:19" ht="16.5">
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
     </row>
     <row r="44" spans="2:19" ht="16.5">
       <c r="B44" s="60" t="s">
@@ -3814,18 +3817,18 @@
       <c r="B49" s="73">
         <v>1</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
     </row>
     <row r="50" spans="2:12" ht="16.5">
       <c r="B50" s="73">
@@ -3976,16 +3979,16 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61" s="69"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4023,8 +4026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J56"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4035,22 +4038,23 @@
     <col min="4" max="4" width="12.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="10" customWidth="1"/>
-    <col min="9" max="10" width="10.125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="16" customWidth="1"/>
     <col min="13" max="13" width="10.25" style="16" customWidth="1"/>
-    <col min="14" max="14" width="11.875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="10" customWidth="1"/>
     <col min="15" max="15" width="8" style="3" customWidth="1"/>
     <col min="16" max="17" width="13.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="91"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" ht="6.75" customHeight="1"/>
     <row r="3" spans="1:17" s="1" customFormat="1">
@@ -4078,77 +4082,77 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="95" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="84" t="s">
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="78" t="s">
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="78"/>
+      <c r="Q4" s="80"/>
     </row>
     <row r="5" spans="1:17" ht="31.9" customHeight="1">
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="94" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="77" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="77" t="s">
+      <c r="J5" s="80"/>
+      <c r="K5" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="78"/>
-      <c r="M5" s="77" t="s">
+      <c r="L5" s="80"/>
+      <c r="M5" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78" t="s">
+      <c r="N5" s="80"/>
+      <c r="O5" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="79" t="s">
+      <c r="P5" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="81" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="54" customHeight="1">
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
       <c r="G6" s="63" t="s">
         <v>89</v>
       </c>
@@ -4173,9 +4177,9 @@
       <c r="N6" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="O6" s="78"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
     </row>
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="11"/>
@@ -4185,11 +4189,11 @@
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="75"/>
       <c r="M7" s="17"/>
       <c r="N7" s="19"/>
       <c r="O7" s="12"/>
@@ -4204,11 +4208,11 @@
       <c r="E8" s="25"/>
       <c r="F8" s="26"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="17"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="17"/>
       <c r="N8" s="19"/>
       <c r="O8" s="12"/>
@@ -4223,11 +4227,11 @@
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="75"/>
       <c r="M9" s="17"/>
       <c r="N9" s="19"/>
       <c r="O9" s="12"/>
@@ -4242,11 +4246,11 @@
       <c r="E10" s="25"/>
       <c r="F10" s="26"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="17"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="75"/>
       <c r="M10" s="17"/>
       <c r="N10" s="19"/>
       <c r="O10" s="12"/>
@@ -4261,11 +4265,11 @@
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="17"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="17"/>
       <c r="N11" s="19"/>
       <c r="O11" s="12"/>
@@ -4280,11 +4284,11 @@
       <c r="E12" s="25"/>
       <c r="F12" s="26"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="17"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="17"/>
       <c r="N12" s="19"/>
       <c r="O12" s="12"/>
@@ -4299,11 +4303,11 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="17"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="75"/>
       <c r="M13" s="17"/>
       <c r="N13" s="19"/>
       <c r="O13" s="12"/>
@@ -4318,11 +4322,11 @@
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="75"/>
       <c r="M14" s="17"/>
       <c r="N14" s="19"/>
       <c r="O14" s="12"/>
@@ -4337,11 +4341,11 @@
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="17"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="75"/>
       <c r="M15" s="17"/>
       <c r="N15" s="19"/>
       <c r="O15" s="12"/>
@@ -4356,11 +4360,11 @@
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="17"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="75"/>
       <c r="M16" s="17"/>
       <c r="N16" s="19"/>
       <c r="O16" s="12"/>
@@ -4375,11 +4379,11 @@
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="17"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="17"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="75"/>
       <c r="M17" s="17"/>
       <c r="N17" s="19"/>
       <c r="O17" s="12"/>
@@ -4394,11 +4398,11 @@
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="17"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="75"/>
       <c r="M18" s="17"/>
       <c r="N18" s="19"/>
       <c r="O18" s="12"/>
@@ -4413,11 +4417,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="17"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="17"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="17"/>
       <c r="N19" s="19"/>
       <c r="O19" s="12"/>
@@ -4432,11 +4436,11 @@
       <c r="E20" s="25"/>
       <c r="F20" s="26"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="75"/>
       <c r="M20" s="17"/>
       <c r="N20" s="19"/>
       <c r="O20" s="12"/>
@@ -4451,11 +4455,11 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="75"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="17"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="75"/>
       <c r="M21" s="17"/>
       <c r="N21" s="19"/>
       <c r="O21" s="12"/>
@@ -4470,11 +4474,11 @@
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="17"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="75"/>
       <c r="M22" s="17"/>
       <c r="N22" s="19"/>
       <c r="O22" s="12"/>
@@ -4489,11 +4493,11 @@
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="17"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="17"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="75"/>
       <c r="M23" s="17"/>
       <c r="N23" s="19"/>
       <c r="O23" s="12"/>
@@ -4508,11 +4512,11 @@
       <c r="E24" s="25"/>
       <c r="F24" s="26"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="17"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="75"/>
       <c r="M24" s="17"/>
       <c r="N24" s="19"/>
       <c r="O24" s="12"/>
@@ -4527,11 +4531,11 @@
       <c r="E25" s="25"/>
       <c r="F25" s="26"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="75"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="17"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="75"/>
       <c r="M25" s="17"/>
       <c r="N25" s="19"/>
       <c r="O25" s="12"/>
@@ -4546,11 +4550,11 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="17"/>
+      <c r="H26" s="75"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="17"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="75"/>
       <c r="M26" s="17"/>
       <c r="N26" s="19"/>
       <c r="O26" s="12"/>
@@ -4565,11 +4569,11 @@
       <c r="E27" s="25"/>
       <c r="F27" s="26"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="75"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="17"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="75"/>
       <c r="M27" s="17"/>
       <c r="N27" s="19"/>
       <c r="O27" s="12"/>
@@ -4584,11 +4588,11 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="17"/>
+      <c r="H28" s="75"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="17"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="75"/>
       <c r="M28" s="17"/>
       <c r="N28" s="19"/>
       <c r="O28" s="12"/>
@@ -4603,11 +4607,11 @@
       <c r="E29" s="25"/>
       <c r="F29" s="26"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="17"/>
+      <c r="H29" s="75"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="17"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="75"/>
       <c r="M29" s="17"/>
       <c r="N29" s="19"/>
       <c r="O29" s="12"/>
@@ -4622,11 +4626,11 @@
       <c r="E30" s="25"/>
       <c r="F30" s="26"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="17"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="75"/>
       <c r="M30" s="17"/>
       <c r="N30" s="19"/>
       <c r="O30" s="12"/>
@@ -4641,11 +4645,11 @@
       <c r="E31" s="25"/>
       <c r="F31" s="26"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="17"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="17"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="75"/>
       <c r="M31" s="17"/>
       <c r="N31" s="19"/>
       <c r="O31" s="12"/>
@@ -4660,11 +4664,11 @@
       <c r="E32" s="25"/>
       <c r="F32" s="26"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="17"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="17"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="75"/>
       <c r="M32" s="17"/>
       <c r="N32" s="19"/>
       <c r="O32" s="12"/>
@@ -4679,11 +4683,11 @@
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="17"/>
+      <c r="H33" s="75"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="17"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="75"/>
       <c r="M33" s="17"/>
       <c r="N33" s="19"/>
       <c r="O33" s="12"/>
@@ -4698,11 +4702,11 @@
       <c r="E34" s="25"/>
       <c r="F34" s="26"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="17"/>
+      <c r="H34" s="75"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="17"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="75"/>
       <c r="M34" s="17"/>
       <c r="N34" s="19"/>
       <c r="O34" s="12"/>
@@ -4717,11 +4721,11 @@
       <c r="E35" s="25"/>
       <c r="F35" s="26"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="17"/>
+      <c r="H35" s="75"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="17"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="75"/>
       <c r="M35" s="17"/>
       <c r="N35" s="19"/>
       <c r="O35" s="12"/>
@@ -4736,11 +4740,11 @@
       <c r="E36" s="25"/>
       <c r="F36" s="26"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="17"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="17"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="75"/>
       <c r="M36" s="17"/>
       <c r="N36" s="19"/>
       <c r="O36" s="12"/>
@@ -4755,11 +4759,11 @@
       <c r="E37" s="25"/>
       <c r="F37" s="26"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="17"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="17"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="75"/>
       <c r="M37" s="17"/>
       <c r="N37" s="19"/>
       <c r="O37" s="12"/>
@@ -4774,11 +4778,11 @@
       <c r="E38" s="25"/>
       <c r="F38" s="26"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="17"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="17"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="75"/>
       <c r="M38" s="17"/>
       <c r="N38" s="19"/>
       <c r="O38" s="12"/>
@@ -4793,11 +4797,11 @@
       <c r="E39" s="25"/>
       <c r="F39" s="26"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="17"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="17"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="75"/>
       <c r="M39" s="17"/>
       <c r="N39" s="19"/>
       <c r="O39" s="12"/>
@@ -4812,11 +4816,11 @@
       <c r="E40" s="25"/>
       <c r="F40" s="26"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="17"/>
+      <c r="H40" s="75"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="17"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="75"/>
       <c r="M40" s="17"/>
       <c r="N40" s="19"/>
       <c r="O40" s="12"/>
@@ -4831,11 +4835,11 @@
       <c r="E41" s="25"/>
       <c r="F41" s="26"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="17"/>
+      <c r="H41" s="75"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="17"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="75"/>
       <c r="M41" s="17"/>
       <c r="N41" s="19"/>
       <c r="O41" s="12"/>
@@ -4850,11 +4854,11 @@
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="17"/>
+      <c r="H42" s="75"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="17"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="75"/>
       <c r="M42" s="17"/>
       <c r="N42" s="19"/>
       <c r="O42" s="12"/>
@@ -4869,11 +4873,11 @@
       <c r="E43" s="25"/>
       <c r="F43" s="26"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="17"/>
+      <c r="H43" s="75"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="17"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="75"/>
       <c r="M43" s="17"/>
       <c r="N43" s="19"/>
       <c r="O43" s="12"/>
@@ -4888,11 +4892,11 @@
       <c r="E44" s="25"/>
       <c r="F44" s="26"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="17"/>
+      <c r="H44" s="75"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="17"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="75"/>
       <c r="M44" s="17"/>
       <c r="N44" s="19"/>
       <c r="O44" s="12"/>
@@ -4907,11 +4911,11 @@
       <c r="E45" s="25"/>
       <c r="F45" s="26"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="17"/>
+      <c r="H45" s="75"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="17"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="75"/>
       <c r="M45" s="17"/>
       <c r="N45" s="19"/>
       <c r="O45" s="12"/>
@@ -4926,11 +4930,11 @@
       <c r="E46" s="25"/>
       <c r="F46" s="26"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="17"/>
+      <c r="H46" s="75"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="17"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="75"/>
       <c r="M46" s="17"/>
       <c r="N46" s="19"/>
       <c r="O46" s="12"/>
@@ -4945,11 +4949,11 @@
       <c r="E47" s="25"/>
       <c r="F47" s="26"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="17"/>
+      <c r="H47" s="75"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="17"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="75"/>
       <c r="M47" s="17"/>
       <c r="N47" s="19"/>
       <c r="O47" s="12"/>
@@ -4964,11 +4968,11 @@
       <c r="E48" s="25"/>
       <c r="F48" s="26"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="17"/>
+      <c r="H48" s="75"/>
       <c r="I48" s="13"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="17"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="75"/>
       <c r="M48" s="17"/>
       <c r="N48" s="19"/>
       <c r="O48" s="12"/>
@@ -4983,11 +4987,11 @@
       <c r="E49" s="25"/>
       <c r="F49" s="26"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="17"/>
+      <c r="H49" s="75"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="17"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="75"/>
       <c r="M49" s="17"/>
       <c r="N49" s="19"/>
       <c r="O49" s="12"/>
@@ -5002,11 +5006,11 @@
       <c r="E50" s="25"/>
       <c r="F50" s="26"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="17"/>
+      <c r="H50" s="75"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="17"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="75"/>
       <c r="M50" s="17"/>
       <c r="N50" s="19"/>
       <c r="O50" s="12"/>
@@ -5021,11 +5025,11 @@
       <c r="E51" s="25"/>
       <c r="F51" s="26"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="17"/>
+      <c r="H51" s="75"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="17"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="75"/>
       <c r="M51" s="17"/>
       <c r="N51" s="19"/>
       <c r="O51" s="12"/>
@@ -5040,11 +5044,11 @@
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="17"/>
+      <c r="H52" s="75"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="17"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="75"/>
       <c r="M52" s="17"/>
       <c r="N52" s="19"/>
       <c r="O52" s="12"/>
@@ -5059,11 +5063,11 @@
       <c r="E53" s="25"/>
       <c r="F53" s="26"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="17"/>
+      <c r="H53" s="75"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="17"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="75"/>
       <c r="M53" s="17"/>
       <c r="N53" s="19"/>
       <c r="O53" s="12"/>
@@ -5078,11 +5082,11 @@
       <c r="E54" s="25"/>
       <c r="F54" s="26"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="17"/>
+      <c r="H54" s="75"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="17"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="75"/>
       <c r="M54" s="17"/>
       <c r="N54" s="19"/>
       <c r="O54" s="12"/>
@@ -5097,11 +5101,11 @@
       <c r="E55" s="25"/>
       <c r="F55" s="26"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="17"/>
+      <c r="H55" s="75"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="17"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="75"/>
       <c r="M55" s="17"/>
       <c r="N55" s="19"/>
       <c r="O55" s="12"/>
@@ -5116,11 +5120,11 @@
       <c r="E56" s="25"/>
       <c r="F56" s="26"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="17"/>
+      <c r="H56" s="75"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="17"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="75"/>
       <c r="M56" s="17"/>
       <c r="N56" s="19"/>
       <c r="O56" s="12"/>
@@ -5141,44 +5145,44 @@
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="93"/>
-      <c r="M58" s="93"/>
-      <c r="N58" s="93"/>
-      <c r="O58" s="93"/>
-      <c r="P58" s="93"/>
-      <c r="Q58" s="93"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="94"/>
+      <c r="M58" s="94"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="94"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="94"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="93"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="93"/>
-      <c r="J59" s="93"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="93"/>
-      <c r="M59" s="93"/>
-      <c r="N59" s="93"/>
-      <c r="O59" s="93"/>
-      <c r="P59" s="93"/>
-      <c r="Q59" s="93"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="94"/>
+      <c r="M59" s="94"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="94"/>
     </row>
     <row r="62" spans="1:17">
       <c r="B62" s="1" t="s">
@@ -5291,10 +5295,10 @@
       <c r="L2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99"/>
     </row>
     <row r="3" spans="1:16" s="16" customFormat="1">
       <c r="A3" s="2"/>
@@ -5315,42 +5319,42 @@
     </row>
     <row r="4" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="100" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103" t="s">
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" s="16" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="104" t="s">
+      <c r="D5" s="106"/>
+      <c r="E5" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="104" t="s">
+      <c r="F5" s="106"/>
+      <c r="G5" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="105"/>
-      <c r="I5" s="104" t="s">
+      <c r="H5" s="106"/>
+      <c r="I5" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="105"/>
-      <c r="K5" s="103"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="104"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1">
@@ -5358,14 +5362,14 @@
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="109"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="110"/>
       <c r="K6" s="6"/>
       <c r="P6" s="10"/>
     </row>
@@ -5374,14 +5378,14 @@
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="109"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="110"/>
       <c r="K7" s="6"/>
       <c r="P7" s="10"/>
     </row>
@@ -5390,14 +5394,14 @@
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="109"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
       <c r="K8" s="6"/>
       <c r="P8" s="10"/>
     </row>
@@ -5406,14 +5410,14 @@
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="109"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="110"/>
       <c r="K9" s="6"/>
       <c r="P9" s="10"/>
     </row>
@@ -5422,14 +5426,14 @@
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="109"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
       <c r="K10" s="6"/>
       <c r="P10" s="10"/>
     </row>
@@ -5438,14 +5442,14 @@
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="109"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
       <c r="K11" s="6"/>
       <c r="P11" s="10"/>
     </row>
@@ -5454,14 +5458,14 @@
       <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="109"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
       <c r="K12" s="6"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -5474,14 +5478,14 @@
       <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="109"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
       <c r="K13" s="6"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -5494,14 +5498,14 @@
       <c r="B14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="109"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
       <c r="K14" s="6"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -5514,14 +5518,14 @@
       <c r="B15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="109"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="110"/>
       <c r="K15" s="6"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -5689,69 +5693,69 @@
     </row>
     <row r="27" spans="1:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="110" t="s">
+      <c r="E27" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="103" t="s">
+      <c r="F27" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="110" t="s">
+      <c r="G27" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="103" t="s">
+      <c r="H27" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="110" t="s">
+      <c r="I27" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="103" t="s">
+      <c r="J27" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="110" t="s">
+      <c r="K27" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="103" t="s">
+      <c r="L27" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="79" t="s">
+      <c r="M27" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="103" t="s">
+      <c r="N27" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="79" t="s">
+      <c r="O27" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="103" t="s">
+      <c r="P27" s="104" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="103"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="104"/>
     </row>
     <row r="29" spans="1:16" s="3" customFormat="1">
       <c r="A29" s="2"/>
@@ -5886,32 +5890,32 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="103" t="s">
+      <c r="D37" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="110" t="s">
+      <c r="F37" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="79" t="s">
+      <c r="G37" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="103" t="s">
+      <c r="H37" s="104" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="103"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="103"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="104"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="104"/>
     </row>
     <row r="39" spans="1:16">
       <c r="B39" s="7" t="s">

--- a/PhoenixCI/Excel_Template/40040.xlsx
+++ b/PhoenixCI/Excel_Template/40040.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandylo\Desktop\Update Source\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>TX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,14 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T5F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -182,22 +174,6 @@
       </rPr>
       <t>保證金。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XIF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -738,26 +714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RHF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TJF</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>RHO</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTO</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>d.</t>
     </r>
@@ -805,10 +761,6 @@
       <t>保證金。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTF</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BT</t>
@@ -1083,33 +1035,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XEF</t>
+    <t>UD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>比較</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I5F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之保證金與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>JPX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SGX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>保證金</t>
+    </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>XJF</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>I5F</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>UD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
+    <r>
+      <t>e.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
@@ -1119,16 +1131,48 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>I5F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>XEF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>XBF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>XAF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
@@ -1138,26 +1182,40 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>JPX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>保證金；比較</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>XJF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之保證金與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1166,155 +1224,13 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="8"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
       <t>保證金</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>UDF</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPF</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>XBF</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>XAF</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>比較</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>XEF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>XBF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>XAF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之保證金與</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>保證金；比較</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>XJF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之保證金與</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SGX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>保證金</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNF</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRF</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1455,26 +1371,6 @@
   <si>
     <t>本日保證金變動幅度</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TXO_TX</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEO_TE</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFO_TF</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTO_GT</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>XIO_XI</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2428,67 +2324,91 @@
     <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2509,35 +2429,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2850,7 +2746,7 @@
   <dimension ref="B1:S61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:S1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2874,79 +2770,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
     </row>
     <row r="2" spans="2:19" ht="6.75" customHeight="1"/>
     <row r="3" spans="2:19" ht="16.5">
       <c r="B3" s="74" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="20.25" customHeight="1">
-      <c r="B4" s="88"/>
-      <c r="C4" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="82"/>
+      <c r="N4" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+    </row>
+    <row r="5" spans="2:19" ht="34.5" customHeight="1">
+      <c r="B5" s="83"/>
+      <c r="C5" s="79" t="s">
         <v>65</v>
-      </c>
-      <c r="M4" s="87"/>
-      <c r="N4" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-    </row>
-    <row r="5" spans="2:19" ht="34.5" customHeight="1">
-      <c r="B5" s="88"/>
-      <c r="C5" s="79" t="s">
-        <v>86</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="79" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F5" s="80"/>
       <c r="G5" s="79" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="79" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="J5" s="80"/>
       <c r="K5" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="81" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="L5" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="87" t="s">
+        <v>76</v>
       </c>
       <c r="N5" s="79" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="O5" s="80"/>
       <c r="P5" s="80"/>
@@ -2955,57 +2851,55 @@
       <c r="S5" s="80"/>
     </row>
     <row r="6" spans="2:19" ht="63">
-      <c r="B6" s="88"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="80"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" s="72" t="s">
-        <v>115</v>
-      </c>
       <c r="Q6" s="72" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="R6" s="72" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="S6" s="72" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:19" s="33" customFormat="1">
-      <c r="B7" s="66" t="s">
-        <v>0</v>
-      </c>
+      <c r="B7" s="66"/>
       <c r="C7" s="32"/>
       <c r="D7" s="75"/>
       <c r="E7" s="32"/>
@@ -3022,14 +2916,12 @@
       <c r="P7" s="64"/>
       <c r="Q7" s="64"/>
       <c r="R7" s="64" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="S7" s="32"/>
     </row>
     <row r="8" spans="2:19" s="33" customFormat="1">
-      <c r="B8" s="66" t="s">
-        <v>1</v>
-      </c>
+      <c r="B8" s="66"/>
       <c r="C8" s="32"/>
       <c r="D8" s="75"/>
       <c r="E8" s="32"/>
@@ -3049,9 +2941,7 @@
       <c r="S8" s="32"/>
     </row>
     <row r="9" spans="2:19" s="33" customFormat="1">
-      <c r="B9" s="66" t="s">
-        <v>2</v>
-      </c>
+      <c r="B9" s="66"/>
       <c r="C9" s="32"/>
       <c r="D9" s="75"/>
       <c r="E9" s="32"/>
@@ -3071,9 +2961,7 @@
       <c r="S9" s="32"/>
     </row>
     <row r="10" spans="2:19" s="33" customFormat="1">
-      <c r="B10" s="66" t="s">
-        <v>3</v>
-      </c>
+      <c r="B10" s="66"/>
       <c r="C10" s="32"/>
       <c r="D10" s="75"/>
       <c r="E10" s="32"/>
@@ -3093,9 +2981,7 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="2:19" s="33" customFormat="1">
-      <c r="B11" s="66" t="s">
-        <v>4</v>
-      </c>
+      <c r="B11" s="66"/>
       <c r="C11" s="32"/>
       <c r="D11" s="75"/>
       <c r="E11" s="32"/>
@@ -3115,9 +3001,7 @@
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="2:19" s="33" customFormat="1">
-      <c r="B12" s="66" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="66"/>
       <c r="C12" s="32"/>
       <c r="D12" s="75"/>
       <c r="E12" s="32"/>
@@ -3137,9 +3021,7 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="2:19" s="33" customFormat="1">
-      <c r="B13" s="66" t="s">
-        <v>11</v>
-      </c>
+      <c r="B13" s="66"/>
       <c r="C13" s="32"/>
       <c r="D13" s="75"/>
       <c r="E13" s="32"/>
@@ -3159,9 +3041,7 @@
       <c r="S13" s="32"/>
     </row>
     <row r="14" spans="2:19" s="33" customFormat="1">
-      <c r="B14" s="66" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="66"/>
       <c r="C14" s="32"/>
       <c r="D14" s="75"/>
       <c r="E14" s="32"/>
@@ -3180,10 +3060,8 @@
       <c r="R14" s="64"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="2:19" s="33" customFormat="1" ht="15.6" hidden="1" customHeight="1">
-      <c r="B15" s="66" t="s">
-        <v>51</v>
-      </c>
+    <row r="15" spans="2:19" s="33" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B15" s="66"/>
       <c r="C15" s="32"/>
       <c r="D15" s="75"/>
       <c r="E15" s="32"/>
@@ -3203,9 +3081,7 @@
       <c r="S15" s="32"/>
     </row>
     <row r="16" spans="2:19" s="33" customFormat="1">
-      <c r="B16" s="66" t="s">
-        <v>13</v>
-      </c>
+      <c r="B16" s="66"/>
       <c r="C16" s="32"/>
       <c r="D16" s="75"/>
       <c r="E16" s="32"/>
@@ -3225,9 +3101,7 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="2:19" s="33" customFormat="1">
-      <c r="B17" s="66" t="s">
-        <v>47</v>
-      </c>
+      <c r="B17" s="66"/>
       <c r="C17" s="32"/>
       <c r="D17" s="75"/>
       <c r="E17" s="32"/>
@@ -3247,9 +3121,7 @@
       <c r="S17" s="32"/>
     </row>
     <row r="18" spans="2:19" s="36" customFormat="1">
-      <c r="B18" s="67" t="s">
-        <v>71</v>
-      </c>
+      <c r="B18" s="67"/>
       <c r="C18" s="37"/>
       <c r="D18" s="75"/>
       <c r="E18" s="37"/>
@@ -3269,9 +3141,7 @@
       <c r="S18" s="37"/>
     </row>
     <row r="19" spans="2:19" s="36" customFormat="1">
-      <c r="B19" s="66" t="s">
-        <v>75</v>
-      </c>
+      <c r="B19" s="66"/>
       <c r="C19" s="37"/>
       <c r="D19" s="75"/>
       <c r="E19" s="37"/>
@@ -3291,9 +3161,7 @@
       <c r="S19" s="37"/>
     </row>
     <row r="20" spans="2:19" s="36" customFormat="1">
-      <c r="B20" s="66" t="s">
-        <v>76</v>
-      </c>
+      <c r="B20" s="66"/>
       <c r="C20" s="37"/>
       <c r="D20" s="75"/>
       <c r="E20" s="37"/>
@@ -3312,10 +3180,8 @@
       <c r="R20" s="37"/>
       <c r="S20" s="37"/>
     </row>
-    <row r="21" spans="2:19" s="36" customFormat="1" ht="15.6" hidden="1" customHeight="1">
-      <c r="B21" s="66" t="s">
-        <v>80</v>
-      </c>
+    <row r="21" spans="2:19" s="36" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B21" s="66"/>
       <c r="C21" s="37"/>
       <c r="D21" s="75"/>
       <c r="E21" s="37"/>
@@ -3335,9 +3201,7 @@
       <c r="S21" s="37"/>
     </row>
     <row r="22" spans="2:19" s="36" customFormat="1">
-      <c r="B22" s="66" t="s">
-        <v>81</v>
-      </c>
+      <c r="B22" s="66"/>
       <c r="C22" s="37"/>
       <c r="D22" s="75"/>
       <c r="E22" s="37"/>
@@ -3357,9 +3221,7 @@
       <c r="S22" s="37"/>
     </row>
     <row r="23" spans="2:19" s="33" customFormat="1">
-      <c r="B23" s="66" t="s">
-        <v>45</v>
-      </c>
+      <c r="B23" s="66"/>
       <c r="C23" s="32"/>
       <c r="D23" s="75"/>
       <c r="E23" s="32"/>
@@ -3379,9 +3241,7 @@
       <c r="S23" s="32"/>
     </row>
     <row r="24" spans="2:19" s="33" customFormat="1">
-      <c r="B24" s="66" t="s">
-        <v>46</v>
-      </c>
+      <c r="B24" s="66"/>
       <c r="C24" s="32"/>
       <c r="D24" s="75"/>
       <c r="E24" s="32"/>
@@ -3401,9 +3261,7 @@
       <c r="S24" s="32"/>
     </row>
     <row r="25" spans="2:19" s="36" customFormat="1">
-      <c r="B25" s="67" t="s">
-        <v>69</v>
-      </c>
+      <c r="B25" s="67"/>
       <c r="C25" s="37"/>
       <c r="D25" s="75"/>
       <c r="E25" s="37"/>
@@ -3423,9 +3281,7 @@
       <c r="S25" s="37"/>
     </row>
     <row r="26" spans="2:19" s="36" customFormat="1">
-      <c r="B26" s="67" t="s">
-        <v>70</v>
-      </c>
+      <c r="B26" s="67"/>
       <c r="C26" s="37"/>
       <c r="D26" s="75"/>
       <c r="E26" s="37"/>
@@ -3445,9 +3301,7 @@
       <c r="S26" s="37"/>
     </row>
     <row r="27" spans="2:19" s="33" customFormat="1">
-      <c r="B27" s="68" t="s">
-        <v>77</v>
-      </c>
+      <c r="B27" s="68"/>
       <c r="C27" s="32"/>
       <c r="D27" s="75"/>
       <c r="E27" s="32"/>
@@ -3467,9 +3321,7 @@
       <c r="S27" s="32"/>
     </row>
     <row r="28" spans="2:19" s="33" customFormat="1">
-      <c r="B28" s="68" t="s">
-        <v>78</v>
-      </c>
+      <c r="B28" s="68"/>
       <c r="C28" s="32"/>
       <c r="D28" s="75"/>
       <c r="E28" s="32"/>
@@ -3489,9 +3341,7 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="2:19" s="33" customFormat="1">
-      <c r="B29" s="66" t="s">
-        <v>14</v>
-      </c>
+      <c r="B29" s="66"/>
       <c r="C29" s="32"/>
       <c r="D29" s="75"/>
       <c r="E29" s="32"/>
@@ -3511,9 +3361,7 @@
       <c r="S29" s="32"/>
     </row>
     <row r="30" spans="2:19" s="62" customFormat="1">
-      <c r="B30" s="66" t="s">
-        <v>90</v>
-      </c>
+      <c r="B30" s="66"/>
       <c r="C30" s="64"/>
       <c r="D30" s="75"/>
       <c r="E30" s="64"/>
@@ -3533,9 +3381,7 @@
       <c r="S30" s="64"/>
     </row>
     <row r="31" spans="2:19" s="33" customFormat="1">
-      <c r="B31" s="66" t="s">
-        <v>15</v>
-      </c>
+      <c r="B31" s="66"/>
       <c r="C31" s="32"/>
       <c r="D31" s="75"/>
       <c r="E31" s="32"/>
@@ -3555,9 +3401,7 @@
       <c r="S31" s="32"/>
     </row>
     <row r="32" spans="2:19" s="62" customFormat="1">
-      <c r="B32" s="66" t="s">
-        <v>91</v>
-      </c>
+      <c r="B32" s="66"/>
       <c r="C32" s="64"/>
       <c r="D32" s="75"/>
       <c r="E32" s="64"/>
@@ -3577,9 +3421,7 @@
       <c r="S32" s="64"/>
     </row>
     <row r="33" spans="2:19" s="33" customFormat="1">
-      <c r="B33" s="66" t="s">
-        <v>16</v>
-      </c>
+      <c r="B33" s="66"/>
       <c r="C33" s="32"/>
       <c r="D33" s="75"/>
       <c r="E33" s="32"/>
@@ -3599,9 +3441,7 @@
       <c r="S33" s="32"/>
     </row>
     <row r="34" spans="2:19" s="62" customFormat="1">
-      <c r="B34" s="66" t="s">
-        <v>92</v>
-      </c>
+      <c r="B34" s="66"/>
       <c r="C34" s="64"/>
       <c r="D34" s="75"/>
       <c r="E34" s="64"/>
@@ -3621,9 +3461,7 @@
       <c r="S34" s="64"/>
     </row>
     <row r="35" spans="2:19" s="33" customFormat="1">
-      <c r="B35" s="66" t="s">
-        <v>17</v>
-      </c>
+      <c r="B35" s="66"/>
       <c r="C35" s="32"/>
       <c r="D35" s="75"/>
       <c r="E35" s="32"/>
@@ -3643,9 +3481,7 @@
       <c r="S35" s="32"/>
     </row>
     <row r="36" spans="2:19" s="62" customFormat="1">
-      <c r="B36" s="66" t="s">
-        <v>93</v>
-      </c>
+      <c r="B36" s="66"/>
       <c r="C36" s="64"/>
       <c r="D36" s="75"/>
       <c r="E36" s="64"/>
@@ -3665,9 +3501,7 @@
       <c r="S36" s="64"/>
     </row>
     <row r="37" spans="2:19" s="33" customFormat="1">
-      <c r="B37" s="66" t="s">
-        <v>18</v>
-      </c>
+      <c r="B37" s="66"/>
       <c r="C37" s="32"/>
       <c r="D37" s="75"/>
       <c r="E37" s="32"/>
@@ -3687,9 +3521,7 @@
       <c r="S37" s="32"/>
     </row>
     <row r="38" spans="2:19" s="62" customFormat="1">
-      <c r="B38" s="66" t="s">
-        <v>94</v>
-      </c>
+      <c r="B38" s="66"/>
       <c r="C38" s="64"/>
       <c r="D38" s="75"/>
       <c r="E38" s="64"/>
@@ -3709,9 +3541,7 @@
       <c r="S38" s="64"/>
     </row>
     <row r="39" spans="2:19" s="33" customFormat="1">
-      <c r="B39" s="66" t="s">
-        <v>19</v>
-      </c>
+      <c r="B39" s="66"/>
       <c r="C39" s="32"/>
       <c r="D39" s="75"/>
       <c r="E39" s="32"/>
@@ -3731,9 +3561,7 @@
       <c r="S39" s="32"/>
     </row>
     <row r="40" spans="2:19" s="33" customFormat="1">
-      <c r="B40" s="66" t="s">
-        <v>48</v>
-      </c>
+      <c r="B40" s="66"/>
       <c r="C40" s="32"/>
       <c r="D40" s="75"/>
       <c r="E40" s="32"/>
@@ -3753,9 +3581,7 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="2:19" s="33" customFormat="1">
-      <c r="B41" s="66" t="s">
-        <v>49</v>
-      </c>
+      <c r="B41" s="66"/>
       <c r="C41" s="32"/>
       <c r="D41" s="75"/>
       <c r="E41" s="32"/>
@@ -3776,66 +3602,66 @@
     </row>
     <row r="42" spans="2:19" ht="16.5">
       <c r="B42" s="60" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:19" ht="16.5">
-      <c r="B43" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
+      <c r="B43" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92"/>
     </row>
     <row r="44" spans="2:19" ht="16.5">
       <c r="B44" s="60" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:19" ht="16.5">
       <c r="B45" s="60" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="2:19" ht="16.5">
       <c r="B48" s="74" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" s="73">
         <v>1</v>
       </c>
-      <c r="C49" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
+      <c r="C49" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
     </row>
     <row r="50" spans="2:12" ht="16.5">
       <c r="B50" s="73">
         <v>2</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
@@ -3850,7 +3676,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
@@ -3863,7 +3689,7 @@
     <row r="52" spans="2:12" ht="16.5">
       <c r="B52" s="69"/>
       <c r="C52" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="41"/>
@@ -3876,7 +3702,7 @@
     <row r="53" spans="2:12" ht="16.5">
       <c r="B53" s="69"/>
       <c r="C53" s="41" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
@@ -3889,7 +3715,7 @@
     <row r="54" spans="2:12" ht="16.5">
       <c r="B54" s="69"/>
       <c r="C54" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D54" s="41"/>
       <c r="E54" s="41"/>
@@ -3902,7 +3728,7 @@
     <row r="55" spans="2:12" ht="16.5">
       <c r="B55" s="69"/>
       <c r="C55" s="18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
@@ -3915,7 +3741,7 @@
     <row r="56" spans="2:12" ht="16.5">
       <c r="B56" s="69"/>
       <c r="C56" s="18" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
@@ -3928,7 +3754,7 @@
     <row r="57" spans="2:12" s="28" customFormat="1" ht="16.5">
       <c r="B57" s="70"/>
       <c r="C57" s="56" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D57" s="57"/>
       <c r="E57" s="57"/>
@@ -3941,7 +3767,7 @@
     <row r="58" spans="2:12" s="52" customFormat="1" ht="16.5">
       <c r="B58" s="71"/>
       <c r="C58" s="18" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D58" s="54"/>
       <c r="E58" s="54"/>
@@ -3954,7 +3780,7 @@
     <row r="59" spans="2:12" ht="16.5">
       <c r="B59" s="69"/>
       <c r="C59" s="18" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
@@ -3967,7 +3793,7 @@
     <row r="60" spans="2:12" ht="16.5">
       <c r="B60" s="69"/>
       <c r="C60" s="41" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
@@ -3979,19 +3805,27 @@
     </row>
     <row r="61" spans="2:12">
       <c r="B61" s="69"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="N4:S4"/>
     <mergeCell ref="N5:S5"/>
@@ -4001,14 +3835,6 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C49:L49"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B43:M43"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4026,7 +3852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="B28" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="L7" sqref="L7:L56"/>
     </sheetView>
   </sheetViews>
@@ -4051,19 +3877,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="P1" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="92"/>
+      <c r="P1" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="98"/>
     </row>
     <row r="2" spans="1:17" ht="6.75" customHeight="1"/>
     <row r="3" spans="1:17" s="1" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4083,33 +3909,33 @@
     <row r="4" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="95" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="95" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="G4" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="80" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="80"/>
     </row>
@@ -4119,32 +3945,32 @@
       <c r="D5" s="96"/>
       <c r="E5" s="96"/>
       <c r="F5" s="95" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="79" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="J5" s="80"/>
       <c r="K5" s="79" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="L5" s="80"/>
       <c r="M5" s="79" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="N5" s="80"/>
       <c r="O5" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="81" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="P5" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="87" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="54" customHeight="1">
@@ -4154,32 +3980,32 @@
       <c r="E6" s="97"/>
       <c r="F6" s="97"/>
       <c r="G6" s="63" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="K6" s="63" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="L6" s="63" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="M6" s="63" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="N6" s="63" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="O6" s="80"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
     </row>
     <row r="7" spans="1:17" s="14" customFormat="1">
       <c r="A7" s="11"/>
@@ -5133,7 +4959,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="B57" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -5146,7 +4972,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="B58" s="93" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C58" s="94"/>
       <c r="D58" s="94"/>
@@ -5166,7 +4992,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="B59" s="93" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
@@ -5186,10 +5012,10 @@
     </row>
     <row r="62" spans="1:17">
       <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -5197,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -5205,18 +5031,11 @@
         <v>2</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B59:Q59"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F5:F6"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="O5:O6"/>
@@ -5228,6 +5047,13 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="B59:Q59"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5248,7 +5074,7 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
@@ -5285,20 +5111,20 @@
     <row r="2" spans="1:16" s="16" customFormat="1" ht="16.5">
       <c r="A2" s="2"/>
       <c r="B2" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="99"/>
+        <v>22</v>
+      </c>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
     </row>
     <row r="3" spans="1:16" s="16" customFormat="1">
       <c r="A3" s="2"/>
@@ -5319,153 +5145,153 @@
     </row>
     <row r="4" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104" t="s">
-        <v>30</v>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="101" t="s">
+        <v>24</v>
       </c>
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" s="16" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="106"/>
-      <c r="G5" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="104"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="113"/>
+      <c r="E5" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="113"/>
+      <c r="G5" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="113"/>
+      <c r="I5" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="113"/>
+      <c r="K5" s="101"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" s="16" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="110"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="103"/>
       <c r="K6" s="6"/>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" s="16" customFormat="1">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="110"/>
+        <v>9</v>
+      </c>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
       <c r="K7" s="6"/>
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16" s="16" customFormat="1">
       <c r="A8" s="2"/>
       <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103"/>
       <c r="K8" s="6"/>
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16" s="16" customFormat="1">
       <c r="A9" s="2"/>
       <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="110"/>
+        <v>11</v>
+      </c>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103"/>
       <c r="K9" s="6"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" s="16" customFormat="1">
       <c r="A10" s="2"/>
       <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
+        <v>12</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
       <c r="K10" s="6"/>
       <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" s="16" customFormat="1">
       <c r="A11" s="2"/>
       <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
       <c r="K11" s="6"/>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1">
       <c r="A12" s="2"/>
       <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
+        <v>29</v>
+      </c>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="103"/>
       <c r="K12" s="6"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -5476,16 +5302,16 @@
     <row r="13" spans="1:16" s="3" customFormat="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="6"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -5496,16 +5322,16 @@
     <row r="14" spans="1:16" s="3" customFormat="1">
       <c r="A14" s="2"/>
       <c r="B14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
+        <v>41</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="103"/>
       <c r="K14" s="6"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -5516,16 +5342,16 @@
     <row r="15" spans="1:16" s="3" customFormat="1">
       <c r="A15" s="2"/>
       <c r="B15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="110"/>
+        <v>42</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="103"/>
       <c r="K15" s="6"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -5681,7 +5507,7 @@
     <row r="25" spans="1:16" s="16" customFormat="1" ht="16.5">
       <c r="A25" s="2"/>
       <c r="B25" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -5693,69 +5519,69 @@
     </row>
     <row r="27" spans="1:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="N27" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="104" t="s">
-        <v>30</v>
+      <c r="N27" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="101" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="104"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="101"/>
     </row>
     <row r="29" spans="1:16" s="3" customFormat="1">
       <c r="A29" s="2"/>
@@ -5820,7 +5646,7 @@
     <row r="32" spans="1:16" s="3" customFormat="1">
       <c r="A32" s="2"/>
       <c r="B32" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="7"/>
@@ -5840,7 +5666,7 @@
     <row r="33" spans="1:16" s="3" customFormat="1">
       <c r="A33" s="2"/>
       <c r="B33" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="7"/>
@@ -5860,7 +5686,7 @@
     <row r="34" spans="1:16" s="3" customFormat="1">
       <c r="A34" s="2"/>
       <c r="B34" s="31" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="7"/>
@@ -5879,7 +5705,7 @@
     </row>
     <row r="35" spans="1:16" ht="16.5">
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="str">
         <f>"達得調整標準之天數自"&amp;YEAR(K2)&amp;"年"&amp;MONTH(K2)&amp;"月"&amp;DAY(K2)&amp;"日起計算。"</f>
@@ -5890,41 +5716,41 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="B37" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="111" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="104" t="s">
-        <v>30</v>
+      <c r="B37" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="101" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="104"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="104"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="101"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="101"/>
     </row>
     <row r="39" spans="1:16">
       <c r="B39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="7"/>
       <c r="F39" s="31" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="7"/>
@@ -5941,29 +5767,36 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -5980,36 +5813,29 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
